--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_14_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_14_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>745924.8293279568</v>
+        <v>745126.8195753762</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681851</v>
+        <v>590120.9651681854</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.518142777554</v>
+        <v>261.5181427775539</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>244.7868284651015</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>37.21774741986029</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>285.0955962666998</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>292.1305477164278</v>
+        <v>292.1305477164277</v>
       </c>
       <c r="H11" t="n">
-        <v>210.5592458869445</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.74933502228028</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.68158809340193</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>76.1441783013849</v>
+        <v>98.46450178456114</v>
       </c>
       <c r="U11" t="n">
-        <v>129.2374203248184</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>206.3349543086782</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>248.6633319173283</v>
       </c>
       <c r="Y11" t="n">
         <v>264.4888045373947</v>
@@ -1449,25 +1449,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>48.82731671355991</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>23.91415636080448</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>21.30796486970821</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>13.54353467886092</v>
+        <v>13.54353467886086</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>76.81470464147371</v>
+        <v>38.32579013386209</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>163.7345779286213</v>
       </c>
       <c r="T12" t="n">
-        <v>158.7593444224081</v>
+        <v>75.04999171617861</v>
       </c>
       <c r="U12" t="n">
         <v>102.4403961486009</v>
@@ -1509,13 +1509,13 @@
         <v>109.710463825814</v>
       </c>
       <c r="W12" t="n">
-        <v>249.98934675</v>
+        <v>127.7910795361589</v>
       </c>
       <c r="X12" t="n">
-        <v>82.26336239463718</v>
+        <v>82.26336239463713</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.671151418586</v>
+        <v>81.47288420474489</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.88542427684273</v>
+        <v>57.88542427684267</v>
       </c>
       <c r="C13" t="n">
-        <v>45.13828571736126</v>
+        <v>45.1382857173612</v>
       </c>
       <c r="D13" t="n">
-        <v>26.80729930067828</v>
+        <v>26.80729930067822</v>
       </c>
       <c r="E13" t="n">
-        <v>24.7763569593581</v>
+        <v>24.77635695935804</v>
       </c>
       <c r="F13" t="n">
-        <v>23.96075419596342</v>
+        <v>23.96075419596336</v>
       </c>
       <c r="G13" t="n">
-        <v>45.45539844031874</v>
+        <v>45.45539844031869</v>
       </c>
       <c r="H13" t="n">
-        <v>37.33823239619046</v>
+        <v>37.33823239619041</v>
       </c>
       <c r="I13" t="n">
-        <v>24.46542324868265</v>
+        <v>24.4654232486826</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.58491206648659</v>
+        <v>40.58491206648655</v>
       </c>
       <c r="S13" t="n">
-        <v>96.0476404749198</v>
+        <v>96.04764047491973</v>
       </c>
       <c r="T13" t="n">
-        <v>105.1261629622514</v>
+        <v>105.1261629622513</v>
       </c>
       <c r="U13" t="n">
         <v>163.8411346348987</v>
       </c>
       <c r="V13" t="n">
-        <v>130.7380838530981</v>
+        <v>130.738083853098</v>
       </c>
       <c r="W13" t="n">
-        <v>163.8943096735745</v>
+        <v>163.8943096735744</v>
       </c>
       <c r="X13" t="n">
-        <v>103.9420927184674</v>
+        <v>103.9420927184681</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.55040665392714</v>
+        <v>96.55040665392708</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>239.5574749253285</v>
       </c>
       <c r="C14" t="n">
-        <v>244.7868284651015</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>186.365836496341</v>
+        <v>260.9197685414464</v>
       </c>
       <c r="F14" t="n">
-        <v>285.0955962666997</v>
+        <v>285.0955962666998</v>
       </c>
       <c r="G14" t="n">
         <v>292.1305477164277</v>
       </c>
       <c r="H14" t="n">
-        <v>210.5592458869444</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.74933502228028</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>206.3349543086782</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>228.3318497867135</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>248.6633319173283</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>264.4888045373947</v>
       </c>
     </row>
     <row r="15">
@@ -1683,25 +1683,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>43.17385839650369</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
-        <v>48.82731671355985</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>23.91415636080443</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>33.83516649333269</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
-        <v>21.30796486970816</v>
+        <v>21.3079648697082</v>
       </c>
       <c r="G15" t="n">
-        <v>66.32288836308685</v>
+        <v>13.5435346788609</v>
       </c>
       <c r="H15" t="n">
-        <v>107.7447036634776</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>77.22297945631223</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>41.53631071478016</v>
+        <v>41.5363107147802</v>
       </c>
       <c r="T15" t="n">
-        <v>197.2482589300197</v>
+        <v>75.04999171617865</v>
       </c>
       <c r="U15" t="n">
-        <v>224.638663362442</v>
+        <v>102.4403961486009</v>
       </c>
       <c r="V15" t="n">
-        <v>231.9087310396551</v>
+        <v>109.710463825814</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>243.3398491263333</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
-        <v>81.47288420474489</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.88542427684267</v>
+        <v>57.88542427684271</v>
       </c>
       <c r="C16" t="n">
-        <v>45.1382857173612</v>
+        <v>45.13828571736124</v>
       </c>
       <c r="D16" t="n">
-        <v>26.80729930067822</v>
+        <v>26.80729930067827</v>
       </c>
       <c r="E16" t="n">
-        <v>24.77635695935804</v>
+        <v>24.77635695935808</v>
       </c>
       <c r="F16" t="n">
-        <v>23.96075419596336</v>
+        <v>23.9607541959634</v>
       </c>
       <c r="G16" t="n">
-        <v>45.45539844031869</v>
+        <v>45.45539844031872</v>
       </c>
       <c r="H16" t="n">
-        <v>37.33823239619041</v>
+        <v>37.33823239619045</v>
       </c>
       <c r="I16" t="n">
-        <v>24.4654232486826</v>
+        <v>24.46542324868265</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.58491206648652</v>
+        <v>40.58491206648659</v>
       </c>
       <c r="S16" t="n">
-        <v>96.04764047491973</v>
+        <v>96.04764047491979</v>
       </c>
       <c r="T16" t="n">
-        <v>105.1261629622513</v>
+        <v>105.1261629622514</v>
       </c>
       <c r="U16" t="n">
         <v>163.8411346348987</v>
       </c>
       <c r="V16" t="n">
-        <v>130.738083853098</v>
+        <v>130.7380838530981</v>
       </c>
       <c r="W16" t="n">
         <v>163.8943096735744</v>
       </c>
       <c r="X16" t="n">
-        <v>103.9420927184681</v>
+        <v>103.9420927184682</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.55040665392708</v>
+        <v>96.55040665392713</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>28.47587285583252</v>
+        <v>24.74634534070431</v>
       </c>
       <c r="V17" t="n">
         <v>105.5734068396924</v>
@@ -1910,7 +1910,7 @@
         <v>147.9017844483425</v>
       </c>
       <c r="Y17" t="n">
-        <v>159.9977295532804</v>
+        <v>163.7272570684089</v>
       </c>
     </row>
     <row r="18">
@@ -1935,7 +1935,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>135.741801892702</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1971,25 +1971,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>163.7345779286213</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>197.2482589300197</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>1.678848679615055</v>
       </c>
       <c r="V18" t="n">
-        <v>8.948916356828192</v>
+        <v>211.7540835671114</v>
       </c>
       <c r="W18" t="n">
-        <v>159.7410266275266</v>
+        <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="19">
@@ -2138,10 +2138,10 @@
         <v>28.47587285583252</v>
       </c>
       <c r="V20" t="n">
-        <v>101.843879324564</v>
+        <v>105.5734068396924</v>
       </c>
       <c r="W20" t="n">
-        <v>127.5703023177277</v>
+        <v>123.8407748025991</v>
       </c>
       <c r="X20" t="n">
         <v>147.9017844483425</v>
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>122.2778386349646</v>
       </c>
       <c r="F21" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.741801892702</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>107.7447036634776</v>
       </c>
       <c r="I21" t="n">
-        <v>76.81470464147371</v>
+        <v>76.81470464147372</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>77.22297945631223</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>163.7345779286213</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.2482589300197</v>
       </c>
       <c r="U21" t="n">
-        <v>1.678848679615055</v>
+        <v>224.638663362442</v>
       </c>
       <c r="V21" t="n">
-        <v>57.71639946932572</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>48.06101626638687</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>4.364615493265511</v>
+        <v>4.364615493265512</v>
       </c>
       <c r="U22" t="n">
         <v>63.07958716591283</v>
       </c>
       <c r="V22" t="n">
-        <v>29.97653638411222</v>
+        <v>224.1965740603035</v>
       </c>
       <c r="W22" t="n">
         <v>63.1327622045886</v>
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>107.7447036634776</v>
       </c>
       <c r="I24" t="n">
-        <v>49.85813266982216</v>
+        <v>76.81470464147372</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>77.22297945631223</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>160.8571970279014</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.2482589300197</v>
       </c>
       <c r="U24" t="n">
-        <v>1.678848679615055</v>
+        <v>224.638663362442</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>4.364615493265511</v>
+        <v>4.364615493265512</v>
       </c>
       <c r="U25" t="n">
-        <v>63.07958716591283</v>
+        <v>111.1406034322996</v>
       </c>
       <c r="V25" t="n">
         <v>29.97653638411222</v>
       </c>
       <c r="W25" t="n">
-        <v>257.35279988078</v>
+        <v>63.1327622045886</v>
       </c>
       <c r="X25" t="n">
         <v>3.180545249482321</v>
@@ -2573,7 +2573,7 @@
         <v>190.6392578690308</v>
       </c>
       <c r="I26" t="n">
-        <v>42.82934700436655</v>
+        <v>42.82934700436657</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>11.57599061935534</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>76.81470464147371</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>77.22297945631225</v>
       </c>
       <c r="S27" t="n">
         <v>163.7345779286213</v>
@@ -2697,7 +2697,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084783</v>
+        <v>72.12311332944599</v>
       </c>
       <c r="Y27" t="n">
         <v>203.671151418586</v>
@@ -2731,7 +2731,7 @@
         <v>17.41824437827674</v>
       </c>
       <c r="I28" t="n">
-        <v>4.545435230768935</v>
+        <v>4.54543523076894</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.66492404857287</v>
+        <v>20.66492404857288</v>
       </c>
       <c r="S28" t="n">
         <v>76.12765245700608</v>
@@ -2810,7 +2810,7 @@
         <v>190.6392578690308</v>
       </c>
       <c r="I29" t="n">
-        <v>42.82934700436658</v>
+        <v>42.8293470043666</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2877,19 +2877,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>13.91517847541905</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>1.387976851794519</v>
       </c>
       <c r="G30" t="n">
         <v>135.741801892702</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>107.7447036634776</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>76.81470464147372</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2925,13 +2925,13 @@
         <v>197.2482589300197</v>
       </c>
       <c r="U30" t="n">
-        <v>82.52040813068722</v>
+        <v>224.638663362442</v>
       </c>
       <c r="V30" t="n">
         <v>89.79047580790035</v>
       </c>
       <c r="W30" t="n">
-        <v>201.2502632663328</v>
+        <v>158.8091101931361</v>
       </c>
       <c r="X30" t="n">
         <v>204.4616296084783</v>
@@ -2968,7 +2968,7 @@
         <v>17.41824437827677</v>
       </c>
       <c r="I31" t="n">
-        <v>4.545435230768963</v>
+        <v>4.545435230768969</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.6649240485729</v>
+        <v>20.66492404857291</v>
       </c>
       <c r="S31" t="n">
         <v>76.12765245700611</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.76160007548822</v>
+        <v>51.76160007548825</v>
       </c>
       <c r="T32" t="n">
         <v>78.5445137666475</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>163.7345779286213</v>
+        <v>108.6190411059013</v>
       </c>
       <c r="T33" t="n">
-        <v>142.1327221072998</v>
+        <v>197.2482589300197</v>
       </c>
       <c r="U33" t="n">
         <v>82.52040813068722</v>
@@ -3205,7 +3205,7 @@
         <v>17.41824437827677</v>
       </c>
       <c r="I34" t="n">
-        <v>4.545435230768963</v>
+        <v>4.545435230768969</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>20.6649240485729</v>
+        <v>20.66492404857291</v>
       </c>
       <c r="S34" t="n">
         <v>76.12765245700611</v>
@@ -3357,13 +3357,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>135.741801892702</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>76.81470464147371</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>77.22297945631223</v>
+        <v>8.842382571254937</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,10 +3402,10 @@
         <v>3.975894364039687</v>
       </c>
       <c r="V36" t="n">
-        <v>11.24596204125282</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>189.7150123291707</v>
+        <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>72.15906931823817</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>6.661661177690142</v>
+        <v>6.661661177690143</v>
       </c>
       <c r="U37" t="n">
-        <v>175.9523727861674</v>
+        <v>248.1114421044055</v>
       </c>
       <c r="V37" t="n">
         <v>32.27358206853685</v>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>7.947264331532351</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
         <v>146.1124235746456</v>
@@ -3594,13 +3594,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>135.741801892702</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>107.7447036634776</v>
+        <v>8.84238257125593</v>
       </c>
       <c r="I39" t="n">
-        <v>76.81470464147371</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>224.638663362442</v>
+        <v>3.975894364039687</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -3648,7 +3648,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -3712,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>6.661661177690142</v>
+        <v>6.661661177690143</v>
       </c>
       <c r="U40" t="n">
-        <v>248.1114421044056</v>
+        <v>248.1114421044055</v>
       </c>
       <c r="V40" t="n">
         <v>32.27358206853685</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>189.836554684152</v>
+        <v>189.8365546841513</v>
       </c>
       <c r="C41" t="n">
         <v>173.1052403716996</v>
@@ -3746,7 +3746,7 @@
         <v>162.7248774473554</v>
       </c>
       <c r="E41" t="n">
-        <v>189.2381804480445</v>
+        <v>189.2381804480444</v>
       </c>
       <c r="F41" t="n">
         <v>213.4140081732978</v>
@@ -3755,7 +3755,7 @@
         <v>220.4489596230258</v>
       </c>
       <c r="H41" t="n">
-        <v>138.8776577935426</v>
+        <v>138.8776577935425</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>26.78291369115928</v>
+        <v>26.78291369115925</v>
       </c>
       <c r="U41" t="n">
-        <v>57.55583223141647</v>
+        <v>57.55583223141645</v>
       </c>
       <c r="V41" t="n">
         <v>134.6533662152763</v>
@@ -3819,7 +3819,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>146.1124235746456</v>
@@ -3834,10 +3834,10 @@
         <v>135.741801892702</v>
       </c>
       <c r="H42" t="n">
-        <v>107.7447036634776</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>76.81470464147371</v>
+        <v>76.81470464147372</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,19 +3864,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.22297945631223</v>
+        <v>77.22297945631225</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>163.7345779286213</v>
       </c>
       <c r="T42" t="n">
-        <v>126.5930125184444</v>
+        <v>3.368403622776724</v>
       </c>
       <c r="U42" t="n">
-        <v>30.75880805519899</v>
+        <v>224.638663362442</v>
       </c>
       <c r="V42" t="n">
-        <v>38.02887573241213</v>
+        <v>82.40933898309356</v>
       </c>
       <c r="W42" t="n">
         <v>249.98934675</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.36605238151789</v>
+        <v>24.36605238151786</v>
       </c>
       <c r="T43" t="n">
-        <v>33.44457486884945</v>
+        <v>33.44457486884942</v>
       </c>
       <c r="U43" t="n">
-        <v>92.15954654149677</v>
+        <v>92.15954654149674</v>
       </c>
       <c r="V43" t="n">
-        <v>59.05649575969616</v>
+        <v>59.05649575969613</v>
       </c>
       <c r="W43" t="n">
-        <v>92.21272158017254</v>
+        <v>92.21272158017251</v>
       </c>
       <c r="X43" t="n">
-        <v>32.26050462506626</v>
+        <v>32.26050462506623</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.86881856052523</v>
+        <v>24.8688185605252</v>
       </c>
     </row>
     <row r="44">
@@ -3980,10 +3980,10 @@
         <v>173.1052403716996</v>
       </c>
       <c r="D44" t="n">
-        <v>162.7248774473554</v>
+        <v>162.7248774473553</v>
       </c>
       <c r="E44" t="n">
-        <v>189.2381804480445</v>
+        <v>189.2381804480444</v>
       </c>
       <c r="F44" t="n">
         <v>213.4140081732978</v>
@@ -3992,7 +3992,7 @@
         <v>220.4489596230258</v>
       </c>
       <c r="H44" t="n">
-        <v>138.8776577935426</v>
+        <v>138.8776577935425</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>26.78291369115928</v>
+        <v>26.78291369115921</v>
       </c>
       <c r="U44" t="n">
-        <v>57.55583223141647</v>
+        <v>57.55583223141637</v>
       </c>
       <c r="V44" t="n">
         <v>134.6533662152763</v>
       </c>
       <c r="W44" t="n">
-        <v>156.6502616933116</v>
+        <v>156.6502616933115</v>
       </c>
       <c r="X44" t="n">
-        <v>176.9817438239264</v>
+        <v>176.9817438239263</v>
       </c>
       <c r="Y44" t="n">
-        <v>192.8072164439928</v>
+        <v>192.8072164439927</v>
       </c>
     </row>
     <row r="45">
@@ -4068,13 +4068,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.741801892702</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>107.7447036634776</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>76.81470464147371</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,19 +4101,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.22297945631223</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>123.2246088956676</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>3.368403622776752</v>
+        <v>136.3574915579233</v>
       </c>
       <c r="U45" t="n">
-        <v>30.75880805519899</v>
+        <v>224.638663362442</v>
       </c>
       <c r="V45" t="n">
-        <v>38.02887573241213</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
         <v>249.98934675</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>24.36605238151789</v>
+        <v>24.3660523815178</v>
       </c>
       <c r="T46" t="n">
-        <v>33.44457486884945</v>
+        <v>33.44457486884937</v>
       </c>
       <c r="U46" t="n">
-        <v>92.15954654149677</v>
+        <v>92.15954654149668</v>
       </c>
       <c r="V46" t="n">
-        <v>59.05649575969616</v>
+        <v>59.05649575969608</v>
       </c>
       <c r="W46" t="n">
-        <v>92.21272158017254</v>
+        <v>92.21272158017246</v>
       </c>
       <c r="X46" t="n">
-        <v>32.26050462506626</v>
+        <v>32.26050462506618</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.86881856052523</v>
+        <v>24.86881856052514</v>
       </c>
     </row>
   </sheetData>
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>893.2139018481172</v>
+        <v>614.0223853925993</v>
       </c>
       <c r="C11" t="n">
-        <v>893.2139018481172</v>
+        <v>366.7629627005774</v>
       </c>
       <c r="D11" t="n">
-        <v>893.2139018481172</v>
+        <v>329.1692784380924</v>
       </c>
       <c r="E11" t="n">
-        <v>893.2139018481172</v>
+        <v>329.1692784380924</v>
       </c>
       <c r="F11" t="n">
-        <v>605.2385520837739</v>
+        <v>329.1692784380924</v>
       </c>
       <c r="G11" t="n">
-        <v>310.1571907540491</v>
+        <v>34.08791710836746</v>
       </c>
       <c r="H11" t="n">
-        <v>97.47108379753948</v>
+        <v>34.08791710836746</v>
       </c>
       <c r="I11" t="n">
-        <v>34.08791710836747</v>
+        <v>34.08791710836746</v>
       </c>
       <c r="J11" t="n">
-        <v>77.62822786058666</v>
+        <v>77.62822786058678</v>
       </c>
       <c r="K11" t="n">
-        <v>265.160459748551</v>
+        <v>265.1604597485511</v>
       </c>
       <c r="L11" t="n">
-        <v>549.7798542629982</v>
+        <v>549.7798542629985</v>
       </c>
       <c r="M11" t="n">
-        <v>881.6860648045453</v>
+        <v>881.6860648045451</v>
       </c>
       <c r="N11" t="n">
-        <v>1203.445689837645</v>
+        <v>1203.445689837644</v>
       </c>
       <c r="O11" t="n">
-        <v>1461.145828364846</v>
+        <v>1461.145828364845</v>
       </c>
       <c r="P11" t="n">
         <v>1644.148141326388</v>
@@ -5066,25 +5066,25 @@
         <v>1704.395855418373</v>
       </c>
       <c r="S11" t="n">
-        <v>1631.990210879584</v>
+        <v>1704.395855418373</v>
       </c>
       <c r="T11" t="n">
-        <v>1555.076899464044</v>
+        <v>1604.936762706695</v>
       </c>
       <c r="U11" t="n">
-        <v>1424.534050651096</v>
+        <v>1604.936762706695</v>
       </c>
       <c r="V11" t="n">
-        <v>1424.534050651096</v>
+        <v>1396.517616940354</v>
       </c>
       <c r="W11" t="n">
-        <v>1424.534050651096</v>
+        <v>1396.517616940354</v>
       </c>
       <c r="X11" t="n">
-        <v>1424.534050651096</v>
+        <v>1145.342534195578</v>
       </c>
       <c r="Y11" t="n">
-        <v>1157.373642027464</v>
+        <v>878.1821255719467</v>
       </c>
     </row>
     <row r="12">
@@ -5094,31 +5094,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>377.9678271806716</v>
+        <v>709.3879151947236</v>
       </c>
       <c r="C12" t="n">
-        <v>328.6473052477828</v>
+        <v>536.6348001165409</v>
       </c>
       <c r="D12" t="n">
-        <v>304.4915917520207</v>
+        <v>389.0464934754847</v>
       </c>
       <c r="E12" t="n">
-        <v>146.8820627548754</v>
+        <v>231.4369644783394</v>
       </c>
       <c r="F12" t="n">
-        <v>125.3588659167863</v>
+        <v>86.48117449495629</v>
       </c>
       <c r="G12" t="n">
-        <v>111.6785278573308</v>
+        <v>72.80083643550088</v>
       </c>
       <c r="H12" t="n">
-        <v>111.6785278573308</v>
+        <v>72.80083643550088</v>
       </c>
       <c r="I12" t="n">
-        <v>34.08791710836747</v>
+        <v>34.08791710836746</v>
       </c>
       <c r="J12" t="n">
-        <v>34.08791710836747</v>
+        <v>34.08791710836746</v>
       </c>
       <c r="K12" t="n">
         <v>218.3167346624804</v>
@@ -5127,16 +5127,16 @@
         <v>526.884722075379</v>
       </c>
       <c r="M12" t="n">
-        <v>939.7692032492448</v>
+        <v>696.6238594778308</v>
       </c>
       <c r="N12" t="n">
-        <v>1335.885629853151</v>
+        <v>1118.461833693878</v>
       </c>
       <c r="O12" t="n">
-        <v>1335.885629853151</v>
+        <v>1452.626106848086</v>
       </c>
       <c r="P12" t="n">
-        <v>1587.655378423439</v>
+        <v>1704.395855418373</v>
       </c>
       <c r="Q12" t="n">
         <v>1704.395855418373</v>
@@ -5148,22 +5148,22 @@
         <v>1461.00438331238</v>
       </c>
       <c r="T12" t="n">
-        <v>1300.641409148331</v>
+        <v>1385.196310871795</v>
       </c>
       <c r="U12" t="n">
-        <v>1197.166261523482</v>
+        <v>1281.721163246946</v>
       </c>
       <c r="V12" t="n">
-        <v>1086.347611194377</v>
+        <v>1170.902512917841</v>
       </c>
       <c r="W12" t="n">
-        <v>833.8331195277101</v>
+        <v>1041.820614396468</v>
       </c>
       <c r="X12" t="n">
-        <v>750.7388140785816</v>
+        <v>958.7263089473396</v>
       </c>
       <c r="Y12" t="n">
-        <v>545.0103783022321</v>
+        <v>876.4304663162841</v>
       </c>
     </row>
     <row r="13">
@@ -5176,49 +5176,49 @@
         <v>264.332109288724</v>
       </c>
       <c r="C13" t="n">
-        <v>218.7378812913894</v>
+        <v>218.7378812913895</v>
       </c>
       <c r="D13" t="n">
-        <v>191.6598011896941</v>
+        <v>191.6598011896943</v>
       </c>
       <c r="E13" t="n">
-        <v>166.6331779984233</v>
+        <v>166.6331779984236</v>
       </c>
       <c r="F13" t="n">
-        <v>142.4303959822986</v>
+        <v>142.430395982299</v>
       </c>
       <c r="G13" t="n">
-        <v>96.51585210318882</v>
+        <v>96.51585210318876</v>
       </c>
       <c r="H13" t="n">
-        <v>58.80046584441055</v>
+        <v>58.80046584441058</v>
       </c>
       <c r="I13" t="n">
-        <v>34.08791710836747</v>
+        <v>34.08791710836746</v>
       </c>
       <c r="J13" t="n">
-        <v>83.62672302501434</v>
+        <v>83.62672302501457</v>
       </c>
       <c r="K13" t="n">
-        <v>217.1122371456289</v>
+        <v>217.1122371456292</v>
       </c>
       <c r="L13" t="n">
-        <v>409.8996439077688</v>
+        <v>409.8996439077691</v>
       </c>
       <c r="M13" t="n">
-        <v>617.1835877909909</v>
+        <v>617.1835877909913</v>
       </c>
       <c r="N13" t="n">
-        <v>827.5565903370161</v>
+        <v>827.5565903370164</v>
       </c>
       <c r="O13" t="n">
-        <v>1015.768616678379</v>
+        <v>1015.76861667838</v>
       </c>
       <c r="P13" t="n">
         <v>1171.054212268718</v>
       </c>
       <c r="Q13" t="n">
-        <v>1232.625207586164</v>
+        <v>1232.625207586165</v>
       </c>
       <c r="R13" t="n">
         <v>1191.630346912946</v>
@@ -5227,22 +5227,22 @@
         <v>1094.612528251411</v>
       </c>
       <c r="T13" t="n">
-        <v>988.4244848551972</v>
+        <v>988.4244848551978</v>
       </c>
       <c r="U13" t="n">
-        <v>822.9283892643904</v>
+        <v>822.9283892643911</v>
       </c>
       <c r="V13" t="n">
-        <v>690.8697187057054</v>
+        <v>690.8697187057062</v>
       </c>
       <c r="W13" t="n">
-        <v>525.3199109546201</v>
+        <v>525.3199109546209</v>
       </c>
       <c r="X13" t="n">
-        <v>420.3278981076835</v>
+        <v>420.3278981076834</v>
       </c>
       <c r="Y13" t="n">
-        <v>322.8022348208884</v>
+        <v>322.8022348208883</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1265.33847754424</v>
+        <v>944.0831166506443</v>
       </c>
       <c r="C14" t="n">
-        <v>1018.079054852219</v>
+        <v>944.0831166506443</v>
       </c>
       <c r="D14" t="n">
-        <v>1018.079054852219</v>
+        <v>944.0831166506443</v>
       </c>
       <c r="E14" t="n">
-        <v>829.8307351589451</v>
+        <v>680.5277948916076</v>
       </c>
       <c r="F14" t="n">
-        <v>541.855385394602</v>
+        <v>392.5524451272644</v>
       </c>
       <c r="G14" t="n">
-        <v>246.774024064877</v>
+        <v>97.47108379753946</v>
       </c>
       <c r="H14" t="n">
-        <v>34.08791710836746</v>
+        <v>97.47108379753946</v>
       </c>
       <c r="I14" t="n">
         <v>34.08791710836746</v>
       </c>
       <c r="J14" t="n">
-        <v>77.62822786058661</v>
+        <v>77.62822786058697</v>
       </c>
       <c r="K14" t="n">
-        <v>265.1604597485509</v>
+        <v>265.1604597485513</v>
       </c>
       <c r="L14" t="n">
-        <v>549.7798542629982</v>
+        <v>549.7798542629985</v>
       </c>
       <c r="M14" t="n">
-        <v>881.6860648045449</v>
+        <v>881.6860648045454</v>
       </c>
       <c r="N14" t="n">
-        <v>1203.445689837644</v>
+        <v>1203.445689837645</v>
       </c>
       <c r="O14" t="n">
-        <v>1461.145828364845</v>
+        <v>1461.145828364846</v>
       </c>
       <c r="P14" t="n">
         <v>1644.148141326388</v>
@@ -5312,16 +5312,16 @@
         <v>1704.395855418373</v>
       </c>
       <c r="V14" t="n">
-        <v>1495.976709652032</v>
+        <v>1704.395855418373</v>
       </c>
       <c r="W14" t="n">
-        <v>1265.33847754424</v>
+        <v>1704.395855418373</v>
       </c>
       <c r="X14" t="n">
-        <v>1265.33847754424</v>
+        <v>1453.220772673597</v>
       </c>
       <c r="Y14" t="n">
-        <v>1265.33847754424</v>
+        <v>1186.060364049966</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>339.0901357588417</v>
+        <v>547.2424027222962</v>
       </c>
       <c r="C15" t="n">
-        <v>289.7696138259529</v>
+        <v>374.4892876441135</v>
       </c>
       <c r="D15" t="n">
-        <v>265.6139003301909</v>
+        <v>226.9009810030573</v>
       </c>
       <c r="E15" t="n">
-        <v>231.4369644783397</v>
+        <v>69.29145200591202</v>
       </c>
       <c r="F15" t="n">
-        <v>209.9137676402507</v>
+        <v>47.76825516782292</v>
       </c>
       <c r="G15" t="n">
-        <v>142.9209511118801</v>
+        <v>34.08791710836746</v>
       </c>
       <c r="H15" t="n">
         <v>34.08791710836746</v>
@@ -5355,22 +5355,22 @@
         <v>34.08791710836746</v>
       </c>
       <c r="J15" t="n">
-        <v>67.80227309328072</v>
+        <v>34.08791710836746</v>
       </c>
       <c r="K15" t="n">
-        <v>67.80227309328072</v>
+        <v>34.08791710836746</v>
       </c>
       <c r="L15" t="n">
-        <v>376.3702605061794</v>
+        <v>342.6559045212662</v>
       </c>
       <c r="M15" t="n">
-        <v>789.2547416800452</v>
+        <v>755.5403856951318</v>
       </c>
       <c r="N15" t="n">
-        <v>1211.092715896093</v>
+        <v>1177.378359911179</v>
       </c>
       <c r="O15" t="n">
-        <v>1545.2569890503</v>
+        <v>1511.542633065387</v>
       </c>
       <c r="P15" t="n">
         <v>1704.395855418373</v>
@@ -5379,28 +5379,28 @@
         <v>1704.395855418373</v>
       </c>
       <c r="R15" t="n">
-        <v>1626.392845866543</v>
+        <v>1704.395855418373</v>
       </c>
       <c r="S15" t="n">
-        <v>1584.436976457674</v>
+        <v>1662.439986009504</v>
       </c>
       <c r="T15" t="n">
-        <v>1385.196310871795</v>
+        <v>1586.63191356892</v>
       </c>
       <c r="U15" t="n">
-        <v>1158.288570101652</v>
+        <v>1483.15676594407</v>
       </c>
       <c r="V15" t="n">
-        <v>924.0373266272527</v>
+        <v>1372.338115614965</v>
       </c>
       <c r="W15" t="n">
-        <v>671.522834960586</v>
+        <v>1126.540288214629</v>
       </c>
       <c r="X15" t="n">
-        <v>464.9959363661635</v>
+        <v>920.0133896202062</v>
       </c>
       <c r="Y15" t="n">
-        <v>382.7000937351081</v>
+        <v>714.2849538438567</v>
       </c>
     </row>
     <row r="16">
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>264.3321092887239</v>
+        <v>264.332109288724</v>
       </c>
       <c r="C16" t="n">
         <v>218.7378812913894</v>
@@ -5419,13 +5419,13 @@
         <v>191.6598011896942</v>
       </c>
       <c r="E16" t="n">
-        <v>166.6331779984234</v>
+        <v>166.6331779984233</v>
       </c>
       <c r="F16" t="n">
-        <v>142.4303959822988</v>
+        <v>142.4303959822987</v>
       </c>
       <c r="G16" t="n">
-        <v>96.51585210318868</v>
+        <v>96.51585210318873</v>
       </c>
       <c r="H16" t="n">
         <v>58.8004658444105</v>
@@ -5434,19 +5434,19 @@
         <v>34.08791710836746</v>
       </c>
       <c r="J16" t="n">
-        <v>83.62672302501437</v>
+        <v>83.62672302501431</v>
       </c>
       <c r="K16" t="n">
-        <v>217.112237145629</v>
+        <v>217.1122371456289</v>
       </c>
       <c r="L16" t="n">
-        <v>409.8996439077689</v>
+        <v>409.8996439077688</v>
       </c>
       <c r="M16" t="n">
-        <v>617.1835877909912</v>
+        <v>617.1835877909909</v>
       </c>
       <c r="N16" t="n">
-        <v>827.5565903370164</v>
+        <v>827.5565903370161</v>
       </c>
       <c r="O16" t="n">
         <v>1015.76861667838</v>
@@ -5455,10 +5455,10 @@
         <v>1171.054212268718</v>
       </c>
       <c r="Q16" t="n">
-        <v>1232.625207586165</v>
+        <v>1232.625207586164</v>
       </c>
       <c r="R16" t="n">
-        <v>1191.630346912946</v>
+        <v>1191.630346912945</v>
       </c>
       <c r="S16" t="n">
         <v>1094.612528251411</v>
@@ -5467,16 +5467,16 @@
         <v>988.4244848551978</v>
       </c>
       <c r="U16" t="n">
-        <v>822.9283892643912</v>
+        <v>822.9283892643909</v>
       </c>
       <c r="V16" t="n">
-        <v>690.8697187057063</v>
+        <v>690.8697187057061</v>
       </c>
       <c r="W16" t="n">
         <v>525.3199109546208</v>
       </c>
       <c r="X16" t="n">
-        <v>420.3278981076833</v>
+        <v>420.3278981076834</v>
       </c>
       <c r="Y16" t="n">
         <v>322.8022348208883</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>966.7436419603495</v>
+        <v>966.7436419603492</v>
       </c>
       <c r="C17" t="n">
-        <v>821.2635601460912</v>
+        <v>821.2635601460909</v>
       </c>
       <c r="D17" t="n">
-        <v>686.2686934069282</v>
+        <v>686.2686934069278</v>
       </c>
       <c r="E17" t="n">
-        <v>524.4927125256548</v>
+        <v>524.4927125256545</v>
       </c>
       <c r="F17" t="n">
-        <v>338.2967036390751</v>
+        <v>338.2967036390746</v>
       </c>
       <c r="G17" t="n">
         <v>144.9946831871136</v>
@@ -5513,16 +5513,16 @@
         <v>34.08791710836746</v>
       </c>
       <c r="J17" t="n">
-        <v>77.62822786058661</v>
+        <v>77.62822786058678</v>
       </c>
       <c r="K17" t="n">
-        <v>265.1604597485507</v>
+        <v>265.1604597485509</v>
       </c>
       <c r="L17" t="n">
-        <v>549.779854262998</v>
+        <v>549.7798542629982</v>
       </c>
       <c r="M17" t="n">
-        <v>881.6860648045449</v>
+        <v>881.686064804545</v>
       </c>
       <c r="N17" t="n">
         <v>1203.445689837644</v>
@@ -5546,16 +5546,16 @@
         <v>1704.395855418373</v>
       </c>
       <c r="U17" t="n">
-        <v>1675.632347483189</v>
+        <v>1679.399546993419</v>
       </c>
       <c r="V17" t="n">
-        <v>1568.992542594611</v>
+        <v>1572.759742104841</v>
       </c>
       <c r="W17" t="n">
-        <v>1440.133651364583</v>
+        <v>1443.900850874813</v>
       </c>
       <c r="X17" t="n">
-        <v>1290.73790949757</v>
+        <v>1294.505109007801</v>
       </c>
       <c r="Y17" t="n">
         <v>1129.124041261933</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>794.1075890128843</v>
+        <v>656.9946578081349</v>
       </c>
       <c r="C18" t="n">
-        <v>621.3544739347014</v>
+        <v>484.2415427299521</v>
       </c>
       <c r="D18" t="n">
-        <v>473.7661672936454</v>
+        <v>336.6532360888959</v>
       </c>
       <c r="E18" t="n">
-        <v>316.1566382965001</v>
+        <v>179.0437070917506</v>
       </c>
       <c r="F18" t="n">
-        <v>171.200848313117</v>
+        <v>34.08791710836746</v>
       </c>
       <c r="G18" t="n">
         <v>34.08791710836746</v>
@@ -5592,25 +5592,25 @@
         <v>34.08791710836746</v>
       </c>
       <c r="J18" t="n">
-        <v>67.80227309328072</v>
+        <v>34.08791710836746</v>
       </c>
       <c r="K18" t="n">
-        <v>252.0310906473936</v>
+        <v>34.08791710836746</v>
       </c>
       <c r="L18" t="n">
-        <v>560.5990780602923</v>
+        <v>283.7393783039651</v>
       </c>
       <c r="M18" t="n">
-        <v>579.883382482896</v>
+        <v>696.6238594778308</v>
       </c>
       <c r="N18" t="n">
-        <v>1001.721356698943</v>
+        <v>1118.461833693878</v>
       </c>
       <c r="O18" t="n">
-        <v>1335.885629853151</v>
+        <v>1452.626106848086</v>
       </c>
       <c r="P18" t="n">
-        <v>1587.655378423438</v>
+        <v>1704.395855418373</v>
       </c>
       <c r="Q18" t="n">
         <v>1704.395855418373</v>
@@ -5619,25 +5619,25 @@
         <v>1704.395855418373</v>
       </c>
       <c r="S18" t="n">
-        <v>1539.00739286421</v>
+        <v>1704.395855418373</v>
       </c>
       <c r="T18" t="n">
-        <v>1339.766727278332</v>
+        <v>1704.395855418373</v>
       </c>
       <c r="U18" t="n">
-        <v>1338.070920531246</v>
+        <v>1702.700048671287</v>
       </c>
       <c r="V18" t="n">
-        <v>1329.031611079904</v>
+        <v>1488.807034967134</v>
       </c>
       <c r="W18" t="n">
-        <v>1167.677038728867</v>
+        <v>1236.292543300468</v>
       </c>
       <c r="X18" t="n">
-        <v>961.1501401344448</v>
+        <v>1029.765644706045</v>
       </c>
       <c r="Y18" t="n">
-        <v>961.1501401344448</v>
+        <v>824.0372089296953</v>
       </c>
     </row>
     <row r="19">
@@ -5750,7 +5750,7 @@
         <v>34.08791710836746</v>
       </c>
       <c r="J20" t="n">
-        <v>77.62822786058655</v>
+        <v>77.62822786058663</v>
       </c>
       <c r="K20" t="n">
         <v>265.1604597485509</v>
@@ -5786,7 +5786,7 @@
         <v>1675.632347483189</v>
       </c>
       <c r="V20" t="n">
-        <v>1572.759742104841</v>
+        <v>1568.992542594611</v>
       </c>
       <c r="W20" t="n">
         <v>1443.900850874813</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>734.5852685570983</v>
+        <v>626.0932513671222</v>
       </c>
       <c r="C21" t="n">
-        <v>561.8321534789154</v>
+        <v>626.0932513671222</v>
       </c>
       <c r="D21" t="n">
-        <v>414.2438468378592</v>
+        <v>626.0932513671222</v>
       </c>
       <c r="E21" t="n">
-        <v>256.6343178407139</v>
+        <v>502.5802830489762</v>
       </c>
       <c r="F21" t="n">
-        <v>111.6785278573308</v>
+        <v>357.624493065593</v>
       </c>
       <c r="G21" t="n">
-        <v>111.6785278573308</v>
+        <v>220.5115618608435</v>
       </c>
       <c r="H21" t="n">
         <v>111.6785278573308</v>
@@ -5829,16 +5829,16 @@
         <v>34.08791710836746</v>
       </c>
       <c r="J21" t="n">
-        <v>34.08791710836746</v>
+        <v>67.80227309328069</v>
       </c>
       <c r="K21" t="n">
-        <v>218.3167346624804</v>
+        <v>252.0310906473936</v>
       </c>
       <c r="L21" t="n">
-        <v>526.884722075379</v>
+        <v>560.5990780602922</v>
       </c>
       <c r="M21" t="n">
-        <v>939.7692032492448</v>
+        <v>973.4835592341578</v>
       </c>
       <c r="N21" t="n">
         <v>1118.461833693878</v>
@@ -5853,28 +5853,28 @@
         <v>1704.395855418373</v>
       </c>
       <c r="R21" t="n">
-        <v>1626.392845866543</v>
+        <v>1704.395855418373</v>
       </c>
       <c r="S21" t="n">
-        <v>1626.392845866543</v>
+        <v>1539.00739286421</v>
       </c>
       <c r="T21" t="n">
-        <v>1626.392845866543</v>
+        <v>1339.766727278331</v>
       </c>
       <c r="U21" t="n">
-        <v>1624.697039119457</v>
+        <v>1112.858986508188</v>
       </c>
       <c r="V21" t="n">
-        <v>1566.397645716097</v>
+        <v>878.6077430337889</v>
       </c>
       <c r="W21" t="n">
-        <v>1313.883154049431</v>
+        <v>626.0932513671222</v>
       </c>
       <c r="X21" t="n">
-        <v>1107.356255455008</v>
+        <v>626.0932513671222</v>
       </c>
       <c r="Y21" t="n">
-        <v>901.6278196786587</v>
+        <v>626.0932513671222</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>230.2697733469446</v>
+        <v>34.08791710836746</v>
       </c>
       <c r="C22" t="n">
-        <v>181.7232922697862</v>
+        <v>34.08791710836746</v>
       </c>
       <c r="D22" t="n">
-        <v>181.7232922697862</v>
+        <v>34.08791710836746</v>
       </c>
       <c r="E22" t="n">
-        <v>181.7232922697862</v>
+        <v>34.08791710836746</v>
       </c>
       <c r="F22" t="n">
         <v>34.08791710836746</v>
@@ -5911,7 +5911,7 @@
         <v>34.08791710836746</v>
       </c>
       <c r="K22" t="n">
-        <v>46.59714668727933</v>
+        <v>46.59714668727932</v>
       </c>
       <c r="L22" t="n">
         <v>118.4082689077166</v>
@@ -5923,37 +5923,37 @@
         <v>294.1126462535585</v>
       </c>
       <c r="O22" t="n">
-        <v>361.3483880532194</v>
+        <v>361.3483880532193</v>
       </c>
       <c r="P22" t="n">
-        <v>395.6576991018552</v>
+        <v>395.6576991018551</v>
       </c>
       <c r="Q22" t="n">
-        <v>395.6576991018552</v>
+        <v>395.6576991018551</v>
       </c>
       <c r="R22" t="n">
-        <v>395.6576991018552</v>
+        <v>395.6576991018551</v>
       </c>
       <c r="S22" t="n">
-        <v>395.6576991018552</v>
+        <v>395.6576991018551</v>
       </c>
       <c r="T22" t="n">
-        <v>391.2489965834052</v>
+        <v>391.2489965834051</v>
       </c>
       <c r="U22" t="n">
-        <v>327.5322418703619</v>
+        <v>327.5322418703618</v>
       </c>
       <c r="V22" t="n">
-        <v>297.2529121894405</v>
+        <v>101.0710559508634</v>
       </c>
       <c r="W22" t="n">
-        <v>233.4824453161187</v>
+        <v>37.30058907754152</v>
       </c>
       <c r="X22" t="n">
-        <v>230.2697733469446</v>
+        <v>34.08791710836746</v>
       </c>
       <c r="Y22" t="n">
-        <v>230.2697733469446</v>
+        <v>34.08791710836746</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>966.8205235830072</v>
+        <v>966.8205235830068</v>
       </c>
       <c r="C23" t="n">
-        <v>821.340441768749</v>
+        <v>821.3404417687485</v>
       </c>
       <c r="D23" t="n">
-        <v>686.3455750295859</v>
+        <v>686.3455750295855</v>
       </c>
       <c r="E23" t="n">
-        <v>524.5695941483126</v>
+        <v>524.5695941483121</v>
       </c>
       <c r="F23" t="n">
-        <v>338.3735852617328</v>
+        <v>338.3735852617324</v>
       </c>
       <c r="G23" t="n">
-        <v>145.0715648097714</v>
+        <v>145.0715648097713</v>
       </c>
       <c r="H23" t="n">
-        <v>34.16479873102524</v>
+        <v>34.16479873102523</v>
       </c>
       <c r="I23" t="n">
-        <v>34.16479873102524</v>
+        <v>34.16479873102523</v>
       </c>
       <c r="J23" t="n">
-        <v>77.7051094832444</v>
+        <v>77.70510948324434</v>
       </c>
       <c r="K23" t="n">
-        <v>265.2373413712087</v>
+        <v>265.2373413712086</v>
       </c>
       <c r="L23" t="n">
-        <v>549.856735885656</v>
+        <v>549.8567358856558</v>
       </c>
       <c r="M23" t="n">
-        <v>881.7629464272029</v>
+        <v>881.7629464272027</v>
       </c>
       <c r="N23" t="n">
         <v>1203.522571460302</v>
@@ -6005,16 +6005,16 @@
         <v>1461.222709987503</v>
       </c>
       <c r="P23" t="n">
-        <v>1644.225022949046</v>
+        <v>1644.225022949045</v>
       </c>
       <c r="Q23" t="n">
         <v>1704.472737041031</v>
       </c>
       <c r="R23" t="n">
-        <v>1705.965861323682</v>
+        <v>1704.472737041031</v>
       </c>
       <c r="S23" t="n">
-        <v>1705.965861323682</v>
+        <v>1705.965861323681</v>
       </c>
       <c r="T23" t="n">
         <v>1708.239936551262</v>
@@ -6029,7 +6029,7 @@
         <v>1443.977732497471</v>
       </c>
       <c r="X23" t="n">
-        <v>1294.581990630459</v>
+        <v>1294.581990630458</v>
       </c>
       <c r="Y23" t="n">
         <v>1129.200922884591</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>562.477499618947</v>
+        <v>220.5884434835013</v>
       </c>
       <c r="C24" t="n">
-        <v>389.7243845407642</v>
+        <v>220.5884434835013</v>
       </c>
       <c r="D24" t="n">
-        <v>242.1360778997081</v>
+        <v>220.5884434835013</v>
       </c>
       <c r="E24" t="n">
-        <v>84.52654890256278</v>
+        <v>220.5884434835013</v>
       </c>
       <c r="F24" t="n">
-        <v>84.52654890256278</v>
+        <v>220.5884434835013</v>
       </c>
       <c r="G24" t="n">
-        <v>84.52654890256278</v>
+        <v>220.5884434835013</v>
       </c>
       <c r="H24" t="n">
-        <v>84.52654890256278</v>
+        <v>111.7554094799886</v>
       </c>
       <c r="I24" t="n">
-        <v>34.16479873102524</v>
+        <v>34.16479873102523</v>
       </c>
       <c r="J24" t="n">
-        <v>34.16479873102524</v>
+        <v>67.87915471593845</v>
       </c>
       <c r="K24" t="n">
-        <v>34.16479873102524</v>
+        <v>252.1079722700513</v>
       </c>
       <c r="L24" t="n">
-        <v>342.7327861439239</v>
+        <v>560.67595968295</v>
       </c>
       <c r="M24" t="n">
-        <v>755.6172673177897</v>
+        <v>582.7760535353943</v>
       </c>
       <c r="N24" t="n">
-        <v>1122.305914826767</v>
+        <v>1005.565437831832</v>
       </c>
       <c r="O24" t="n">
-        <v>1456.470187980975</v>
+        <v>1339.729710986039</v>
       </c>
       <c r="P24" t="n">
-        <v>1708.239936551262</v>
+        <v>1591.499459556327</v>
       </c>
       <c r="Q24" t="n">
         <v>1708.239936551262</v>
       </c>
       <c r="R24" t="n">
-        <v>1630.236926999431</v>
+        <v>1708.239936551262</v>
       </c>
       <c r="S24" t="n">
-        <v>1630.236926999431</v>
+        <v>1545.757919351361</v>
       </c>
       <c r="T24" t="n">
-        <v>1630.236926999431</v>
+        <v>1346.517253765483</v>
       </c>
       <c r="U24" t="n">
-        <v>1628.541120252346</v>
+        <v>1119.609512995339</v>
       </c>
       <c r="V24" t="n">
-        <v>1394.289876777946</v>
+        <v>885.35826952094</v>
       </c>
       <c r="W24" t="n">
-        <v>1141.77538511128</v>
+        <v>632.8437778542733</v>
       </c>
       <c r="X24" t="n">
-        <v>935.248486516857</v>
+        <v>426.3168792598508</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.5200507405075</v>
+        <v>220.5884434835013</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.16479873102524</v>
+        <v>181.8001738924439</v>
       </c>
       <c r="C25" t="n">
-        <v>34.16479873102524</v>
+        <v>181.8001738924439</v>
       </c>
       <c r="D25" t="n">
-        <v>34.16479873102524</v>
+        <v>181.8001738924439</v>
       </c>
       <c r="E25" t="n">
-        <v>34.16479873102524</v>
+        <v>181.8001738924439</v>
       </c>
       <c r="F25" t="n">
-        <v>34.16479873102524</v>
+        <v>34.16479873102523</v>
       </c>
       <c r="G25" t="n">
-        <v>34.16479873102524</v>
+        <v>34.16479873102523</v>
       </c>
       <c r="H25" t="n">
-        <v>34.16479873102524</v>
+        <v>34.16479873102523</v>
       </c>
       <c r="I25" t="n">
-        <v>34.16479873102524</v>
+        <v>34.16479873102523</v>
       </c>
       <c r="J25" t="n">
-        <v>34.16479873102524</v>
+        <v>34.16479873102523</v>
       </c>
       <c r="K25" t="n">
-        <v>46.67402830993711</v>
+        <v>46.67402830993709</v>
       </c>
       <c r="L25" t="n">
-        <v>118.4851505303744</v>
+        <v>118.4851505303743</v>
       </c>
       <c r="M25" t="n">
         <v>204.7928098718938</v>
       </c>
       <c r="N25" t="n">
-        <v>294.1895278762163</v>
+        <v>294.1895278762162</v>
       </c>
       <c r="O25" t="n">
-        <v>361.4252696758772</v>
+        <v>361.4252696758771</v>
       </c>
       <c r="P25" t="n">
-        <v>395.734580724513</v>
+        <v>395.7345807245129</v>
       </c>
       <c r="Q25" t="n">
-        <v>395.734580724513</v>
+        <v>395.7345807245129</v>
       </c>
       <c r="R25" t="n">
-        <v>395.734580724513</v>
+        <v>395.7345807245129</v>
       </c>
       <c r="S25" t="n">
-        <v>395.734580724513</v>
+        <v>395.7345807245129</v>
       </c>
       <c r="T25" t="n">
-        <v>391.325878206063</v>
+        <v>391.3258782060628</v>
       </c>
       <c r="U25" t="n">
-        <v>327.6091234930197</v>
+        <v>279.0626424158613</v>
       </c>
       <c r="V25" t="n">
-        <v>297.3297938120983</v>
+        <v>248.7833127349398</v>
       </c>
       <c r="W25" t="n">
-        <v>37.3774707001993</v>
+        <v>185.012845861618</v>
       </c>
       <c r="X25" t="n">
-        <v>34.16479873102524</v>
+        <v>181.8001738924439</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.16479873102524</v>
+        <v>181.8001738924439</v>
       </c>
     </row>
     <row r="26">
@@ -6224,13 +6224,13 @@
         <v>57.73177820452283</v>
       </c>
       <c r="J26" t="n">
-        <v>241.9691616361792</v>
+        <v>241.9691616361791</v>
       </c>
       <c r="K26" t="n">
         <v>570.1984662035807</v>
       </c>
       <c r="L26" t="n">
-        <v>995.514933397465</v>
+        <v>995.5149333974651</v>
       </c>
       <c r="M26" t="n">
         <v>1468.118216618449</v>
@@ -6245,13 +6245,13 @@
         <v>2652.671511178604</v>
       </c>
       <c r="Q26" t="n">
-        <v>2853.616297950027</v>
+        <v>2853.616297950026</v>
       </c>
       <c r="R26" t="n">
-        <v>2886.588910226142</v>
+        <v>2886.588910226141</v>
       </c>
       <c r="S26" t="n">
-        <v>2834.304465705447</v>
+        <v>2834.304465705446</v>
       </c>
       <c r="T26" t="n">
         <v>2754.966573011863</v>
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>624.9662594874011</v>
+        <v>680.6385189042902</v>
       </c>
       <c r="C27" t="n">
-        <v>452.2131444092183</v>
+        <v>507.8854038261074</v>
       </c>
       <c r="D27" t="n">
-        <v>304.6248377681621</v>
+        <v>360.2970971850513</v>
       </c>
       <c r="E27" t="n">
-        <v>147.0153087710168</v>
+        <v>202.687568187906</v>
       </c>
       <c r="F27" t="n">
-        <v>135.3223889534862</v>
+        <v>57.73177820452283</v>
       </c>
       <c r="G27" t="n">
-        <v>135.3223889534862</v>
+        <v>57.73177820452283</v>
       </c>
       <c r="H27" t="n">
-        <v>135.3223889534862</v>
+        <v>57.73177820452283</v>
       </c>
       <c r="I27" t="n">
         <v>57.73177820452283</v>
       </c>
       <c r="J27" t="n">
-        <v>91.44613418943608</v>
+        <v>91.44613418943607</v>
       </c>
       <c r="K27" t="n">
-        <v>275.674951743549</v>
+        <v>275.6749517435489</v>
       </c>
       <c r="L27" t="n">
         <v>584.2429391564476</v>
       </c>
       <c r="M27" t="n">
-        <v>997.1274203303134</v>
+        <v>997.1274203303133</v>
       </c>
       <c r="N27" t="n">
         <v>1436.338457148166</v>
@@ -6327,28 +6327,28 @@
         <v>2139.012955867596</v>
       </c>
       <c r="R27" t="n">
-        <v>2139.012955867596</v>
+        <v>2061.009946315765</v>
       </c>
       <c r="S27" t="n">
-        <v>1973.624493313433</v>
+        <v>1895.621483761602</v>
       </c>
       <c r="T27" t="n">
-        <v>1917.937620890943</v>
+        <v>1839.934611339113</v>
       </c>
       <c r="U27" t="n">
-        <v>1691.0298801208</v>
+        <v>1613.026870568969</v>
       </c>
       <c r="V27" t="n">
-        <v>1456.7786366464</v>
+        <v>1378.77562709457</v>
       </c>
       <c r="W27" t="n">
-        <v>1204.264144979734</v>
+        <v>1126.261135427903</v>
       </c>
       <c r="X27" t="n">
-        <v>997.7372463853111</v>
+        <v>1053.4095058022</v>
       </c>
       <c r="Y27" t="n">
-        <v>792.0088106089615</v>
+        <v>847.6810700258507</v>
       </c>
     </row>
     <row r="28">
@@ -6382,25 +6382,25 @@
         <v>57.73177820452283</v>
       </c>
       <c r="J28" t="n">
-        <v>126.9913722589043</v>
+        <v>57.73177820452283</v>
       </c>
       <c r="K28" t="n">
-        <v>163.1780979399184</v>
+        <v>81.88631448473758</v>
       </c>
       <c r="L28" t="n">
-        <v>234.9892201603557</v>
+        <v>153.6974367051748</v>
       </c>
       <c r="M28" t="n">
-        <v>461.9939521813124</v>
+        <v>380.7021687261315</v>
       </c>
       <c r="N28" t="n">
-        <v>551.3906701856349</v>
+        <v>610.7959594098912</v>
       </c>
       <c r="O28" t="n">
-        <v>759.3234846647331</v>
+        <v>678.0317012095521</v>
       </c>
       <c r="P28" t="n">
-        <v>934.3298683928061</v>
+        <v>853.0380849376252</v>
       </c>
       <c r="Q28" t="n">
         <v>934.3298683928061</v>
@@ -6440,19 +6440,19 @@
         <v>1523.598314885596</v>
       </c>
       <c r="C29" t="n">
-        <v>1296.460092211669</v>
+        <v>1296.460092211668</v>
       </c>
       <c r="D29" t="n">
-        <v>1079.807084612837</v>
+        <v>1079.807084612836</v>
       </c>
       <c r="E29" t="n">
-        <v>836.3729628718945</v>
+        <v>836.3729628718943</v>
       </c>
       <c r="F29" t="n">
-        <v>568.518813125646</v>
+        <v>568.5188131256457</v>
       </c>
       <c r="G29" t="n">
-        <v>293.5586518140156</v>
+        <v>293.5586518140153</v>
       </c>
       <c r="H29" t="n">
         <v>100.9937448756002</v>
@@ -6461,25 +6461,25 @@
         <v>57.73177820452283</v>
       </c>
       <c r="J29" t="n">
-        <v>241.9691616361792</v>
+        <v>241.9691616361793</v>
       </c>
       <c r="K29" t="n">
         <v>570.1984662035807</v>
       </c>
       <c r="L29" t="n">
-        <v>995.5149333974653</v>
+        <v>995.514933397465</v>
       </c>
       <c r="M29" t="n">
         <v>1468.118216618449</v>
       </c>
       <c r="N29" t="n">
-        <v>1930.574914330986</v>
+        <v>1930.574914330985</v>
       </c>
       <c r="O29" t="n">
-        <v>2328.972125537624</v>
+        <v>2328.972125537623</v>
       </c>
       <c r="P29" t="n">
-        <v>2652.671511178604</v>
+        <v>2652.671511178603</v>
       </c>
       <c r="Q29" t="n">
         <v>2853.616297950026</v>
@@ -6488,7 +6488,7 @@
         <v>2886.588910226141</v>
       </c>
       <c r="S29" t="n">
-        <v>2834.304465705447</v>
+        <v>2834.304465705446</v>
       </c>
       <c r="T29" t="n">
         <v>2754.966573011863</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>817.7514501090398</v>
+        <v>717.0675085347384</v>
       </c>
       <c r="C30" t="n">
-        <v>644.9983350308569</v>
+        <v>544.3143934565555</v>
       </c>
       <c r="D30" t="n">
-        <v>497.4100283898008</v>
+        <v>396.7260868154994</v>
       </c>
       <c r="E30" t="n">
-        <v>339.8004993926555</v>
+        <v>382.6703509817428</v>
       </c>
       <c r="F30" t="n">
-        <v>194.8447094092724</v>
+        <v>381.2683541617483</v>
       </c>
       <c r="G30" t="n">
-        <v>57.73177820452283</v>
+        <v>244.1554229569988</v>
       </c>
       <c r="H30" t="n">
-        <v>57.73177820452283</v>
+        <v>135.3223889534862</v>
       </c>
       <c r="I30" t="n">
         <v>57.73177820452283</v>
@@ -6549,7 +6549,7 @@
         <v>584.2429391564476</v>
       </c>
       <c r="M30" t="n">
-        <v>997.1274203303134</v>
+        <v>997.1274203303133</v>
       </c>
       <c r="N30" t="n">
         <v>1436.338457148166</v>
@@ -6573,19 +6573,19 @@
         <v>1774.383827727554</v>
       </c>
       <c r="U30" t="n">
-        <v>1691.0298801208</v>
+        <v>1547.476086957411</v>
       </c>
       <c r="V30" t="n">
-        <v>1600.332429809789</v>
+        <v>1456.7786366464</v>
       </c>
       <c r="W30" t="n">
-        <v>1397.049335601372</v>
+        <v>1296.365394027071</v>
       </c>
       <c r="X30" t="n">
-        <v>1190.52243700695</v>
+        <v>1089.838495432648</v>
       </c>
       <c r="Y30" t="n">
-        <v>984.7940012306002</v>
+        <v>884.1100596562989</v>
       </c>
     </row>
     <row r="31">
@@ -6613,31 +6613,31 @@
         <v>79.91731316315489</v>
       </c>
       <c r="H31" t="n">
-        <v>62.32312692247127</v>
+        <v>62.32312692247128</v>
       </c>
       <c r="I31" t="n">
         <v>57.73177820452283</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9913722589043</v>
+        <v>57.73177820452283</v>
       </c>
       <c r="K31" t="n">
-        <v>280.1976745172533</v>
+        <v>210.9380804628719</v>
       </c>
       <c r="L31" t="n">
-        <v>492.7058694171278</v>
+        <v>423.4462753627463</v>
       </c>
       <c r="M31" t="n">
-        <v>719.7106014380845</v>
+        <v>602.6910248607503</v>
       </c>
       <c r="N31" t="n">
-        <v>809.1073194424069</v>
+        <v>692.0877428650728</v>
       </c>
       <c r="O31" t="n">
-        <v>876.3430612420678</v>
+        <v>900.0205573441708</v>
       </c>
       <c r="P31" t="n">
-        <v>910.6523722907036</v>
+        <v>934.3298683928066</v>
       </c>
       <c r="Q31" t="n">
         <v>934.3298683928066</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1523.598314885596</v>
+        <v>1523.598314885595</v>
       </c>
       <c r="C32" t="n">
-        <v>1296.460092211669</v>
+        <v>1296.460092211668</v>
       </c>
       <c r="D32" t="n">
-        <v>1079.807084612837</v>
+        <v>1079.807084612836</v>
       </c>
       <c r="E32" t="n">
-        <v>836.3729628718952</v>
+        <v>836.3729628718941</v>
       </c>
       <c r="F32" t="n">
-        <v>568.5188131256464</v>
+        <v>568.5188131256455</v>
       </c>
       <c r="G32" t="n">
-        <v>293.558651814016</v>
+        <v>293.5586518140151</v>
       </c>
       <c r="H32" t="n">
         <v>100.9937448756002</v>
@@ -6698,13 +6698,13 @@
         <v>57.73177820452283</v>
       </c>
       <c r="J32" t="n">
-        <v>241.9691616361792</v>
+        <v>241.9691616361791</v>
       </c>
       <c r="K32" t="n">
-        <v>570.1984662035808</v>
+        <v>570.1984662035807</v>
       </c>
       <c r="L32" t="n">
-        <v>995.5149333974653</v>
+        <v>995.5149333974651</v>
       </c>
       <c r="M32" t="n">
         <v>1468.118216618449</v>
@@ -6728,22 +6728,22 @@
         <v>2834.304465705446</v>
       </c>
       <c r="T32" t="n">
-        <v>2754.966573011864</v>
+        <v>2754.966573011863</v>
       </c>
       <c r="U32" t="n">
-        <v>2644.544924217011</v>
+        <v>2644.54492421701</v>
       </c>
       <c r="V32" t="n">
-        <v>2456.246978468764</v>
+        <v>2456.246978468763</v>
       </c>
       <c r="W32" t="n">
-        <v>2245.729946379067</v>
+        <v>2245.729946379066</v>
       </c>
       <c r="X32" t="n">
         <v>2014.676063652385</v>
       </c>
       <c r="Y32" t="n">
-        <v>1767.636855046849</v>
+        <v>1767.636855046848</v>
       </c>
     </row>
     <row r="33">
@@ -6786,7 +6786,7 @@
         <v>584.2429391564476</v>
       </c>
       <c r="M33" t="n">
-        <v>997.1274203303134</v>
+        <v>997.1274203303133</v>
       </c>
       <c r="N33" t="n">
         <v>1436.338457148166</v>
@@ -6804,7 +6804,7 @@
         <v>2139.012955867596</v>
       </c>
       <c r="S33" t="n">
-        <v>1973.624493313433</v>
+        <v>2029.296752730322</v>
       </c>
       <c r="T33" t="n">
         <v>1830.056087144443</v>
@@ -6850,7 +6850,7 @@
         <v>79.91731316315489</v>
       </c>
       <c r="H34" t="n">
-        <v>62.32312692247127</v>
+        <v>62.32312692247128</v>
       </c>
       <c r="I34" t="n">
         <v>57.73177820452283</v>
@@ -6859,13 +6859,13 @@
         <v>57.73177820452283</v>
       </c>
       <c r="K34" t="n">
-        <v>81.88631448473801</v>
+        <v>70.24100778343468</v>
       </c>
       <c r="L34" t="n">
-        <v>153.6974367051753</v>
+        <v>282.7492026833091</v>
       </c>
       <c r="M34" t="n">
-        <v>240.0050960466947</v>
+        <v>369.0568620248285</v>
       </c>
       <c r="N34" t="n">
         <v>470.0988867304545</v>
@@ -6929,49 +6929,49 @@
         <v>147.9600370165308</v>
       </c>
       <c r="H35" t="n">
-        <v>34.73302277169923</v>
+        <v>34.73302277169921</v>
       </c>
       <c r="I35" t="n">
-        <v>66.34320027495568</v>
+        <v>34.73302277169921</v>
       </c>
       <c r="J35" t="n">
-        <v>109.8835110271748</v>
+        <v>78.27333352391832</v>
       </c>
       <c r="K35" t="n">
-        <v>297.4157429151392</v>
+        <v>265.8055654118826</v>
       </c>
       <c r="L35" t="n">
-        <v>582.0351374295865</v>
+        <v>550.4249599263298</v>
       </c>
       <c r="M35" t="n">
-        <v>913.9413479711334</v>
+        <v>882.3311704678767</v>
       </c>
       <c r="N35" t="n">
-        <v>1235.700973004233</v>
+        <v>1204.090795500976</v>
       </c>
       <c r="O35" t="n">
-        <v>1493.401111531434</v>
+        <v>1461.790934028177</v>
       </c>
       <c r="P35" t="n">
-        <v>1676.403424492976</v>
+        <v>1644.793246989719</v>
       </c>
       <c r="Q35" t="n">
-        <v>1736.651138584962</v>
+        <v>1705.040961081705</v>
       </c>
       <c r="R35" t="n">
-        <v>1736.651138584962</v>
+        <v>1736.651138584961</v>
       </c>
       <c r="S35" t="n">
-        <v>1736.651138584962</v>
+        <v>1736.651138584961</v>
       </c>
       <c r="T35" t="n">
-        <v>1736.651138584962</v>
+        <v>1736.651138584961</v>
       </c>
       <c r="U35" t="n">
         <v>1705.567382483691</v>
       </c>
       <c r="V35" t="n">
-        <v>1596.607329429028</v>
+        <v>1596.607329429027</v>
       </c>
       <c r="W35" t="n">
         <v>1465.428190032914</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>872.3433054251796</v>
+        <v>657.6397634714666</v>
       </c>
       <c r="C36" t="n">
-        <v>699.5901903469967</v>
+        <v>484.8866483932838</v>
       </c>
       <c r="D36" t="n">
-        <v>552.0018837059405</v>
+        <v>337.2983417522277</v>
       </c>
       <c r="E36" t="n">
-        <v>394.3923547087952</v>
+        <v>179.6888127550824</v>
       </c>
       <c r="F36" t="n">
-        <v>249.4365647254121</v>
+        <v>34.73302277169921</v>
       </c>
       <c r="G36" t="n">
-        <v>112.3236335206626</v>
+        <v>34.73302277169921</v>
       </c>
       <c r="H36" t="n">
-        <v>112.3236335206626</v>
+        <v>34.73302277169921</v>
       </c>
       <c r="I36" t="n">
-        <v>34.73302277169923</v>
+        <v>34.73302277169921</v>
       </c>
       <c r="J36" t="n">
-        <v>34.73302277169923</v>
+        <v>66.98442249009793</v>
       </c>
       <c r="K36" t="n">
-        <v>34.73302277169923</v>
+        <v>251.2132400442108</v>
       </c>
       <c r="L36" t="n">
-        <v>343.3010101845979</v>
+        <v>559.7812274571095</v>
       </c>
       <c r="M36" t="n">
-        <v>756.1854913584637</v>
+        <v>972.6657086309751</v>
       </c>
       <c r="N36" t="n">
-        <v>1186.006648158242</v>
+        <v>1402.486865430753</v>
       </c>
       <c r="O36" t="n">
-        <v>1520.170921312449</v>
+        <v>1736.651138584961</v>
       </c>
       <c r="P36" t="n">
-        <v>1736.651138584962</v>
+        <v>1736.651138584961</v>
       </c>
       <c r="Q36" t="n">
-        <v>1736.651138584962</v>
+        <v>1736.651138584961</v>
       </c>
       <c r="R36" t="n">
-        <v>1658.648129033131</v>
+        <v>1727.719439018036</v>
       </c>
       <c r="S36" t="n">
-        <v>1658.648129033131</v>
+        <v>1727.719439018036</v>
       </c>
       <c r="T36" t="n">
-        <v>1658.648129033131</v>
+        <v>1727.719439018036</v>
       </c>
       <c r="U36" t="n">
-        <v>1654.63207411996</v>
+        <v>1723.703384104865</v>
       </c>
       <c r="V36" t="n">
-        <v>1643.272516502533</v>
+        <v>1489.452140630466</v>
       </c>
       <c r="W36" t="n">
-        <v>1451.641190917512</v>
+        <v>1236.937648963799</v>
       </c>
       <c r="X36" t="n">
-        <v>1245.114292323089</v>
+        <v>1030.410750369377</v>
       </c>
       <c r="Y36" t="n">
-        <v>1039.38585654674</v>
+        <v>824.6823145930271</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107.6209715780004</v>
+        <v>34.73302277169921</v>
       </c>
       <c r="C37" t="n">
-        <v>107.6209715780004</v>
+        <v>34.73302277169921</v>
       </c>
       <c r="D37" t="n">
-        <v>107.6209715780004</v>
+        <v>34.73302277169921</v>
       </c>
       <c r="E37" t="n">
-        <v>107.6209715780004</v>
+        <v>34.73302277169921</v>
       </c>
       <c r="F37" t="n">
-        <v>107.6209715780004</v>
+        <v>34.73302277169921</v>
       </c>
       <c r="G37" t="n">
-        <v>107.6209715780004</v>
+        <v>34.73302277169921</v>
       </c>
       <c r="H37" t="n">
-        <v>107.6209715780004</v>
+        <v>34.73302277169921</v>
       </c>
       <c r="I37" t="n">
-        <v>107.6209715780004</v>
+        <v>34.73302277169921</v>
       </c>
       <c r="J37" t="n">
-        <v>34.73302277169923</v>
+        <v>34.73302277169921</v>
       </c>
       <c r="K37" t="n">
-        <v>47.2422523506111</v>
+        <v>47.24225235061107</v>
       </c>
       <c r="L37" t="n">
-        <v>119.0533745710484</v>
+        <v>119.0533745710483</v>
       </c>
       <c r="M37" t="n">
-        <v>205.3610339125678</v>
+        <v>205.3610339125677</v>
       </c>
       <c r="N37" t="n">
-        <v>294.7577519168903</v>
+        <v>294.7577519168902</v>
       </c>
       <c r="O37" t="n">
-        <v>361.9934937165511</v>
+        <v>361.993493716551</v>
       </c>
       <c r="P37" t="n">
-        <v>396.3028047651869</v>
+        <v>396.3028047651868</v>
       </c>
       <c r="Q37" t="n">
-        <v>396.3028047651869</v>
+        <v>396.3028047651868</v>
       </c>
       <c r="R37" t="n">
-        <v>396.3028047651869</v>
+        <v>396.3028047651868</v>
       </c>
       <c r="S37" t="n">
-        <v>396.3028047651869</v>
+        <v>396.3028047651868</v>
       </c>
       <c r="T37" t="n">
-        <v>389.5738540806514</v>
+        <v>389.5738540806513</v>
       </c>
       <c r="U37" t="n">
-        <v>211.8441845996742</v>
+        <v>138.956235793373</v>
       </c>
       <c r="V37" t="n">
-        <v>179.2446067526673</v>
+        <v>106.3566579463661</v>
       </c>
       <c r="W37" t="n">
-        <v>113.15389171326</v>
+        <v>40.26594290695876</v>
       </c>
       <c r="X37" t="n">
-        <v>107.6209715780004</v>
+        <v>34.73302277169921</v>
       </c>
       <c r="Y37" t="n">
-        <v>107.6209715780004</v>
+        <v>34.73302277169921</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>981.310236620194</v>
+        <v>981.3102366201941</v>
       </c>
       <c r="C38" t="n">
         <v>833.5099066398503</v>
@@ -7157,10 +7157,10 @@
         <v>696.1947917346017</v>
       </c>
       <c r="E38" t="n">
-        <v>532.0985626872429</v>
+        <v>532.098562687243</v>
       </c>
       <c r="F38" t="n">
-        <v>343.5823056345776</v>
+        <v>343.5823056345777</v>
       </c>
       <c r="G38" t="n">
         <v>147.9600370165308</v>
@@ -7169,31 +7169,31 @@
         <v>34.73302277169923</v>
       </c>
       <c r="I38" t="n">
-        <v>66.34320027495568</v>
+        <v>34.73302277169923</v>
       </c>
       <c r="J38" t="n">
-        <v>109.8835110271748</v>
+        <v>78.27333352391835</v>
       </c>
       <c r="K38" t="n">
-        <v>297.4157429151392</v>
+        <v>265.8055654118826</v>
       </c>
       <c r="L38" t="n">
-        <v>582.0351374295865</v>
+        <v>550.4249599263298</v>
       </c>
       <c r="M38" t="n">
-        <v>913.9413479711334</v>
+        <v>882.3311704678767</v>
       </c>
       <c r="N38" t="n">
-        <v>1235.700973004233</v>
+        <v>1204.090795500976</v>
       </c>
       <c r="O38" t="n">
-        <v>1493.401111531434</v>
+        <v>1461.790934028177</v>
       </c>
       <c r="P38" t="n">
-        <v>1676.403424492976</v>
+        <v>1644.793246989719</v>
       </c>
       <c r="Q38" t="n">
-        <v>1736.651138584962</v>
+        <v>1705.040961081705</v>
       </c>
       <c r="R38" t="n">
         <v>1736.651138584962</v>
@@ -7214,10 +7214,10 @@
         <v>1465.428190032915</v>
       </c>
       <c r="X38" t="n">
-        <v>1313.712199999816</v>
+        <v>1313.712199999817</v>
       </c>
       <c r="Y38" t="n">
-        <v>1146.010884087863</v>
+        <v>1146.010884087864</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>816.4507640793299</v>
+        <v>666.5714630383918</v>
       </c>
       <c r="C39" t="n">
-        <v>808.4232243505094</v>
+        <v>493.818347960209</v>
       </c>
       <c r="D39" t="n">
-        <v>660.8349177094532</v>
+        <v>346.2300413191529</v>
       </c>
       <c r="E39" t="n">
-        <v>503.2253887123079</v>
+        <v>188.6205123220076</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2695987289247</v>
+        <v>43.66472233862441</v>
       </c>
       <c r="G39" t="n">
-        <v>221.1566675241752</v>
+        <v>43.66472233862441</v>
       </c>
       <c r="H39" t="n">
-        <v>112.3236335206626</v>
+        <v>34.73302277169923</v>
       </c>
       <c r="I39" t="n">
         <v>34.73302277169923</v>
       </c>
       <c r="J39" t="n">
-        <v>34.73302277169923</v>
+        <v>68.44737875661247</v>
       </c>
       <c r="K39" t="n">
-        <v>134.4727630492768</v>
+        <v>252.6761963107253</v>
       </c>
       <c r="L39" t="n">
-        <v>443.0407504621754</v>
+        <v>561.244183723624</v>
       </c>
       <c r="M39" t="n">
-        <v>855.9252316360412</v>
+        <v>974.1286648974897</v>
       </c>
       <c r="N39" t="n">
-        <v>1285.746388435819</v>
+        <v>1403.949821697268</v>
       </c>
       <c r="O39" t="n">
-        <v>1619.910661590027</v>
+        <v>1403.949821697268</v>
       </c>
       <c r="P39" t="n">
         <v>1619.910661590027</v>
@@ -7284,19 +7284,19 @@
         <v>1736.651138584962</v>
       </c>
       <c r="U39" t="n">
-        <v>1509.743397814818</v>
+        <v>1732.63508367179</v>
       </c>
       <c r="V39" t="n">
-        <v>1275.492154340419</v>
+        <v>1498.383840197391</v>
       </c>
       <c r="W39" t="n">
-        <v>1022.977662673752</v>
+        <v>1245.869348530724</v>
       </c>
       <c r="X39" t="n">
-        <v>816.4507640793299</v>
+        <v>1039.342449936302</v>
       </c>
       <c r="Y39" t="n">
-        <v>816.4507640793299</v>
+        <v>833.6140141599523</v>
       </c>
     </row>
     <row r="40">
@@ -7333,34 +7333,34 @@
         <v>34.73302277169923</v>
       </c>
       <c r="K40" t="n">
-        <v>47.2422523506111</v>
+        <v>47.24225235061109</v>
       </c>
       <c r="L40" t="n">
-        <v>119.0533745710484</v>
+        <v>119.0533745710483</v>
       </c>
       <c r="M40" t="n">
-        <v>205.3610339125678</v>
+        <v>205.3610339125677</v>
       </c>
       <c r="N40" t="n">
-        <v>294.7577519168903</v>
+        <v>294.7577519168902</v>
       </c>
       <c r="O40" t="n">
-        <v>361.9934937165511</v>
+        <v>361.993493716551</v>
       </c>
       <c r="P40" t="n">
-        <v>396.3028047651869</v>
+        <v>396.3028047651868</v>
       </c>
       <c r="Q40" t="n">
-        <v>396.3028047651869</v>
+        <v>396.3028047651868</v>
       </c>
       <c r="R40" t="n">
-        <v>396.3028047651869</v>
+        <v>396.3028047651868</v>
       </c>
       <c r="S40" t="n">
-        <v>396.3028047651869</v>
+        <v>396.3028047651868</v>
       </c>
       <c r="T40" t="n">
-        <v>389.5738540806514</v>
+        <v>389.5738540806513</v>
       </c>
       <c r="U40" t="n">
         <v>138.956235793373</v>
@@ -7388,73 +7388,73 @@
         <v>1150.808371091146</v>
       </c>
       <c r="C41" t="n">
-        <v>975.9545929379143</v>
+        <v>975.9545929379145</v>
       </c>
       <c r="D41" t="n">
-        <v>811.5860298597777</v>
+        <v>811.5860298597778</v>
       </c>
       <c r="E41" t="n">
-        <v>620.4363526395307</v>
+        <v>620.4363526395309</v>
       </c>
       <c r="F41" t="n">
-        <v>404.8666474139773</v>
+        <v>404.8666474139775</v>
       </c>
       <c r="G41" t="n">
         <v>182.1909306230424</v>
       </c>
       <c r="H41" t="n">
-        <v>41.91046820532262</v>
+        <v>41.91046820532261</v>
       </c>
       <c r="I41" t="n">
-        <v>41.91046820532262</v>
+        <v>50.75339874573304</v>
       </c>
       <c r="J41" t="n">
-        <v>277.3918357117123</v>
+        <v>94.29370949795216</v>
       </c>
       <c r="K41" t="n">
-        <v>464.9240675996766</v>
+        <v>281.8259413859165</v>
       </c>
       <c r="L41" t="n">
-        <v>749.5434621141239</v>
+        <v>566.4453359003637</v>
       </c>
       <c r="M41" t="n">
-        <v>1081.449672655671</v>
+        <v>898.3515464419106</v>
       </c>
       <c r="N41" t="n">
-        <v>1594.573244685402</v>
+        <v>1220.11117147501</v>
       </c>
       <c r="O41" t="n">
-        <v>1852.273383212603</v>
+        <v>1477.811310002211</v>
       </c>
       <c r="P41" t="n">
-        <v>2035.275696174145</v>
+        <v>1759.118043069126</v>
       </c>
       <c r="Q41" t="n">
-        <v>2095.523410266131</v>
+        <v>2011.306813915282</v>
       </c>
       <c r="R41" t="n">
-        <v>2095.523410266131</v>
+        <v>2095.52341026613</v>
       </c>
       <c r="S41" t="n">
-        <v>2095.523410266131</v>
+        <v>2095.52341026613</v>
       </c>
       <c r="T41" t="n">
         <v>2068.469962093242</v>
       </c>
       <c r="U41" t="n">
-        <v>2010.332757819085</v>
+        <v>2010.332757819084</v>
       </c>
       <c r="V41" t="n">
-        <v>1874.319256591533</v>
+        <v>1874.319256591532</v>
       </c>
       <c r="W41" t="n">
         <v>1716.086669022531</v>
       </c>
       <c r="X41" t="n">
-        <v>1537.317230816545</v>
+        <v>1537.317230816544</v>
       </c>
       <c r="Y41" t="n">
-        <v>1342.562466731704</v>
+        <v>1342.562466731703</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.3537848623157</v>
+        <v>706.7676357806201</v>
       </c>
       <c r="C42" t="n">
-        <v>815.6006697841328</v>
+        <v>706.7676357806201</v>
       </c>
       <c r="D42" t="n">
-        <v>668.0123631430766</v>
+        <v>559.1793291395639</v>
       </c>
       <c r="E42" t="n">
-        <v>510.4028341459314</v>
+        <v>401.5698001424187</v>
       </c>
       <c r="F42" t="n">
-        <v>365.4470441625482</v>
+        <v>256.6140101590355</v>
       </c>
       <c r="G42" t="n">
-        <v>228.3341129577987</v>
+        <v>119.501078954286</v>
       </c>
       <c r="H42" t="n">
         <v>119.501078954286</v>
       </c>
       <c r="I42" t="n">
-        <v>41.91046820532262</v>
+        <v>41.91046820532261</v>
       </c>
       <c r="J42" t="n">
-        <v>75.62482419023587</v>
+        <v>75.62482419023584</v>
       </c>
       <c r="K42" t="n">
-        <v>259.8536417443488</v>
+        <v>259.8536417443487</v>
       </c>
       <c r="L42" t="n">
-        <v>568.4216291572475</v>
+        <v>568.4216291572474</v>
       </c>
       <c r="M42" t="n">
-        <v>981.3061103311132</v>
+        <v>981.3061103311131</v>
       </c>
       <c r="N42" t="n">
-        <v>1420.517147148966</v>
+        <v>1420.517147148965</v>
       </c>
       <c r="O42" t="n">
         <v>1754.681420303173</v>
@@ -7509,31 +7509,31 @@
         <v>2006.451168873461</v>
       </c>
       <c r="Q42" t="n">
-        <v>2095.523410266131</v>
+        <v>2095.52341026613</v>
       </c>
       <c r="R42" t="n">
         <v>2017.5204007143</v>
       </c>
       <c r="S42" t="n">
-        <v>2017.5204007143</v>
+        <v>1852.131938160137</v>
       </c>
       <c r="T42" t="n">
-        <v>1889.64867089769</v>
+        <v>1848.729510258342</v>
       </c>
       <c r="U42" t="n">
-        <v>1858.57916781163</v>
+        <v>1621.821769488199</v>
       </c>
       <c r="V42" t="n">
-        <v>1820.166162021315</v>
+        <v>1538.580012939619</v>
       </c>
       <c r="W42" t="n">
-        <v>1567.651670354648</v>
+        <v>1286.065521272953</v>
       </c>
       <c r="X42" t="n">
-        <v>1361.124771760226</v>
+        <v>1079.53862267853</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.396335983876</v>
+        <v>873.8101869021806</v>
       </c>
     </row>
     <row r="43">
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.91046820532262</v>
+        <v>41.91046820532261</v>
       </c>
       <c r="C43" t="n">
-        <v>41.91046820532262</v>
+        <v>41.91046820532261</v>
       </c>
       <c r="D43" t="n">
-        <v>41.91046820532262</v>
+        <v>42.32928653236451</v>
       </c>
       <c r="E43" t="n">
         <v>42.32928653236451</v>
@@ -7570,34 +7570,34 @@
         <v>42.32928653236451</v>
       </c>
       <c r="K43" t="n">
-        <v>54.83851611127638</v>
+        <v>54.83851611127636</v>
       </c>
       <c r="L43" t="n">
         <v>126.6496383317136</v>
       </c>
       <c r="M43" t="n">
-        <v>212.9572976732331</v>
+        <v>212.957297673233</v>
       </c>
       <c r="N43" t="n">
-        <v>302.3540156775556</v>
+        <v>302.3540156775555</v>
       </c>
       <c r="O43" t="n">
-        <v>369.5897574772164</v>
+        <v>369.5897574772163</v>
       </c>
       <c r="P43" t="n">
-        <v>403.8990685258522</v>
+        <v>403.8990685258521</v>
       </c>
       <c r="Q43" t="n">
-        <v>403.8990685258522</v>
+        <v>403.8990685258521</v>
       </c>
       <c r="R43" t="n">
-        <v>403.8990685258522</v>
+        <v>403.8990685258521</v>
       </c>
       <c r="S43" t="n">
-        <v>379.2868944031069</v>
+        <v>379.2868944031068</v>
       </c>
       <c r="T43" t="n">
-        <v>345.5044955456832</v>
+        <v>345.5044955456831</v>
       </c>
       <c r="U43" t="n">
         <v>252.4140444936662</v>
@@ -7606,13 +7606,13 @@
         <v>192.7610184737711</v>
       </c>
       <c r="W43" t="n">
-        <v>99.61685526147564</v>
+        <v>99.61685526147558</v>
       </c>
       <c r="X43" t="n">
-        <v>67.03048695332789</v>
+        <v>67.03048695332787</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.91046820532262</v>
+        <v>41.91046820532261</v>
       </c>
     </row>
     <row r="44">
@@ -7622,73 +7622,73 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1150.808371091147</v>
+        <v>1150.808371091146</v>
       </c>
       <c r="C44" t="n">
-        <v>975.954592937915</v>
+        <v>975.9545929379143</v>
       </c>
       <c r="D44" t="n">
-        <v>811.5860298597781</v>
+        <v>811.5860298597777</v>
       </c>
       <c r="E44" t="n">
-        <v>620.436352639531</v>
+        <v>620.4363526395307</v>
       </c>
       <c r="F44" t="n">
-        <v>404.8666474139776</v>
+        <v>404.8666474139774</v>
       </c>
       <c r="G44" t="n">
-        <v>182.1909306230424</v>
+        <v>182.1909306230423</v>
       </c>
       <c r="H44" t="n">
-        <v>41.91046820532262</v>
+        <v>41.91046820532261</v>
       </c>
       <c r="I44" t="n">
-        <v>50.75339874573304</v>
+        <v>50.7533987457331</v>
       </c>
       <c r="J44" t="n">
-        <v>94.29370949795219</v>
+        <v>94.29370949795222</v>
       </c>
       <c r="K44" t="n">
         <v>281.8259413859165</v>
       </c>
       <c r="L44" t="n">
-        <v>566.4453359003638</v>
+        <v>758.3863926545345</v>
       </c>
       <c r="M44" t="n">
-        <v>898.3515464419108</v>
+        <v>1090.292603196081</v>
       </c>
       <c r="N44" t="n">
-        <v>1220.11117147501</v>
+        <v>1412.052228229181</v>
       </c>
       <c r="O44" t="n">
-        <v>1477.811310002211</v>
+        <v>1768.056786861754</v>
       </c>
       <c r="P44" t="n">
-        <v>1852.754679717924</v>
+        <v>1951.059099823297</v>
       </c>
       <c r="Q44" t="n">
         <v>2011.306813915282</v>
       </c>
       <c r="R44" t="n">
-        <v>2095.523410266131</v>
+        <v>2095.52341026613</v>
       </c>
       <c r="S44" t="n">
-        <v>2095.523410266131</v>
+        <v>2095.52341026613</v>
       </c>
       <c r="T44" t="n">
         <v>2068.469962093242</v>
       </c>
       <c r="U44" t="n">
-        <v>2010.332757819085</v>
+        <v>2010.332757819084</v>
       </c>
       <c r="V44" t="n">
-        <v>1874.319256591534</v>
+        <v>1874.319256591532</v>
       </c>
       <c r="W44" t="n">
-        <v>1716.086669022532</v>
+        <v>1716.086669022531</v>
       </c>
       <c r="X44" t="n">
-        <v>1537.317230816546</v>
+        <v>1537.317230816545</v>
       </c>
       <c r="Y44" t="n">
         <v>1342.562466731704</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.3537848623157</v>
+        <v>664.81720890509</v>
       </c>
       <c r="C45" t="n">
-        <v>815.6006697841328</v>
+        <v>492.0640938269072</v>
       </c>
       <c r="D45" t="n">
-        <v>668.0123631430766</v>
+        <v>344.4757871858511</v>
       </c>
       <c r="E45" t="n">
-        <v>510.4028341459314</v>
+        <v>186.8662581887058</v>
       </c>
       <c r="F45" t="n">
-        <v>365.4470441625482</v>
+        <v>41.91046820532261</v>
       </c>
       <c r="G45" t="n">
-        <v>228.3341129577987</v>
+        <v>41.91046820532261</v>
       </c>
       <c r="H45" t="n">
-        <v>119.501078954286</v>
+        <v>41.91046820532261</v>
       </c>
       <c r="I45" t="n">
-        <v>41.91046820532262</v>
+        <v>41.91046820532261</v>
       </c>
       <c r="J45" t="n">
-        <v>75.62482419023587</v>
+        <v>75.62482419023584</v>
       </c>
       <c r="K45" t="n">
-        <v>259.8536417443488</v>
+        <v>259.8536417443487</v>
       </c>
       <c r="L45" t="n">
-        <v>568.4216291572475</v>
+        <v>568.4216291572474</v>
       </c>
       <c r="M45" t="n">
-        <v>981.3061103311132</v>
+        <v>981.3061103311131</v>
       </c>
       <c r="N45" t="n">
-        <v>1392.848911546701</v>
+        <v>1420.517147148965</v>
       </c>
       <c r="O45" t="n">
-        <v>1727.013184700908</v>
+        <v>1754.681420303173</v>
       </c>
       <c r="P45" t="n">
-        <v>1978.782933271196</v>
+        <v>2006.451168873461</v>
       </c>
       <c r="Q45" t="n">
-        <v>2095.523410266131</v>
+        <v>2095.52341026613</v>
       </c>
       <c r="R45" t="n">
-        <v>2017.5204007143</v>
+        <v>2095.52341026613</v>
       </c>
       <c r="S45" t="n">
-        <v>1893.051098799484</v>
+        <v>2095.52341026613</v>
       </c>
       <c r="T45" t="n">
-        <v>1889.64867089769</v>
+        <v>1957.788570308632</v>
       </c>
       <c r="U45" t="n">
-        <v>1858.57916781163</v>
+        <v>1730.880829538489</v>
       </c>
       <c r="V45" t="n">
-        <v>1820.166162021315</v>
+        <v>1496.629586064089</v>
       </c>
       <c r="W45" t="n">
-        <v>1567.651670354648</v>
+        <v>1244.115094397423</v>
       </c>
       <c r="X45" t="n">
-        <v>1361.124771760226</v>
+        <v>1037.588195803</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.396335983876</v>
+        <v>831.8597600266504</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.91046820532262</v>
+        <v>41.91046820532261</v>
       </c>
       <c r="C46" t="n">
-        <v>41.91046820532262</v>
+        <v>41.91046820532261</v>
       </c>
       <c r="D46" t="n">
-        <v>41.91046820532262</v>
+        <v>41.91046820532261</v>
       </c>
       <c r="E46" t="n">
-        <v>41.91046820532262</v>
+        <v>41.91046820532261</v>
       </c>
       <c r="F46" t="n">
-        <v>41.91046820532262</v>
+        <v>41.91046820532261</v>
       </c>
       <c r="G46" t="n">
-        <v>41.91046820532262</v>
+        <v>41.91046820532261</v>
       </c>
       <c r="H46" t="n">
-        <v>41.91046820532262</v>
+        <v>41.91046820532261</v>
       </c>
       <c r="I46" t="n">
-        <v>41.91046820532262</v>
+        <v>41.91046820532261</v>
       </c>
       <c r="J46" t="n">
-        <v>41.91046820532262</v>
+        <v>41.91046820532261</v>
       </c>
       <c r="K46" t="n">
-        <v>54.41969778423449</v>
+        <v>54.41969778423447</v>
       </c>
       <c r="L46" t="n">
-        <v>126.2308200046718</v>
+        <v>126.2308200046717</v>
       </c>
       <c r="M46" t="n">
-        <v>212.5384793461912</v>
+        <v>212.5384793461911</v>
       </c>
       <c r="N46" t="n">
-        <v>301.9351973505137</v>
+        <v>301.9351973505136</v>
       </c>
       <c r="O46" t="n">
-        <v>369.5897574772164</v>
+        <v>369.1709391501744</v>
       </c>
       <c r="P46" t="n">
-        <v>403.8990685258522</v>
+        <v>403.4802501988102</v>
       </c>
       <c r="Q46" t="n">
-        <v>403.8990685258522</v>
+        <v>403.4802501988102</v>
       </c>
       <c r="R46" t="n">
-        <v>403.8990685258522</v>
+        <v>403.8990685258516</v>
       </c>
       <c r="S46" t="n">
-        <v>379.2868944031069</v>
+        <v>379.2868944031063</v>
       </c>
       <c r="T46" t="n">
-        <v>345.5044955456832</v>
+        <v>345.5044955456827</v>
       </c>
       <c r="U46" t="n">
-        <v>252.4140444936662</v>
+        <v>252.4140444936659</v>
       </c>
       <c r="V46" t="n">
-        <v>192.7610184737711</v>
+        <v>192.7610184737709</v>
       </c>
       <c r="W46" t="n">
-        <v>99.61685526147564</v>
+        <v>99.61685526147545</v>
       </c>
       <c r="X46" t="n">
-        <v>67.03048695332789</v>
+        <v>67.0304869533278</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.91046820532262</v>
+        <v>41.91046820532261</v>
       </c>
     </row>
   </sheetData>
@@ -8766,7 +8766,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>97.07977171875928</v>
+        <v>97.07977171875929</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
@@ -8775,19 +8775,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>484.3332662999999</v>
+        <v>238.7319089551374</v>
       </c>
       <c r="N12" t="n">
-        <v>454.9861600102795</v>
+        <v>480.9675212346644</v>
       </c>
       <c r="O12" t="n">
-        <v>72.07714219506364</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>100.5607055130256</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>175.8604797789567</v>
+        <v>175.8604797789571</v>
       </c>
       <c r="K14" t="n">
         <v>337.1112290740114</v>
@@ -8933,7 +8933,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M14" t="n">
-        <v>467.4940748325456</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N14" t="n">
         <v>454.8408013884635</v>
@@ -9003,10 +9003,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>97.07977171875929</v>
       </c>
       <c r="K15" t="n">
-        <v>88.95413179195765</v>
+        <v>88.95413179195768</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9015,13 +9015,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>480.9675212346643</v>
+        <v>480.9675212346644</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>237.63473170653</v>
+        <v>271.6896367417962</v>
       </c>
       <c r="Q15" t="n">
         <v>100.5607055130256</v>
@@ -9164,7 +9164,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1112290740111</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L17" t="n">
         <v>434.3676631324684</v>
@@ -9240,16 +9240,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>131.1346767540252</v>
+        <v>97.07977171875928</v>
       </c>
       <c r="K18" t="n">
-        <v>275.0438464930818</v>
+        <v>88.95413179195765</v>
       </c>
       <c r="L18" t="n">
-        <v>385.6739591155975</v>
+        <v>326.1623164718591</v>
       </c>
       <c r="M18" t="n">
-        <v>86.75733018761397</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
         <v>480.9675212346644</v>
@@ -9261,7 +9261,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>218.4803792452831</v>
+        <v>100.5607055130256</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9477,7 +9477,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>97.07977171875928</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
@@ -9489,7 +9489,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>235.3661638898017</v>
+        <v>201.3112588545358</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9714,19 +9714,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>97.07977171875928</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
-        <v>88.95413179195765</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>484.3332662999999</v>
+        <v>89.60156193492789</v>
       </c>
       <c r="N24" t="n">
-        <v>425.2611306214621</v>
+        <v>481.9285415178865</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -9735,7 +9735,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>100.5607055130256</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10662,10 +10662,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>97.07977171875928</v>
+        <v>129.6569431514853</v>
       </c>
       <c r="K36" t="n">
-        <v>88.95413179195765</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
@@ -10674,13 +10674,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>489.0313420263114</v>
+        <v>489.0313420263112</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>295.5552881756607</v>
+        <v>76.88840204180988</v>
       </c>
       <c r="Q36" t="n">
         <v>100.5607055130256</v>
@@ -10899,10 +10899,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>97.07977171875928</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
-        <v>189.7013441935511</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
@@ -10914,10 +10914,10 @@
         <v>489.0313420263115</v>
       </c>
       <c r="O39" t="n">
-        <v>409.6168120477987</v>
+        <v>72.07714219506369</v>
       </c>
       <c r="P39" t="n">
-        <v>76.88840204180985</v>
+        <v>295.0306645597484</v>
       </c>
       <c r="Q39" t="n">
         <v>218.4803792452831</v>
@@ -11157,7 +11157,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>190.5326665157224</v>
+        <v>190.5326665157222</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11385,7 +11385,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>470.5683565877351</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -11394,7 +11394,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>218.4803792452831</v>
+        <v>190.5326665157222</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>244.7868284651016</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>234.4064655407573</v>
+        <v>197.188718120897</v>
       </c>
       <c r="E11" t="n">
-        <v>260.9197685414464</v>
+        <v>260.9197685414463</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>285.0955962666997</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>210.5592458869444</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.74933502228023</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.68158809340186</v>
       </c>
       <c r="T11" t="n">
-        <v>22.32032348317631</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>129.2374203248183</v>
       </c>
       <c r="V11" t="n">
-        <v>206.3349543086783</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>228.3318497867135</v>
       </c>
       <c r="X11" t="n">
-        <v>248.6633319173283</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>7.531752999057062e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>261.5181427775539</v>
+        <v>21.96066785222547</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>244.7868284651015</v>
       </c>
       <c r="D14" t="n">
         <v>234.4064655407573</v>
       </c>
       <c r="E14" t="n">
-        <v>74.55393204510533</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>210.5592458869445</v>
       </c>
       <c r="I14" t="n">
-        <v>62.74933502228022</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.68158809340186</v>
+        <v>71.68158809340191</v>
       </c>
       <c r="T14" t="n">
-        <v>98.46450178456114</v>
+        <v>98.46450178456119</v>
       </c>
       <c r="U14" t="n">
-        <v>129.2374203248183</v>
+        <v>129.2374203248184</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>206.3349543086782</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>228.3318497867135</v>
       </c>
       <c r="X14" t="n">
-        <v>248.6633319173283</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.4888045373947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>3.729527515128206</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.729527515128439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -24026,10 +24026,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.729527515128424</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>3.729527515128567</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>875903.4198414297</v>
+        <v>875903.4198414298</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>875903.4198414297</v>
+        <v>875903.4198414298</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>548205.5549851251</v>
+        <v>548205.5549851249</v>
       </c>
       <c r="C2" t="n">
-        <v>548205.5549851251</v>
+        <v>548205.5549851252</v>
       </c>
       <c r="D2" t="n">
-        <v>548205.5549851251</v>
+        <v>548205.554985125</v>
       </c>
       <c r="E2" t="n">
-        <v>471714.7267757005</v>
+        <v>471714.7267757006</v>
       </c>
       <c r="F2" t="n">
-        <v>471714.7267757005</v>
+        <v>471714.7267757006</v>
       </c>
       <c r="G2" t="n">
-        <v>549195.2133016941</v>
+        <v>549195.213301694</v>
       </c>
       <c r="H2" t="n">
         <v>549195.2133016941</v>
       </c>
       <c r="I2" t="n">
-        <v>549395.6008150819</v>
+        <v>549395.600815082</v>
       </c>
       <c r="J2" t="n">
         <v>549395.6008150819</v>
       </c>
       <c r="K2" t="n">
-        <v>549395.6008150817</v>
+        <v>549395.6008150816</v>
       </c>
       <c r="L2" t="n">
-        <v>549395.6008150823</v>
+        <v>549395.6008150822</v>
       </c>
       <c r="M2" t="n">
         <v>549395.600815082</v>
       </c>
       <c r="N2" t="n">
+        <v>549395.6008150821</v>
+      </c>
+      <c r="O2" t="n">
         <v>549395.6008150822</v>
       </c>
-      <c r="O2" t="n">
-        <v>549395.6008150819</v>
-      </c>
       <c r="P2" t="n">
-        <v>549395.6008150822</v>
+        <v>549395.600815082</v>
       </c>
     </row>
     <row r="3">
@@ -26375,34 +26375,34 @@
         <v>330091.7495432625</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80609.23797518863</v>
+        <v>80609.23797518868</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>255.5554747347261</v>
+        <v>255.555474734711</v>
       </c>
       <c r="J3" t="n">
-        <v>110162.3509272627</v>
+        <v>110162.3509272628</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80609.23797518863</v>
+        <v>80609.23797518868</v>
       </c>
       <c r="M3" t="n">
-        <v>97378.90409072099</v>
+        <v>97378.9040907209</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>33249.77802037396</v>
+        <v>33249.778020374</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,34 +26424,34 @@
         <v>416705.6607992056</v>
       </c>
       <c r="E4" t="n">
+        <v>277641.5740644872</v>
+      </c>
+      <c r="F4" t="n">
         <v>277641.5740644871</v>
-      </c>
-      <c r="F4" t="n">
-        <v>277641.5740644872</v>
       </c>
       <c r="G4" t="n">
         <v>342896.6941741604</v>
       </c>
       <c r="H4" t="n">
-        <v>342896.6941741603</v>
+        <v>342896.6941741604</v>
       </c>
       <c r="I4" t="n">
         <v>343036.4881960935</v>
       </c>
       <c r="J4" t="n">
-        <v>340764.9930748754</v>
+        <v>340764.9930748753</v>
       </c>
       <c r="K4" t="n">
         <v>340764.9930748754</v>
       </c>
       <c r="L4" t="n">
-        <v>340764.9930748753</v>
+        <v>340764.9930748754</v>
       </c>
       <c r="M4" t="n">
-        <v>342817.3494556835</v>
+        <v>342817.3494556836</v>
       </c>
       <c r="N4" t="n">
-        <v>342817.3494556835</v>
+        <v>342817.3494556836</v>
       </c>
       <c r="O4" t="n">
         <v>340049.4585249528</v>
@@ -26488,10 +26488,10 @@
         <v>47502.9235934387</v>
       </c>
       <c r="I5" t="n">
-        <v>47561.35362665861</v>
+        <v>47561.3536266586</v>
       </c>
       <c r="J5" t="n">
-        <v>58675.9889650246</v>
+        <v>58675.98896502459</v>
       </c>
       <c r="K5" t="n">
         <v>58675.98896502458</v>
@@ -26500,16 +26500,16 @@
         <v>58675.98896502458</v>
       </c>
       <c r="M5" t="n">
-        <v>47800.09356392694</v>
+        <v>47800.09356392693</v>
       </c>
       <c r="N5" t="n">
         <v>47800.09356392694</v>
       </c>
       <c r="O5" t="n">
-        <v>51003.33932237865</v>
+        <v>51003.33932237864</v>
       </c>
       <c r="P5" t="n">
-        <v>51003.33932237865</v>
+        <v>51003.33932237864</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97872.29418591948</v>
+        <v>97867.88660877127</v>
       </c>
       <c r="C6" t="n">
-        <v>97872.29418591943</v>
+        <v>97867.88660877156</v>
       </c>
       <c r="D6" t="n">
-        <v>97872.29418591948</v>
+        <v>97867.88660877138</v>
       </c>
       <c r="E6" t="n">
-        <v>-175050.5978913177</v>
+        <v>-175338.3048322043</v>
       </c>
       <c r="F6" t="n">
-        <v>155041.1516519447</v>
+        <v>154753.4447110583</v>
       </c>
       <c r="G6" t="n">
-        <v>78186.35755890643</v>
+        <v>78185.6153829308</v>
       </c>
       <c r="H6" t="n">
-        <v>158795.5955340951</v>
+        <v>158794.8533581196</v>
       </c>
       <c r="I6" t="n">
-        <v>158542.203517595</v>
+        <v>158542.2035175951</v>
       </c>
       <c r="J6" t="n">
-        <v>39792.26784791919</v>
+        <v>39792.2678479192</v>
       </c>
       <c r="K6" t="n">
-        <v>149954.6187751818</v>
+        <v>149954.6187751816</v>
       </c>
       <c r="L6" t="n">
-        <v>69345.38079999376</v>
+        <v>69345.38079999352</v>
       </c>
       <c r="M6" t="n">
-        <v>61399.25370475055</v>
+        <v>61399.25370475056</v>
       </c>
       <c r="N6" t="n">
-        <v>158778.1577954718</v>
+        <v>158778.1577954715</v>
       </c>
       <c r="O6" t="n">
-        <v>125093.0249473765</v>
+        <v>125093.0249473768</v>
       </c>
       <c r="P6" t="n">
-        <v>158342.8029677508</v>
+        <v>158342.8029677506</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>193.879855307243</v>
       </c>
       <c r="P2" t="n">
-        <v>193.879855307243</v>
+        <v>193.8798553072431</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>130.8301802985711</v>
+        <v>130.830180298571</v>
       </c>
       <c r="F3" t="n">
-        <v>130.8301802985711</v>
+        <v>130.830180298571</v>
       </c>
       <c r="G3" t="n">
-        <v>130.8301802985711</v>
+        <v>130.830180298571</v>
       </c>
       <c r="H3" t="n">
-        <v>130.8301802985711</v>
+        <v>130.830180298571</v>
       </c>
       <c r="I3" t="n">
-        <v>130.8301802985711</v>
+        <v>130.830180298571</v>
       </c>
       <c r="J3" t="n">
-        <v>130.8301802985711</v>
+        <v>130.830180298571</v>
       </c>
       <c r="K3" t="n">
-        <v>130.8301802985711</v>
+        <v>130.830180298571</v>
       </c>
       <c r="L3" t="n">
-        <v>130.8301802985711</v>
+        <v>130.830180298571</v>
       </c>
       <c r="M3" t="n">
-        <v>130.8301802985711</v>
+        <v>130.830180298571</v>
       </c>
       <c r="N3" t="n">
-        <v>130.8301802985711</v>
+        <v>130.830180298571</v>
       </c>
       <c r="O3" t="n">
-        <v>130.8301802985711</v>
+        <v>130.830180298571</v>
       </c>
       <c r="P3" t="n">
-        <v>130.8301802985711</v>
+        <v>130.830180298571</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>426.0989638545934</v>
+        <v>426.0989638545933</v>
       </c>
       <c r="F4" t="n">
         <v>426.0989638545933</v>
@@ -26808,10 +26808,10 @@
         <v>426.0989638545933</v>
       </c>
       <c r="I4" t="n">
-        <v>427.0599841378155</v>
+        <v>427.0599841378154</v>
       </c>
       <c r="J4" t="n">
-        <v>721.6472275565354</v>
+        <v>721.6472275565353</v>
       </c>
       <c r="K4" t="n">
         <v>721.6472275565353</v>
@@ -26820,16 +26820,16 @@
         <v>721.6472275565353</v>
       </c>
       <c r="M4" t="n">
-        <v>434.1627846462404</v>
+        <v>434.1627846462401</v>
       </c>
       <c r="N4" t="n">
         <v>434.1627846462404</v>
       </c>
       <c r="O4" t="n">
-        <v>523.8808525665327</v>
+        <v>523.8808525665326</v>
       </c>
       <c r="P4" t="n">
-        <v>523.8808525665327</v>
+        <v>523.8808525665326</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>122.1982672138411</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>100.7615474689858</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.35670776276895</v>
+        <v>41.35670776276901</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>14.57379407160964</v>
+        <v>14.57379407160973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>130.8301802985711</v>
+        <v>130.830180298571</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>426.0989638545934</v>
+        <v>426.0989638545933</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.961020283222183</v>
+        <v>0.9610202832221262</v>
       </c>
       <c r="J4" t="n">
         <v>294.5872434187199</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>138.6145209442985</v>
+        <v>138.6145209442981</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>89.71806792029224</v>
+        <v>89.71806792029213</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>122.1982672138411</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>100.7615474689858</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.35670776276895</v>
+        <v>41.35670776276901</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>426.0989638545934</v>
+        <v>426.0989638545933</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28169,16 +28169,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>122.1982672138411</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>122.1982672138411</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>122.1982672138411</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>122.1982672138411</v>
@@ -28187,7 +28187,7 @@
         <v>107.7447036634776</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>38.48891450761163</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28220,7 +28220,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>38.48891450761161</v>
+        <v>122.1982672138411</v>
       </c>
       <c r="U12" t="n">
         <v>122.1982672138411</v>
@@ -28229,13 +28229,13 @@
         <v>122.1982672138411</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>122.1982672138411</v>
       </c>
       <c r="X12" t="n">
         <v>122.1982672138411</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>122.1982672138411</v>
       </c>
     </row>
     <row r="13">
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>108.8125862659821</v>
+        <v>108.8125862659822</v>
       </c>
       <c r="S14" t="n">
         <v>122.1982672138411</v>
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>122.1982672138411</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>122.1982672138411</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>122.1982672138411</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>122.1982672138411</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>122.1982672138411</v>
       </c>
       <c r="G15" t="n">
-        <v>69.41891352961515</v>
+        <v>122.1982672138411</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>107.7447036634776</v>
       </c>
       <c r="I15" t="n">
-        <v>76.81470464147371</v>
+        <v>76.81470464147372</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>77.22297945631225</v>
       </c>
       <c r="S15" t="n">
         <v>122.1982672138411</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>122.1982672138411</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>122.1982672138411</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>122.1982672138411</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>6.649497623666718</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>122.1982672138411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28655,7 +28655,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.741801892702</v>
       </c>
       <c r="H18" t="n">
         <v>107.7447036634776</v>
@@ -28691,25 +28691,25 @@
         <v>77.22297945631223</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>163.7345779286213</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.2482589300197</v>
       </c>
       <c r="U18" t="n">
         <v>222.9598146828269</v>
       </c>
       <c r="V18" t="n">
-        <v>222.9598146828269</v>
+        <v>20.1546474725437</v>
       </c>
       <c r="W18" t="n">
-        <v>90.24832012247347</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>108.8125862659821</v>
+        <v>108.8125862659822</v>
       </c>
       <c r="S20" t="n">
         <v>193.879855307243</v>
@@ -28877,25 +28877,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>33.75559507220927</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.741801892702</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>107.7447036634776</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>77.22297945631225</v>
       </c>
       <c r="S21" t="n">
-        <v>163.7345779286213</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.2482589300197</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>222.9598146828269</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>174.1923315703294</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -28959,7 +28959,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
-        <v>119.2755366648155</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
         <v>149.0055665145194</v>
@@ -28968,7 +28968,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
         <v>167.6536656541598</v>
@@ -28980,7 +28980,7 @@
         <v>146.6636904625237</v>
       </c>
       <c r="J22" t="n">
-        <v>72.15906931823817</v>
+        <v>72.15906931823818</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.00534265076395</v>
+        <v>60.00534265076396</v>
       </c>
       <c r="R22" t="n">
         <v>162.7831792803277</v>
@@ -29016,7 +29016,7 @@
         <v>222.9598146828269</v>
       </c>
       <c r="V22" t="n">
-        <v>222.9598146828269</v>
+        <v>28.73977700663568</v>
       </c>
       <c r="W22" t="n">
         <v>222.9598146828269</v>
@@ -29083,10 +29083,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>110.3207926120938</v>
+        <v>108.8125862659822</v>
       </c>
       <c r="S23" t="n">
-        <v>193.879855307243</v>
+        <v>195.3880616533547</v>
       </c>
       <c r="T23" t="n">
         <v>222.9598146828269</v>
@@ -29114,16 +29114,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
         <v>143.5062320835493</v>
@@ -29132,10 +29132,10 @@
         <v>135.741801892702</v>
       </c>
       <c r="H24" t="n">
-        <v>107.7447036634776</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.95657197165155</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,16 +29162,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>77.22297945631225</v>
       </c>
       <c r="S24" t="n">
-        <v>163.7345779286213</v>
+        <v>2.877380900719913</v>
       </c>
       <c r="T24" t="n">
-        <v>197.2482589300197</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>222.9598146828269</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29205,7 +29205,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.6536656541598</v>
@@ -29217,7 +29217,7 @@
         <v>146.6636904625237</v>
       </c>
       <c r="J25" t="n">
-        <v>72.15906931823817</v>
+        <v>72.15906931823818</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.00534265076395</v>
+        <v>60.00534265076396</v>
       </c>
       <c r="R25" t="n">
         <v>162.7831792803277</v>
@@ -29250,13 +29250,13 @@
         <v>222.9598146828269</v>
       </c>
       <c r="U25" t="n">
-        <v>222.9598146828269</v>
+        <v>174.8987984164402</v>
       </c>
       <c r="V25" t="n">
         <v>222.9598146828269</v>
       </c>
       <c r="W25" t="n">
-        <v>28.73977700663556</v>
+        <v>222.9598146828269</v>
       </c>
       <c r="X25" t="n">
         <v>222.9598146828269</v>
@@ -29363,7 +29363,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>131.930241464194</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>135.741801892702</v>
@@ -29372,7 +29372,7 @@
         <v>107.7447036634776</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>76.81470464147372</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>77.22297945631223</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29417,7 +29417,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>132.3385162790323</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -29454,10 +29454,10 @@
         <v>142.1182552317548</v>
       </c>
       <c r="J28" t="n">
-        <v>142.1182552317548</v>
+        <v>72.15906931823818</v>
       </c>
       <c r="K28" t="n">
-        <v>23.9166627293962</v>
+        <v>11.76293606192212</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29466,16 +29466,16 @@
         <v>142.1182552317548</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>142.1182552317548</v>
       </c>
       <c r="O28" t="n">
-        <v>142.1182552317548</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>142.1182552317548</v>
       </c>
       <c r="Q28" t="n">
-        <v>60.00534265076395</v>
+        <v>142.1182552317548</v>
       </c>
       <c r="R28" t="n">
         <v>142.1182552317548</v>
@@ -29597,19 +29597,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>142.1182552317548</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>142.1182552317548</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>107.7447036634776</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>76.81470464147371</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.22297945631223</v>
+        <v>77.22297945631225</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29645,13 +29645,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>142.1182552317548</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>142.1182552317548</v>
       </c>
       <c r="W30" t="n">
-        <v>48.73908348366726</v>
+        <v>91.18023655686397</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -29691,7 +29691,7 @@
         <v>142.1182552317548</v>
       </c>
       <c r="J31" t="n">
-        <v>142.1182552317548</v>
+        <v>72.15906931823818</v>
       </c>
       <c r="K31" t="n">
         <v>142.1182552317548</v>
@@ -29700,19 +29700,19 @@
         <v>142.1182552317548</v>
       </c>
       <c r="M31" t="n">
+        <v>93.87584864291367</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>142.1182552317548</v>
       </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.92200538016088</v>
+        <v>60.00534265076396</v>
       </c>
       <c r="R31" t="n">
         <v>142.1182552317548</v>
@@ -29779,7 +29779,7 @@
         <v>142.1182552317548</v>
       </c>
       <c r="M32" t="n">
-        <v>142.1182552317545</v>
+        <v>142.1182552317548</v>
       </c>
       <c r="N32" t="n">
         <v>142.1182552317548</v>
@@ -29788,7 +29788,7 @@
         <v>142.1182552317548</v>
       </c>
       <c r="P32" t="n">
-        <v>142.1182552317548</v>
+        <v>142.118255231755</v>
       </c>
       <c r="Q32" t="n">
         <v>142.1182552317548</v>
@@ -29846,7 +29846,7 @@
         <v>107.7447036634776</v>
       </c>
       <c r="I33" t="n">
-        <v>76.81470464147371</v>
+        <v>76.81470464147372</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,13 +29873,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>77.22297945631223</v>
+        <v>77.22297945631225</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>55.11553682271996</v>
       </c>
       <c r="T33" t="n">
-        <v>55.11553682271997</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>142.1182552317548</v>
@@ -29928,19 +29928,19 @@
         <v>142.1182552317548</v>
       </c>
       <c r="J34" t="n">
-        <v>72.15906931823817</v>
+        <v>72.15906931823818</v>
       </c>
       <c r="K34" t="n">
-        <v>11.76293606192253</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>142.1182552317548</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>142.1182552317548</v>
+        <v>11.76293606192274</v>
       </c>
       <c r="O34" t="n">
         <v>142.1182552317548</v>
@@ -30004,7 +30004,7 @@
         <v>220.6627689984023</v>
       </c>
       <c r="I35" t="n">
-        <v>216.8770744616329</v>
+        <v>184.9476022361214</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>108.8125862659821</v>
+        <v>140.7420584914932</v>
       </c>
       <c r="S35" t="n">
         <v>193.879855307243</v>
@@ -30077,13 +30077,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.741801892702</v>
       </c>
       <c r="H36" t="n">
         <v>107.7447036634776</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>76.81470464147372</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>68.38059688505732</v>
       </c>
       <c r="S36" t="n">
         <v>163.7345779286213</v>
@@ -30122,10 +30122,10 @@
         <v>220.6627689984023</v>
       </c>
       <c r="V36" t="n">
-        <v>220.6627689984023</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>60.27433442082932</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -30165,7 +30165,7 @@
         <v>146.6636904625237</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>72.15906931823818</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>60.00534265076395</v>
+        <v>60.00534265076396</v>
       </c>
       <c r="R37" t="n">
         <v>162.7831792803277</v>
@@ -30198,7 +30198,7 @@
         <v>220.6627689984023</v>
       </c>
       <c r="U37" t="n">
-        <v>110.0870290625723</v>
+        <v>37.92795974433426</v>
       </c>
       <c r="V37" t="n">
         <v>220.6627689984023</v>
@@ -30241,7 +30241,7 @@
         <v>220.6627689984023</v>
       </c>
       <c r="I38" t="n">
-        <v>216.8770744616329</v>
+        <v>184.9476022361214</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>108.8125862659821</v>
+        <v>140.7420584914944</v>
       </c>
       <c r="S38" t="n">
         <v>193.879855307243</v>
@@ -30299,10 +30299,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>163.0783195958686</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -30314,13 +30314,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.741801892702</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>98.90232109222163</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>76.81470464147372</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.22297945631223</v>
+        <v>77.22297945631225</v>
       </c>
       <c r="S39" t="n">
         <v>163.7345779286213</v>
@@ -30356,7 +30356,7 @@
         <v>197.2482589300197</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>220.6627689984023</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30402,7 +30402,7 @@
         <v>146.6636904625237</v>
       </c>
       <c r="J40" t="n">
-        <v>72.15906931823817</v>
+        <v>72.15906931823818</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>60.00534265076395</v>
+        <v>60.00534265076396</v>
       </c>
       <c r="R40" t="n">
         <v>162.7831792803277</v>
@@ -30435,7 +30435,7 @@
         <v>220.6627689984023</v>
       </c>
       <c r="U40" t="n">
-        <v>37.92795974433417</v>
+        <v>37.92795974433429</v>
       </c>
       <c r="V40" t="n">
         <v>220.6627689984023</v>
@@ -30478,34 +30478,34 @@
         <v>193.879855307243</v>
       </c>
       <c r="I41" t="n">
-        <v>184.9476022361214</v>
+        <v>193.879855307243</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>99.29739404583108</v>
+      </c>
+      <c r="Q41" t="n">
         <v>193.879855307243</v>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>193.2969161582135</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
       <c r="R41" t="n">
-        <v>108.8125862659821</v>
+        <v>193.879855307243</v>
       </c>
       <c r="S41" t="n">
         <v>193.879855307243</v>
@@ -30539,7 +30539,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>107.7447036634776</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30587,16 +30587,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>163.7345779286213</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>70.65524641157539</v>
+        <v>193.879855307243</v>
       </c>
       <c r="U42" t="n">
-        <v>193.879855307243</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>193.879855307243</v>
+        <v>149.4993920565616</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30621,10 +30621,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
-        <v>149.0055665145194</v>
+        <v>149.4286153297132</v>
       </c>
       <c r="E43" t="n">
-        <v>147.397672988393</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
         <v>146.1590214098045</v>
@@ -30639,7 +30639,7 @@
         <v>146.6636904625237</v>
       </c>
       <c r="J43" t="n">
-        <v>72.15906931823817</v>
+        <v>72.15906931823818</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.00534265076395</v>
+        <v>60.00534265076396</v>
       </c>
       <c r="R43" t="n">
         <v>162.7831792803277</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>193.879855307243</v>
+        <v>193.8798553072431</v>
       </c>
       <c r="C44" t="n">
-        <v>193.879855307243</v>
+        <v>193.8798553072431</v>
       </c>
       <c r="D44" t="n">
-        <v>193.879855307243</v>
+        <v>193.8798553072431</v>
       </c>
       <c r="E44" t="n">
-        <v>193.879855307243</v>
+        <v>193.8798553072431</v>
       </c>
       <c r="F44" t="n">
-        <v>193.879855307243</v>
+        <v>193.8798553072431</v>
       </c>
       <c r="G44" t="n">
-        <v>193.879855307243</v>
+        <v>193.8798553072431</v>
       </c>
       <c r="H44" t="n">
-        <v>193.879855307243</v>
+        <v>193.8798553072431</v>
       </c>
       <c r="I44" t="n">
-        <v>193.879855307243</v>
+        <v>193.8798553072431</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30724,7 +30724,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>193.8798553072431</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30733,37 +30733,37 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>99.29739404583097</v>
       </c>
       <c r="P44" t="n">
-        <v>193.879855307243</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>99.29739404583106</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>193.879855307243</v>
+        <v>193.8798553072431</v>
       </c>
       <c r="S44" t="n">
-        <v>193.879855307243</v>
+        <v>193.8798553072431</v>
       </c>
       <c r="T44" t="n">
-        <v>193.879855307243</v>
+        <v>193.8798553072431</v>
       </c>
       <c r="U44" t="n">
-        <v>193.879855307243</v>
+        <v>193.8798553072431</v>
       </c>
       <c r="V44" t="n">
-        <v>193.879855307243</v>
+        <v>193.8798553072431</v>
       </c>
       <c r="W44" t="n">
-        <v>193.879855307243</v>
+        <v>193.8798553072431</v>
       </c>
       <c r="X44" t="n">
-        <v>193.879855307243</v>
+        <v>193.8798553072431</v>
       </c>
       <c r="Y44" t="n">
-        <v>193.879855307243</v>
+        <v>193.8798553072431</v>
       </c>
     </row>
     <row r="45">
@@ -30788,13 +30788,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.741801892702</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>107.7447036634776</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>76.81470464147372</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,19 +30821,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>77.22297945631225</v>
       </c>
       <c r="S45" t="n">
-        <v>40.50996903295368</v>
+        <v>163.7345779286213</v>
       </c>
       <c r="T45" t="n">
-        <v>193.879855307243</v>
+        <v>60.89076737209649</v>
       </c>
       <c r="U45" t="n">
-        <v>193.879855307243</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>193.879855307243</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>146.6636904625237</v>
       </c>
       <c r="J46" t="n">
-        <v>72.15906931823817</v>
+        <v>72.15906931823818</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30891,37 +30891,37 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4230488151937948</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.00534265076395</v>
+        <v>60.00534265076396</v>
       </c>
       <c r="R46" t="n">
-        <v>162.7831792803277</v>
+        <v>163.206228095521</v>
       </c>
       <c r="S46" t="n">
-        <v>193.879855307243</v>
+        <v>193.8798553072431</v>
       </c>
       <c r="T46" t="n">
-        <v>193.879855307243</v>
+        <v>193.8798553072431</v>
       </c>
       <c r="U46" t="n">
-        <v>193.879855307243</v>
+        <v>193.8798553072431</v>
       </c>
       <c r="V46" t="n">
-        <v>193.879855307243</v>
+        <v>193.8798553072431</v>
       </c>
       <c r="W46" t="n">
-        <v>193.879855307243</v>
+        <v>193.8798553072431</v>
       </c>
       <c r="X46" t="n">
-        <v>193.879855307243</v>
+        <v>193.8798553072431</v>
       </c>
       <c r="Y46" t="n">
-        <v>193.879855307243</v>
+        <v>193.8798553072431</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5259504735620943</v>
+        <v>0.5259504735620941</v>
       </c>
       <c r="H11" t="n">
-        <v>5.3863902873678</v>
+        <v>5.386390287367798</v>
       </c>
       <c r="I11" t="n">
-        <v>20.27670563200266</v>
+        <v>20.27670563200265</v>
       </c>
       <c r="J11" t="n">
-        <v>44.63938900549085</v>
+        <v>44.63938900549083</v>
       </c>
       <c r="K11" t="n">
-        <v>66.90287255137432</v>
+        <v>66.90287255137429</v>
       </c>
       <c r="L11" t="n">
-        <v>82.99892935665028</v>
+        <v>82.99892935665024</v>
       </c>
       <c r="M11" t="n">
-        <v>92.35230109086017</v>
+        <v>92.35230109086012</v>
       </c>
       <c r="N11" t="n">
-        <v>93.84665787386847</v>
+        <v>93.84665787386844</v>
       </c>
       <c r="O11" t="n">
-        <v>88.61673785238538</v>
+        <v>88.61673785238536</v>
       </c>
       <c r="P11" t="n">
-        <v>75.63233553632118</v>
+        <v>75.63233553632114</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.79673420187866</v>
+        <v>56.79673420187863</v>
       </c>
       <c r="R11" t="n">
-        <v>33.03823643489494</v>
+        <v>33.03823643489493</v>
       </c>
       <c r="S11" t="n">
-        <v>11.98509641629624</v>
+        <v>11.98509641629623</v>
       </c>
       <c r="T11" t="n">
-        <v>2.302348198018069</v>
+        <v>2.302348198018068</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04207603788496754</v>
+        <v>0.04207603788496752</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2814083123403227</v>
+        <v>0.2814083123403225</v>
       </c>
       <c r="H12" t="n">
-        <v>2.717811858655222</v>
+        <v>2.717811858655221</v>
       </c>
       <c r="I12" t="n">
-        <v>9.688838823997953</v>
+        <v>9.688838823997949</v>
       </c>
       <c r="J12" t="n">
-        <v>26.58691428124075</v>
+        <v>26.58691428124074</v>
       </c>
       <c r="K12" t="n">
-        <v>45.44127120804237</v>
+        <v>45.44127120804235</v>
       </c>
       <c r="L12" t="n">
-        <v>61.10139694038454</v>
+        <v>61.10139694038451</v>
       </c>
       <c r="M12" t="n">
-        <v>71.30244826272123</v>
+        <v>71.30244826272119</v>
       </c>
       <c r="N12" t="n">
-        <v>73.18961190117892</v>
+        <v>73.18961190117889</v>
       </c>
       <c r="O12" t="n">
-        <v>66.95419613826967</v>
+        <v>66.95419613826964</v>
       </c>
       <c r="P12" t="n">
-        <v>53.73664518716215</v>
+        <v>53.73664518716213</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.92152422084541</v>
+        <v>35.92152422084538</v>
       </c>
       <c r="R12" t="n">
-        <v>17.47200030477899</v>
+        <v>17.47200030477898</v>
       </c>
       <c r="S12" t="n">
-        <v>5.227035977023095</v>
+        <v>5.227035977023093</v>
       </c>
       <c r="T12" t="n">
-        <v>1.134272978248932</v>
+        <v>1.134272978248931</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01851370475923176</v>
+        <v>0.01851370475923175</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2359232759482429</v>
+        <v>0.2359232759482428</v>
       </c>
       <c r="H13" t="n">
-        <v>2.097572398885288</v>
+        <v>2.097572398885287</v>
       </c>
       <c r="I13" t="n">
-        <v>7.094856334879888</v>
+        <v>7.094856334879885</v>
       </c>
       <c r="J13" t="n">
-        <v>16.67977560954077</v>
+        <v>16.67977560954076</v>
       </c>
       <c r="K13" t="n">
-        <v>27.40999515107767</v>
+        <v>27.40999515107766</v>
       </c>
       <c r="L13" t="n">
-        <v>35.0753568623415</v>
+        <v>35.07535686234148</v>
       </c>
       <c r="M13" t="n">
-        <v>36.9820458834141</v>
+        <v>36.98204588341409</v>
       </c>
       <c r="N13" t="n">
-        <v>36.10269549124341</v>
+        <v>36.1026954912434</v>
       </c>
       <c r="O13" t="n">
-        <v>33.3466826767571</v>
+        <v>33.34668267675709</v>
       </c>
       <c r="P13" t="n">
-        <v>28.53384784741293</v>
+        <v>28.53384784741291</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.75535722508423</v>
+        <v>19.75535722508422</v>
       </c>
       <c r="R13" t="n">
-        <v>10.60796838945463</v>
+        <v>10.60796838945462</v>
       </c>
       <c r="S13" t="n">
-        <v>4.111499272661649</v>
+        <v>4.111499272661647</v>
       </c>
       <c r="T13" t="n">
         <v>1.008035815415219</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01286854232444963</v>
+        <v>0.01286854232444962</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5259504735620943</v>
+        <v>0.525950473562094</v>
       </c>
       <c r="H14" t="n">
-        <v>5.3863902873678</v>
+        <v>5.386390287367797</v>
       </c>
       <c r="I14" t="n">
-        <v>20.27670563200266</v>
+        <v>20.27670563200265</v>
       </c>
       <c r="J14" t="n">
-        <v>44.63938900549085</v>
+        <v>44.63938900549081</v>
       </c>
       <c r="K14" t="n">
-        <v>66.90287255137432</v>
+        <v>66.90287255137427</v>
       </c>
       <c r="L14" t="n">
-        <v>82.99892935665028</v>
+        <v>82.99892935665022</v>
       </c>
       <c r="M14" t="n">
-        <v>92.35230109086017</v>
+        <v>92.35230109086011</v>
       </c>
       <c r="N14" t="n">
-        <v>93.84665787386847</v>
+        <v>93.84665787386841</v>
       </c>
       <c r="O14" t="n">
-        <v>88.61673785238538</v>
+        <v>88.61673785238533</v>
       </c>
       <c r="P14" t="n">
-        <v>75.63233553632118</v>
+        <v>75.63233553632112</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.79673420187866</v>
+        <v>56.79673420187861</v>
       </c>
       <c r="R14" t="n">
-        <v>33.03823643489494</v>
+        <v>33.03823643489492</v>
       </c>
       <c r="S14" t="n">
-        <v>11.98509641629624</v>
+        <v>11.98509641629623</v>
       </c>
       <c r="T14" t="n">
-        <v>2.302348198018069</v>
+        <v>2.302348198018068</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04207603788496754</v>
+        <v>0.04207603788496751</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2814083123403227</v>
+        <v>0.2814083123403225</v>
       </c>
       <c r="H15" t="n">
-        <v>2.717811858655222</v>
+        <v>2.71781185865522</v>
       </c>
       <c r="I15" t="n">
-        <v>9.688838823997953</v>
+        <v>9.688838823997946</v>
       </c>
       <c r="J15" t="n">
-        <v>26.58691428124075</v>
+        <v>26.58691428124073</v>
       </c>
       <c r="K15" t="n">
-        <v>45.44127120804237</v>
+        <v>45.44127120804234</v>
       </c>
       <c r="L15" t="n">
-        <v>61.10139694038454</v>
+        <v>61.1013969403845</v>
       </c>
       <c r="M15" t="n">
-        <v>71.30244826272123</v>
+        <v>71.30244826272117</v>
       </c>
       <c r="N15" t="n">
-        <v>73.18961190117892</v>
+        <v>73.18961190117888</v>
       </c>
       <c r="O15" t="n">
-        <v>66.95419613826967</v>
+        <v>66.95419613826962</v>
       </c>
       <c r="P15" t="n">
-        <v>53.73664518716215</v>
+        <v>53.73664518716211</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.92152422084541</v>
+        <v>35.92152422084538</v>
       </c>
       <c r="R15" t="n">
-        <v>17.47200030477899</v>
+        <v>17.47200030477898</v>
       </c>
       <c r="S15" t="n">
-        <v>5.227035977023095</v>
+        <v>5.227035977023092</v>
       </c>
       <c r="T15" t="n">
-        <v>1.134272978248932</v>
+        <v>1.134272978248931</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01851370475923176</v>
+        <v>0.01851370475923175</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2359232759482429</v>
+        <v>0.2359232759482427</v>
       </c>
       <c r="H16" t="n">
-        <v>2.097572398885288</v>
+        <v>2.097572398885287</v>
       </c>
       <c r="I16" t="n">
-        <v>7.094856334879888</v>
+        <v>7.094856334879883</v>
       </c>
       <c r="J16" t="n">
-        <v>16.67977560954077</v>
+        <v>16.67977560954076</v>
       </c>
       <c r="K16" t="n">
-        <v>27.40999515107767</v>
+        <v>27.40999515107765</v>
       </c>
       <c r="L16" t="n">
-        <v>35.0753568623415</v>
+        <v>35.07535686234147</v>
       </c>
       <c r="M16" t="n">
-        <v>36.9820458834141</v>
+        <v>36.98204588341408</v>
       </c>
       <c r="N16" t="n">
-        <v>36.10269549124341</v>
+        <v>36.10269549124339</v>
       </c>
       <c r="O16" t="n">
-        <v>33.3466826767571</v>
+        <v>33.34668267675708</v>
       </c>
       <c r="P16" t="n">
-        <v>28.53384784741293</v>
+        <v>28.53384784741291</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.75535722508423</v>
+        <v>19.75535722508422</v>
       </c>
       <c r="R16" t="n">
-        <v>10.60796838945463</v>
+        <v>10.60796838945462</v>
       </c>
       <c r="S16" t="n">
-        <v>4.111499272661649</v>
+        <v>4.111499272661646</v>
       </c>
       <c r="T16" t="n">
         <v>1.008035815415219</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01286854232444963</v>
+        <v>0.01286854232444962</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5259504735620943</v>
+        <v>0.5259504735620942</v>
       </c>
       <c r="H17" t="n">
-        <v>5.3863902873678</v>
+        <v>5.386390287367798</v>
       </c>
       <c r="I17" t="n">
         <v>20.27670563200266</v>
       </c>
       <c r="J17" t="n">
-        <v>44.63938900549085</v>
+        <v>44.63938900549083</v>
       </c>
       <c r="K17" t="n">
-        <v>66.90287255137432</v>
+        <v>66.9028725513743</v>
       </c>
       <c r="L17" t="n">
-        <v>82.99892935665028</v>
+        <v>82.99892935665025</v>
       </c>
       <c r="M17" t="n">
-        <v>92.35230109086017</v>
+        <v>92.35230109086014</v>
       </c>
       <c r="N17" t="n">
-        <v>93.84665787386847</v>
+        <v>93.84665787386845</v>
       </c>
       <c r="O17" t="n">
-        <v>88.61673785238538</v>
+        <v>88.61673785238537</v>
       </c>
       <c r="P17" t="n">
-        <v>75.63233553632118</v>
+        <v>75.63233553632116</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.79673420187866</v>
+        <v>56.79673420187864</v>
       </c>
       <c r="R17" t="n">
-        <v>33.03823643489494</v>
+        <v>33.03823643489493</v>
       </c>
       <c r="S17" t="n">
-        <v>11.98509641629624</v>
+        <v>11.98509641629623</v>
       </c>
       <c r="T17" t="n">
-        <v>2.302348198018069</v>
+        <v>2.302348198018068</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04207603788496754</v>
+        <v>0.04207603788496753</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32303,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2814083123403227</v>
+        <v>0.2814083123403226</v>
       </c>
       <c r="H18" t="n">
-        <v>2.717811858655222</v>
+        <v>2.717811858655221</v>
       </c>
       <c r="I18" t="n">
-        <v>9.688838823997953</v>
+        <v>9.688838823997951</v>
       </c>
       <c r="J18" t="n">
         <v>26.58691428124075</v>
       </c>
       <c r="K18" t="n">
-        <v>45.44127120804237</v>
+        <v>45.44127120804236</v>
       </c>
       <c r="L18" t="n">
-        <v>61.10139694038454</v>
+        <v>61.10139694038453</v>
       </c>
       <c r="M18" t="n">
-        <v>71.30244826272123</v>
+        <v>71.3024482627212</v>
       </c>
       <c r="N18" t="n">
-        <v>73.18961190117892</v>
+        <v>73.18961190117891</v>
       </c>
       <c r="O18" t="n">
-        <v>66.95419613826967</v>
+        <v>66.95419613826965</v>
       </c>
       <c r="P18" t="n">
-        <v>53.73664518716215</v>
+        <v>53.73664518716214</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.92152422084541</v>
+        <v>35.9215242208454</v>
       </c>
       <c r="R18" t="n">
-        <v>17.47200030477899</v>
+        <v>17.47200030477898</v>
       </c>
       <c r="S18" t="n">
-        <v>5.227035977023095</v>
+        <v>5.227035977023094</v>
       </c>
       <c r="T18" t="n">
         <v>1.134272978248932</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2359232759482429</v>
+        <v>0.2359232759482428</v>
       </c>
       <c r="H19" t="n">
         <v>2.097572398885288</v>
       </c>
       <c r="I19" t="n">
-        <v>7.094856334879888</v>
+        <v>7.094856334879887</v>
       </c>
       <c r="J19" t="n">
         <v>16.67977560954077</v>
       </c>
       <c r="K19" t="n">
-        <v>27.40999515107767</v>
+        <v>27.40999515107766</v>
       </c>
       <c r="L19" t="n">
-        <v>35.0753568623415</v>
+        <v>35.07535686234149</v>
       </c>
       <c r="M19" t="n">
         <v>36.9820458834141</v>
       </c>
       <c r="N19" t="n">
-        <v>36.10269549124341</v>
+        <v>36.1026954912434</v>
       </c>
       <c r="O19" t="n">
         <v>33.3466826767571</v>
       </c>
       <c r="P19" t="n">
-        <v>28.53384784741293</v>
+        <v>28.53384784741292</v>
       </c>
       <c r="Q19" t="n">
         <v>19.75535722508423</v>
       </c>
       <c r="R19" t="n">
-        <v>10.60796838945463</v>
+        <v>10.60796838945462</v>
       </c>
       <c r="S19" t="n">
-        <v>4.111499272661649</v>
+        <v>4.111499272661648</v>
       </c>
       <c r="T19" t="n">
         <v>1.008035815415219</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01286854232444963</v>
+        <v>0.01286854232444962</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5259504735620943</v>
+        <v>0.525950473562094</v>
       </c>
       <c r="H20" t="n">
-        <v>5.3863902873678</v>
+        <v>5.386390287367797</v>
       </c>
       <c r="I20" t="n">
-        <v>20.27670563200266</v>
+        <v>20.27670563200265</v>
       </c>
       <c r="J20" t="n">
-        <v>44.63938900549085</v>
+        <v>44.63938900549081</v>
       </c>
       <c r="K20" t="n">
-        <v>66.90287255137432</v>
+        <v>66.90287255137427</v>
       </c>
       <c r="L20" t="n">
-        <v>82.99892935665028</v>
+        <v>82.99892935665022</v>
       </c>
       <c r="M20" t="n">
-        <v>92.35230109086017</v>
+        <v>92.35230109086011</v>
       </c>
       <c r="N20" t="n">
-        <v>93.84665787386847</v>
+        <v>93.84665787386841</v>
       </c>
       <c r="O20" t="n">
-        <v>88.61673785238538</v>
+        <v>88.61673785238533</v>
       </c>
       <c r="P20" t="n">
-        <v>75.63233553632118</v>
+        <v>75.63233553632112</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.79673420187866</v>
+        <v>56.79673420187861</v>
       </c>
       <c r="R20" t="n">
-        <v>33.03823643489494</v>
+        <v>33.03823643489492</v>
       </c>
       <c r="S20" t="n">
-        <v>11.98509641629624</v>
+        <v>11.98509641629623</v>
       </c>
       <c r="T20" t="n">
-        <v>2.302348198018069</v>
+        <v>2.302348198018068</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04207603788496754</v>
+        <v>0.04207603788496751</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2814083123403227</v>
+        <v>0.2814083123403225</v>
       </c>
       <c r="H21" t="n">
-        <v>2.717811858655222</v>
+        <v>2.71781185865522</v>
       </c>
       <c r="I21" t="n">
-        <v>9.688838823997953</v>
+        <v>9.688838823997946</v>
       </c>
       <c r="J21" t="n">
-        <v>26.58691428124075</v>
+        <v>26.58691428124073</v>
       </c>
       <c r="K21" t="n">
-        <v>45.44127120804237</v>
+        <v>45.44127120804234</v>
       </c>
       <c r="L21" t="n">
-        <v>61.10139694038454</v>
+        <v>61.1013969403845</v>
       </c>
       <c r="M21" t="n">
-        <v>71.30244826272123</v>
+        <v>71.30244826272117</v>
       </c>
       <c r="N21" t="n">
-        <v>73.18961190117892</v>
+        <v>73.18961190117888</v>
       </c>
       <c r="O21" t="n">
-        <v>66.95419613826967</v>
+        <v>66.95419613826962</v>
       </c>
       <c r="P21" t="n">
-        <v>53.73664518716215</v>
+        <v>53.73664518716211</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.92152422084541</v>
+        <v>35.92152422084538</v>
       </c>
       <c r="R21" t="n">
-        <v>17.47200030477899</v>
+        <v>17.47200030477898</v>
       </c>
       <c r="S21" t="n">
-        <v>5.227035977023095</v>
+        <v>5.227035977023092</v>
       </c>
       <c r="T21" t="n">
-        <v>1.134272978248932</v>
+        <v>1.134272978248931</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01851370475923176</v>
+        <v>0.01851370475923175</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2359232759482429</v>
+        <v>0.2359232759482427</v>
       </c>
       <c r="H22" t="n">
-        <v>2.097572398885288</v>
+        <v>2.097572398885287</v>
       </c>
       <c r="I22" t="n">
-        <v>7.094856334879888</v>
+        <v>7.094856334879883</v>
       </c>
       <c r="J22" t="n">
-        <v>16.67977560954077</v>
+        <v>16.67977560954076</v>
       </c>
       <c r="K22" t="n">
-        <v>27.40999515107767</v>
+        <v>27.40999515107765</v>
       </c>
       <c r="L22" t="n">
-        <v>35.0753568623415</v>
+        <v>35.07535686234147</v>
       </c>
       <c r="M22" t="n">
-        <v>36.9820458834141</v>
+        <v>36.98204588341408</v>
       </c>
       <c r="N22" t="n">
-        <v>36.10269549124341</v>
+        <v>36.10269549124339</v>
       </c>
       <c r="O22" t="n">
-        <v>33.3466826767571</v>
+        <v>33.34668267675708</v>
       </c>
       <c r="P22" t="n">
-        <v>28.53384784741293</v>
+        <v>28.53384784741291</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.75535722508423</v>
+        <v>19.75535722508422</v>
       </c>
       <c r="R22" t="n">
-        <v>10.60796838945463</v>
+        <v>10.60796838945462</v>
       </c>
       <c r="S22" t="n">
-        <v>4.111499272661649</v>
+        <v>4.111499272661646</v>
       </c>
       <c r="T22" t="n">
         <v>1.008035815415219</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01286854232444963</v>
+        <v>0.01286854232444962</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5259504735620943</v>
+        <v>0.525950473562094</v>
       </c>
       <c r="H23" t="n">
-        <v>5.3863902873678</v>
+        <v>5.386390287367797</v>
       </c>
       <c r="I23" t="n">
-        <v>20.27670563200266</v>
+        <v>20.27670563200265</v>
       </c>
       <c r="J23" t="n">
-        <v>44.63938900549085</v>
+        <v>44.63938900549081</v>
       </c>
       <c r="K23" t="n">
-        <v>66.90287255137432</v>
+        <v>66.90287255137427</v>
       </c>
       <c r="L23" t="n">
-        <v>82.99892935665028</v>
+        <v>82.99892935665022</v>
       </c>
       <c r="M23" t="n">
-        <v>92.35230109086017</v>
+        <v>92.35230109086011</v>
       </c>
       <c r="N23" t="n">
-        <v>93.84665787386847</v>
+        <v>93.84665787386841</v>
       </c>
       <c r="O23" t="n">
-        <v>88.61673785238538</v>
+        <v>88.61673785238533</v>
       </c>
       <c r="P23" t="n">
-        <v>75.63233553632118</v>
+        <v>75.63233553632112</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.79673420187866</v>
+        <v>56.79673420187861</v>
       </c>
       <c r="R23" t="n">
-        <v>33.03823643489494</v>
+        <v>33.03823643489492</v>
       </c>
       <c r="S23" t="n">
-        <v>11.98509641629624</v>
+        <v>11.98509641629623</v>
       </c>
       <c r="T23" t="n">
-        <v>2.302348198018069</v>
+        <v>2.302348198018068</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04207603788496754</v>
+        <v>0.04207603788496751</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2814083123403227</v>
+        <v>0.2814083123403225</v>
       </c>
       <c r="H24" t="n">
-        <v>2.717811858655222</v>
+        <v>2.71781185865522</v>
       </c>
       <c r="I24" t="n">
-        <v>9.688838823997953</v>
+        <v>9.688838823997946</v>
       </c>
       <c r="J24" t="n">
-        <v>26.58691428124075</v>
+        <v>26.58691428124073</v>
       </c>
       <c r="K24" t="n">
-        <v>45.44127120804237</v>
+        <v>45.44127120804234</v>
       </c>
       <c r="L24" t="n">
-        <v>61.10139694038454</v>
+        <v>61.1013969403845</v>
       </c>
       <c r="M24" t="n">
-        <v>71.30244826272123</v>
+        <v>71.30244826272117</v>
       </c>
       <c r="N24" t="n">
-        <v>73.18961190117892</v>
+        <v>73.18961190117888</v>
       </c>
       <c r="O24" t="n">
-        <v>66.95419613826967</v>
+        <v>66.95419613826962</v>
       </c>
       <c r="P24" t="n">
-        <v>53.73664518716215</v>
+        <v>53.73664518716211</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.92152422084541</v>
+        <v>35.92152422084538</v>
       </c>
       <c r="R24" t="n">
-        <v>17.47200030477899</v>
+        <v>17.47200030477898</v>
       </c>
       <c r="S24" t="n">
-        <v>5.227035977023095</v>
+        <v>5.227035977023092</v>
       </c>
       <c r="T24" t="n">
-        <v>1.134272978248932</v>
+        <v>1.134272978248931</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01851370475923176</v>
+        <v>0.01851370475923175</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2359232759482429</v>
+        <v>0.2359232759482427</v>
       </c>
       <c r="H25" t="n">
-        <v>2.097572398885288</v>
+        <v>2.097572398885287</v>
       </c>
       <c r="I25" t="n">
-        <v>7.094856334879888</v>
+        <v>7.094856334879883</v>
       </c>
       <c r="J25" t="n">
-        <v>16.67977560954077</v>
+        <v>16.67977560954076</v>
       </c>
       <c r="K25" t="n">
-        <v>27.40999515107767</v>
+        <v>27.40999515107765</v>
       </c>
       <c r="L25" t="n">
-        <v>35.0753568623415</v>
+        <v>35.07535686234147</v>
       </c>
       <c r="M25" t="n">
-        <v>36.9820458834141</v>
+        <v>36.98204588341408</v>
       </c>
       <c r="N25" t="n">
-        <v>36.10269549124341</v>
+        <v>36.10269549124339</v>
       </c>
       <c r="O25" t="n">
-        <v>33.3466826767571</v>
+        <v>33.34668267675708</v>
       </c>
       <c r="P25" t="n">
-        <v>28.53384784741293</v>
+        <v>28.53384784741291</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.75535722508423</v>
+        <v>19.75535722508422</v>
       </c>
       <c r="R25" t="n">
-        <v>10.60796838945463</v>
+        <v>10.60796838945462</v>
       </c>
       <c r="S25" t="n">
-        <v>4.111499272661649</v>
+        <v>4.111499272661646</v>
       </c>
       <c r="T25" t="n">
         <v>1.008035815415219</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01286854232444963</v>
+        <v>0.01286854232444962</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5259504735620943</v>
+        <v>0.525950473562094</v>
       </c>
       <c r="H26" t="n">
-        <v>5.3863902873678</v>
+        <v>5.386390287367797</v>
       </c>
       <c r="I26" t="n">
-        <v>20.27670563200266</v>
+        <v>20.27670563200265</v>
       </c>
       <c r="J26" t="n">
-        <v>44.63938900549085</v>
+        <v>44.63938900549081</v>
       </c>
       <c r="K26" t="n">
-        <v>66.90287255137432</v>
+        <v>66.90287255137427</v>
       </c>
       <c r="L26" t="n">
-        <v>82.99892935665028</v>
+        <v>82.99892935665022</v>
       </c>
       <c r="M26" t="n">
-        <v>92.35230109086017</v>
+        <v>92.35230109086011</v>
       </c>
       <c r="N26" t="n">
-        <v>93.84665787386847</v>
+        <v>93.84665787386841</v>
       </c>
       <c r="O26" t="n">
-        <v>88.61673785238538</v>
+        <v>88.61673785238533</v>
       </c>
       <c r="P26" t="n">
-        <v>75.63233553632118</v>
+        <v>75.63233553632112</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.79673420187866</v>
+        <v>56.79673420187861</v>
       </c>
       <c r="R26" t="n">
-        <v>33.03823643489494</v>
+        <v>33.03823643489492</v>
       </c>
       <c r="S26" t="n">
-        <v>11.98509641629624</v>
+        <v>11.98509641629623</v>
       </c>
       <c r="T26" t="n">
-        <v>2.302348198018069</v>
+        <v>2.302348198018068</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04207603788496754</v>
+        <v>0.04207603788496751</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2814083123403227</v>
+        <v>0.2814083123403225</v>
       </c>
       <c r="H27" t="n">
-        <v>2.717811858655222</v>
+        <v>2.71781185865522</v>
       </c>
       <c r="I27" t="n">
-        <v>9.688838823997953</v>
+        <v>9.688838823997946</v>
       </c>
       <c r="J27" t="n">
-        <v>26.58691428124075</v>
+        <v>26.58691428124073</v>
       </c>
       <c r="K27" t="n">
-        <v>45.44127120804237</v>
+        <v>45.44127120804234</v>
       </c>
       <c r="L27" t="n">
-        <v>61.10139694038454</v>
+        <v>61.1013969403845</v>
       </c>
       <c r="M27" t="n">
-        <v>71.30244826272123</v>
+        <v>71.30244826272117</v>
       </c>
       <c r="N27" t="n">
-        <v>73.18961190117892</v>
+        <v>73.18961190117888</v>
       </c>
       <c r="O27" t="n">
-        <v>66.95419613826967</v>
+        <v>66.95419613826962</v>
       </c>
       <c r="P27" t="n">
-        <v>53.73664518716215</v>
+        <v>53.73664518716211</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.92152422084541</v>
+        <v>35.92152422084538</v>
       </c>
       <c r="R27" t="n">
-        <v>17.47200030477899</v>
+        <v>17.47200030477898</v>
       </c>
       <c r="S27" t="n">
-        <v>5.227035977023095</v>
+        <v>5.227035977023092</v>
       </c>
       <c r="T27" t="n">
-        <v>1.134272978248932</v>
+        <v>1.134272978248931</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01851370475923176</v>
+        <v>0.01851370475923175</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2359232759482429</v>
+        <v>0.2359232759482427</v>
       </c>
       <c r="H28" t="n">
-        <v>2.097572398885288</v>
+        <v>2.097572398885287</v>
       </c>
       <c r="I28" t="n">
-        <v>7.094856334879888</v>
+        <v>7.094856334879883</v>
       </c>
       <c r="J28" t="n">
-        <v>16.67977560954077</v>
+        <v>16.67977560954076</v>
       </c>
       <c r="K28" t="n">
-        <v>27.40999515107767</v>
+        <v>27.40999515107765</v>
       </c>
       <c r="L28" t="n">
-        <v>35.0753568623415</v>
+        <v>35.07535686234147</v>
       </c>
       <c r="M28" t="n">
-        <v>36.9820458834141</v>
+        <v>36.98204588341408</v>
       </c>
       <c r="N28" t="n">
-        <v>36.10269549124341</v>
+        <v>36.10269549124339</v>
       </c>
       <c r="O28" t="n">
-        <v>33.3466826767571</v>
+        <v>33.34668267675708</v>
       </c>
       <c r="P28" t="n">
-        <v>28.53384784741293</v>
+        <v>28.53384784741291</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.75535722508423</v>
+        <v>19.75535722508422</v>
       </c>
       <c r="R28" t="n">
-        <v>10.60796838945463</v>
+        <v>10.60796838945462</v>
       </c>
       <c r="S28" t="n">
-        <v>4.111499272661649</v>
+        <v>4.111499272661646</v>
       </c>
       <c r="T28" t="n">
         <v>1.008035815415219</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01286854232444963</v>
+        <v>0.01286854232444962</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5259504735620943</v>
+        <v>0.525950473562094</v>
       </c>
       <c r="H29" t="n">
-        <v>5.3863902873678</v>
+        <v>5.386390287367797</v>
       </c>
       <c r="I29" t="n">
-        <v>20.27670563200266</v>
+        <v>20.27670563200265</v>
       </c>
       <c r="J29" t="n">
-        <v>44.63938900549085</v>
+        <v>44.63938900549081</v>
       </c>
       <c r="K29" t="n">
-        <v>66.90287255137432</v>
+        <v>66.90287255137427</v>
       </c>
       <c r="L29" t="n">
-        <v>82.99892935665028</v>
+        <v>82.99892935665022</v>
       </c>
       <c r="M29" t="n">
-        <v>92.35230109086017</v>
+        <v>92.35230109086011</v>
       </c>
       <c r="N29" t="n">
-        <v>93.84665787386847</v>
+        <v>93.84665787386841</v>
       </c>
       <c r="O29" t="n">
-        <v>88.61673785238538</v>
+        <v>88.61673785238533</v>
       </c>
       <c r="P29" t="n">
-        <v>75.63233553632118</v>
+        <v>75.63233553632112</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.79673420187866</v>
+        <v>56.79673420187861</v>
       </c>
       <c r="R29" t="n">
-        <v>33.03823643489494</v>
+        <v>33.03823643489492</v>
       </c>
       <c r="S29" t="n">
-        <v>11.98509641629624</v>
+        <v>11.98509641629623</v>
       </c>
       <c r="T29" t="n">
-        <v>2.302348198018069</v>
+        <v>2.302348198018068</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04207603788496754</v>
+        <v>0.04207603788496751</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2814083123403227</v>
+        <v>0.2814083123403225</v>
       </c>
       <c r="H30" t="n">
-        <v>2.717811858655222</v>
+        <v>2.71781185865522</v>
       </c>
       <c r="I30" t="n">
-        <v>9.688838823997953</v>
+        <v>9.688838823997946</v>
       </c>
       <c r="J30" t="n">
-        <v>26.58691428124075</v>
+        <v>26.58691428124073</v>
       </c>
       <c r="K30" t="n">
-        <v>45.44127120804237</v>
+        <v>45.44127120804234</v>
       </c>
       <c r="L30" t="n">
-        <v>61.10139694038454</v>
+        <v>61.1013969403845</v>
       </c>
       <c r="M30" t="n">
-        <v>71.30244826272123</v>
+        <v>71.30244826272117</v>
       </c>
       <c r="N30" t="n">
-        <v>73.18961190117892</v>
+        <v>73.18961190117888</v>
       </c>
       <c r="O30" t="n">
-        <v>66.95419613826967</v>
+        <v>66.95419613826962</v>
       </c>
       <c r="P30" t="n">
-        <v>53.73664518716215</v>
+        <v>53.73664518716211</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.92152422084541</v>
+        <v>35.92152422084538</v>
       </c>
       <c r="R30" t="n">
-        <v>17.47200030477899</v>
+        <v>17.47200030477898</v>
       </c>
       <c r="S30" t="n">
-        <v>5.227035977023095</v>
+        <v>5.227035977023092</v>
       </c>
       <c r="T30" t="n">
-        <v>1.134272978248932</v>
+        <v>1.134272978248931</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01851370475923176</v>
+        <v>0.01851370475923175</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2359232759482429</v>
+        <v>0.2359232759482427</v>
       </c>
       <c r="H31" t="n">
-        <v>2.097572398885288</v>
+        <v>2.097572398885287</v>
       </c>
       <c r="I31" t="n">
-        <v>7.094856334879888</v>
+        <v>7.094856334879883</v>
       </c>
       <c r="J31" t="n">
-        <v>16.67977560954077</v>
+        <v>16.67977560954076</v>
       </c>
       <c r="K31" t="n">
-        <v>27.40999515107767</v>
+        <v>27.40999515107765</v>
       </c>
       <c r="L31" t="n">
-        <v>35.0753568623415</v>
+        <v>35.07535686234147</v>
       </c>
       <c r="M31" t="n">
-        <v>36.9820458834141</v>
+        <v>36.98204588341408</v>
       </c>
       <c r="N31" t="n">
-        <v>36.10269549124341</v>
+        <v>36.10269549124339</v>
       </c>
       <c r="O31" t="n">
-        <v>33.3466826767571</v>
+        <v>33.34668267675708</v>
       </c>
       <c r="P31" t="n">
-        <v>28.53384784741293</v>
+        <v>28.53384784741291</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.75535722508423</v>
+        <v>19.75535722508422</v>
       </c>
       <c r="R31" t="n">
-        <v>10.60796838945463</v>
+        <v>10.60796838945462</v>
       </c>
       <c r="S31" t="n">
-        <v>4.111499272661649</v>
+        <v>4.111499272661646</v>
       </c>
       <c r="T31" t="n">
         <v>1.008035815415219</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01286854232444963</v>
+        <v>0.01286854232444962</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5259504735620943</v>
+        <v>0.525950473562094</v>
       </c>
       <c r="H32" t="n">
-        <v>5.3863902873678</v>
+        <v>5.386390287367797</v>
       </c>
       <c r="I32" t="n">
-        <v>20.27670563200266</v>
+        <v>20.27670563200265</v>
       </c>
       <c r="J32" t="n">
-        <v>44.63938900549085</v>
+        <v>44.63938900549081</v>
       </c>
       <c r="K32" t="n">
-        <v>66.90287255137432</v>
+        <v>66.90287255137427</v>
       </c>
       <c r="L32" t="n">
-        <v>82.99892935665028</v>
+        <v>82.99892935665022</v>
       </c>
       <c r="M32" t="n">
-        <v>92.35230109086017</v>
+        <v>92.35230109086011</v>
       </c>
       <c r="N32" t="n">
-        <v>93.84665787386847</v>
+        <v>93.84665787386841</v>
       </c>
       <c r="O32" t="n">
-        <v>88.61673785238538</v>
+        <v>88.61673785238533</v>
       </c>
       <c r="P32" t="n">
-        <v>75.63233553632118</v>
+        <v>75.63233553632112</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.79673420187866</v>
+        <v>56.79673420187861</v>
       </c>
       <c r="R32" t="n">
-        <v>33.03823643489494</v>
+        <v>33.03823643489492</v>
       </c>
       <c r="S32" t="n">
-        <v>11.98509641629624</v>
+        <v>11.98509641629623</v>
       </c>
       <c r="T32" t="n">
-        <v>2.302348198018069</v>
+        <v>2.302348198018068</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04207603788496754</v>
+        <v>0.04207603788496751</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2814083123403227</v>
+        <v>0.2814083123403225</v>
       </c>
       <c r="H33" t="n">
-        <v>2.717811858655222</v>
+        <v>2.71781185865522</v>
       </c>
       <c r="I33" t="n">
-        <v>9.688838823997953</v>
+        <v>9.688838823997946</v>
       </c>
       <c r="J33" t="n">
-        <v>26.58691428124075</v>
+        <v>26.58691428124073</v>
       </c>
       <c r="K33" t="n">
-        <v>45.44127120804237</v>
+        <v>45.44127120804234</v>
       </c>
       <c r="L33" t="n">
-        <v>61.10139694038454</v>
+        <v>61.1013969403845</v>
       </c>
       <c r="M33" t="n">
-        <v>71.30244826272123</v>
+        <v>71.30244826272117</v>
       </c>
       <c r="N33" t="n">
-        <v>73.18961190117892</v>
+        <v>73.18961190117888</v>
       </c>
       <c r="O33" t="n">
-        <v>66.95419613826967</v>
+        <v>66.95419613826962</v>
       </c>
       <c r="P33" t="n">
-        <v>53.73664518716215</v>
+        <v>53.73664518716211</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.92152422084541</v>
+        <v>35.92152422084538</v>
       </c>
       <c r="R33" t="n">
-        <v>17.47200030477899</v>
+        <v>17.47200030477898</v>
       </c>
       <c r="S33" t="n">
-        <v>5.227035977023095</v>
+        <v>5.227035977023092</v>
       </c>
       <c r="T33" t="n">
-        <v>1.134272978248932</v>
+        <v>1.134272978248931</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01851370475923176</v>
+        <v>0.01851370475923175</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2359232759482429</v>
+        <v>0.2359232759482427</v>
       </c>
       <c r="H34" t="n">
-        <v>2.097572398885288</v>
+        <v>2.097572398885287</v>
       </c>
       <c r="I34" t="n">
-        <v>7.094856334879888</v>
+        <v>7.094856334879883</v>
       </c>
       <c r="J34" t="n">
-        <v>16.67977560954077</v>
+        <v>16.67977560954076</v>
       </c>
       <c r="K34" t="n">
-        <v>27.40999515107767</v>
+        <v>27.40999515107765</v>
       </c>
       <c r="L34" t="n">
-        <v>35.0753568623415</v>
+        <v>35.07535686234147</v>
       </c>
       <c r="M34" t="n">
-        <v>36.9820458834141</v>
+        <v>36.98204588341408</v>
       </c>
       <c r="N34" t="n">
-        <v>36.10269549124341</v>
+        <v>36.10269549124339</v>
       </c>
       <c r="O34" t="n">
-        <v>33.3466826767571</v>
+        <v>33.34668267675708</v>
       </c>
       <c r="P34" t="n">
-        <v>28.53384784741293</v>
+        <v>28.53384784741291</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.75535722508423</v>
+        <v>19.75535722508422</v>
       </c>
       <c r="R34" t="n">
-        <v>10.60796838945463</v>
+        <v>10.60796838945462</v>
       </c>
       <c r="S34" t="n">
-        <v>4.111499272661649</v>
+        <v>4.111499272661646</v>
       </c>
       <c r="T34" t="n">
         <v>1.008035815415219</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01286854232444963</v>
+        <v>0.01286854232444962</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5259504735620943</v>
+        <v>0.525950473562094</v>
       </c>
       <c r="H35" t="n">
-        <v>5.3863902873678</v>
+        <v>5.386390287367797</v>
       </c>
       <c r="I35" t="n">
-        <v>20.27670563200266</v>
+        <v>20.27670563200265</v>
       </c>
       <c r="J35" t="n">
-        <v>44.63938900549085</v>
+        <v>44.63938900549081</v>
       </c>
       <c r="K35" t="n">
-        <v>66.90287255137432</v>
+        <v>66.90287255137427</v>
       </c>
       <c r="L35" t="n">
-        <v>82.99892935665028</v>
+        <v>82.99892935665022</v>
       </c>
       <c r="M35" t="n">
-        <v>92.35230109086017</v>
+        <v>92.35230109086011</v>
       </c>
       <c r="N35" t="n">
-        <v>93.84665787386847</v>
+        <v>93.84665787386841</v>
       </c>
       <c r="O35" t="n">
-        <v>88.61673785238538</v>
+        <v>88.61673785238533</v>
       </c>
       <c r="P35" t="n">
-        <v>75.63233553632118</v>
+        <v>75.63233553632112</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.79673420187866</v>
+        <v>56.79673420187861</v>
       </c>
       <c r="R35" t="n">
-        <v>33.03823643489494</v>
+        <v>33.03823643489492</v>
       </c>
       <c r="S35" t="n">
-        <v>11.98509641629624</v>
+        <v>11.98509641629623</v>
       </c>
       <c r="T35" t="n">
-        <v>2.302348198018069</v>
+        <v>2.302348198018068</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04207603788496754</v>
+        <v>0.04207603788496751</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2814083123403227</v>
+        <v>0.2814083123403225</v>
       </c>
       <c r="H36" t="n">
-        <v>2.717811858655222</v>
+        <v>2.71781185865522</v>
       </c>
       <c r="I36" t="n">
-        <v>9.688838823997953</v>
+        <v>9.688838823997946</v>
       </c>
       <c r="J36" t="n">
-        <v>26.58691428124075</v>
+        <v>26.58691428124073</v>
       </c>
       <c r="K36" t="n">
-        <v>45.44127120804237</v>
+        <v>45.44127120804234</v>
       </c>
       <c r="L36" t="n">
-        <v>61.10139694038454</v>
+        <v>61.1013969403845</v>
       </c>
       <c r="M36" t="n">
-        <v>71.30244826272123</v>
+        <v>71.30244826272117</v>
       </c>
       <c r="N36" t="n">
-        <v>73.18961190117892</v>
+        <v>73.18961190117888</v>
       </c>
       <c r="O36" t="n">
-        <v>66.95419613826967</v>
+        <v>66.95419613826962</v>
       </c>
       <c r="P36" t="n">
-        <v>53.73664518716215</v>
+        <v>53.73664518716211</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.92152422084541</v>
+        <v>35.92152422084538</v>
       </c>
       <c r="R36" t="n">
-        <v>17.47200030477899</v>
+        <v>17.47200030477898</v>
       </c>
       <c r="S36" t="n">
-        <v>5.227035977023095</v>
+        <v>5.227035977023092</v>
       </c>
       <c r="T36" t="n">
-        <v>1.134272978248932</v>
+        <v>1.134272978248931</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01851370475923176</v>
+        <v>0.01851370475923175</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2359232759482429</v>
+        <v>0.2359232759482427</v>
       </c>
       <c r="H37" t="n">
-        <v>2.097572398885288</v>
+        <v>2.097572398885287</v>
       </c>
       <c r="I37" t="n">
-        <v>7.094856334879888</v>
+        <v>7.094856334879883</v>
       </c>
       <c r="J37" t="n">
-        <v>16.67977560954077</v>
+        <v>16.67977560954076</v>
       </c>
       <c r="K37" t="n">
-        <v>27.40999515107767</v>
+        <v>27.40999515107765</v>
       </c>
       <c r="L37" t="n">
-        <v>35.0753568623415</v>
+        <v>35.07535686234147</v>
       </c>
       <c r="M37" t="n">
-        <v>36.9820458834141</v>
+        <v>36.98204588341408</v>
       </c>
       <c r="N37" t="n">
-        <v>36.10269549124341</v>
+        <v>36.10269549124339</v>
       </c>
       <c r="O37" t="n">
-        <v>33.3466826767571</v>
+        <v>33.34668267675708</v>
       </c>
       <c r="P37" t="n">
-        <v>28.53384784741293</v>
+        <v>28.53384784741291</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.75535722508423</v>
+        <v>19.75535722508422</v>
       </c>
       <c r="R37" t="n">
-        <v>10.60796838945463</v>
+        <v>10.60796838945462</v>
       </c>
       <c r="S37" t="n">
-        <v>4.111499272661649</v>
+        <v>4.111499272661646</v>
       </c>
       <c r="T37" t="n">
         <v>1.008035815415219</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01286854232444963</v>
+        <v>0.01286854232444962</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5259504735620943</v>
+        <v>0.525950473562094</v>
       </c>
       <c r="H38" t="n">
-        <v>5.3863902873678</v>
+        <v>5.386390287367797</v>
       </c>
       <c r="I38" t="n">
-        <v>20.27670563200266</v>
+        <v>20.27670563200265</v>
       </c>
       <c r="J38" t="n">
-        <v>44.63938900549085</v>
+        <v>44.63938900549081</v>
       </c>
       <c r="K38" t="n">
-        <v>66.90287255137432</v>
+        <v>66.90287255137427</v>
       </c>
       <c r="L38" t="n">
-        <v>82.99892935665028</v>
+        <v>82.99892935665022</v>
       </c>
       <c r="M38" t="n">
-        <v>92.35230109086017</v>
+        <v>92.35230109086011</v>
       </c>
       <c r="N38" t="n">
-        <v>93.84665787386847</v>
+        <v>93.84665787386841</v>
       </c>
       <c r="O38" t="n">
-        <v>88.61673785238538</v>
+        <v>88.61673785238533</v>
       </c>
       <c r="P38" t="n">
-        <v>75.63233553632118</v>
+        <v>75.63233553632112</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.79673420187866</v>
+        <v>56.79673420187861</v>
       </c>
       <c r="R38" t="n">
-        <v>33.03823643489494</v>
+        <v>33.03823643489492</v>
       </c>
       <c r="S38" t="n">
-        <v>11.98509641629624</v>
+        <v>11.98509641629623</v>
       </c>
       <c r="T38" t="n">
-        <v>2.302348198018069</v>
+        <v>2.302348198018068</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04207603788496754</v>
+        <v>0.04207603788496751</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2814083123403227</v>
+        <v>0.2814083123403225</v>
       </c>
       <c r="H39" t="n">
-        <v>2.717811858655222</v>
+        <v>2.71781185865522</v>
       </c>
       <c r="I39" t="n">
-        <v>9.688838823997953</v>
+        <v>9.688838823997946</v>
       </c>
       <c r="J39" t="n">
-        <v>26.58691428124075</v>
+        <v>26.58691428124073</v>
       </c>
       <c r="K39" t="n">
-        <v>45.44127120804237</v>
+        <v>45.44127120804234</v>
       </c>
       <c r="L39" t="n">
-        <v>61.10139694038454</v>
+        <v>61.1013969403845</v>
       </c>
       <c r="M39" t="n">
-        <v>71.30244826272123</v>
+        <v>71.30244826272117</v>
       </c>
       <c r="N39" t="n">
-        <v>73.18961190117892</v>
+        <v>73.18961190117888</v>
       </c>
       <c r="O39" t="n">
-        <v>66.95419613826967</v>
+        <v>66.95419613826962</v>
       </c>
       <c r="P39" t="n">
-        <v>53.73664518716215</v>
+        <v>53.73664518716211</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.92152422084541</v>
+        <v>35.92152422084538</v>
       </c>
       <c r="R39" t="n">
-        <v>17.47200030477899</v>
+        <v>17.47200030477898</v>
       </c>
       <c r="S39" t="n">
-        <v>5.227035977023095</v>
+        <v>5.227035977023092</v>
       </c>
       <c r="T39" t="n">
-        <v>1.134272978248932</v>
+        <v>1.134272978248931</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01851370475923176</v>
+        <v>0.01851370475923175</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2359232759482429</v>
+        <v>0.2359232759482427</v>
       </c>
       <c r="H40" t="n">
-        <v>2.097572398885288</v>
+        <v>2.097572398885287</v>
       </c>
       <c r="I40" t="n">
-        <v>7.094856334879888</v>
+        <v>7.094856334879883</v>
       </c>
       <c r="J40" t="n">
-        <v>16.67977560954077</v>
+        <v>16.67977560954076</v>
       </c>
       <c r="K40" t="n">
-        <v>27.40999515107767</v>
+        <v>27.40999515107765</v>
       </c>
       <c r="L40" t="n">
-        <v>35.0753568623415</v>
+        <v>35.07535686234147</v>
       </c>
       <c r="M40" t="n">
-        <v>36.9820458834141</v>
+        <v>36.98204588341408</v>
       </c>
       <c r="N40" t="n">
-        <v>36.10269549124341</v>
+        <v>36.10269549124339</v>
       </c>
       <c r="O40" t="n">
-        <v>33.3466826767571</v>
+        <v>33.34668267675708</v>
       </c>
       <c r="P40" t="n">
-        <v>28.53384784741293</v>
+        <v>28.53384784741291</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.75535722508423</v>
+        <v>19.75535722508422</v>
       </c>
       <c r="R40" t="n">
-        <v>10.60796838945463</v>
+        <v>10.60796838945462</v>
       </c>
       <c r="S40" t="n">
-        <v>4.111499272661649</v>
+        <v>4.111499272661646</v>
       </c>
       <c r="T40" t="n">
         <v>1.008035815415219</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01286854232444963</v>
+        <v>0.01286854232444962</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5259504735620943</v>
+        <v>0.525950473562094</v>
       </c>
       <c r="H41" t="n">
-        <v>5.3863902873678</v>
+        <v>5.386390287367797</v>
       </c>
       <c r="I41" t="n">
-        <v>20.27670563200266</v>
+        <v>20.27670563200265</v>
       </c>
       <c r="J41" t="n">
-        <v>44.63938900549085</v>
+        <v>44.63938900549081</v>
       </c>
       <c r="K41" t="n">
-        <v>66.90287255137432</v>
+        <v>66.90287255137427</v>
       </c>
       <c r="L41" t="n">
-        <v>82.99892935665028</v>
+        <v>82.99892935665022</v>
       </c>
       <c r="M41" t="n">
-        <v>92.35230109086017</v>
+        <v>92.35230109086011</v>
       </c>
       <c r="N41" t="n">
-        <v>93.84665787386847</v>
+        <v>93.84665787386841</v>
       </c>
       <c r="O41" t="n">
-        <v>88.61673785238538</v>
+        <v>88.61673785238533</v>
       </c>
       <c r="P41" t="n">
-        <v>75.63233553632118</v>
+        <v>75.63233553632112</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.79673420187866</v>
+        <v>56.79673420187861</v>
       </c>
       <c r="R41" t="n">
-        <v>33.03823643489494</v>
+        <v>33.03823643489492</v>
       </c>
       <c r="S41" t="n">
-        <v>11.98509641629624</v>
+        <v>11.98509641629623</v>
       </c>
       <c r="T41" t="n">
-        <v>2.302348198018069</v>
+        <v>2.302348198018068</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04207603788496754</v>
+        <v>0.04207603788496751</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2814083123403227</v>
+        <v>0.2814083123403225</v>
       </c>
       <c r="H42" t="n">
-        <v>2.717811858655222</v>
+        <v>2.71781185865522</v>
       </c>
       <c r="I42" t="n">
-        <v>9.688838823997953</v>
+        <v>9.688838823997946</v>
       </c>
       <c r="J42" t="n">
-        <v>26.58691428124075</v>
+        <v>26.58691428124073</v>
       </c>
       <c r="K42" t="n">
-        <v>45.44127120804237</v>
+        <v>45.44127120804234</v>
       </c>
       <c r="L42" t="n">
-        <v>61.10139694038454</v>
+        <v>61.1013969403845</v>
       </c>
       <c r="M42" t="n">
-        <v>71.30244826272123</v>
+        <v>71.30244826272117</v>
       </c>
       <c r="N42" t="n">
-        <v>73.18961190117892</v>
+        <v>73.18961190117888</v>
       </c>
       <c r="O42" t="n">
-        <v>66.95419613826967</v>
+        <v>66.95419613826962</v>
       </c>
       <c r="P42" t="n">
-        <v>53.73664518716215</v>
+        <v>53.73664518716211</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.92152422084541</v>
+        <v>35.92152422084538</v>
       </c>
       <c r="R42" t="n">
-        <v>17.47200030477899</v>
+        <v>17.47200030477898</v>
       </c>
       <c r="S42" t="n">
-        <v>5.227035977023095</v>
+        <v>5.227035977023092</v>
       </c>
       <c r="T42" t="n">
-        <v>1.134272978248932</v>
+        <v>1.134272978248931</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01851370475923176</v>
+        <v>0.01851370475923175</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2359232759482429</v>
+        <v>0.2359232759482427</v>
       </c>
       <c r="H43" t="n">
-        <v>2.097572398885288</v>
+        <v>2.097572398885287</v>
       </c>
       <c r="I43" t="n">
-        <v>7.094856334879888</v>
+        <v>7.094856334879883</v>
       </c>
       <c r="J43" t="n">
-        <v>16.67977560954077</v>
+        <v>16.67977560954076</v>
       </c>
       <c r="K43" t="n">
-        <v>27.40999515107767</v>
+        <v>27.40999515107765</v>
       </c>
       <c r="L43" t="n">
-        <v>35.0753568623415</v>
+        <v>35.07535686234147</v>
       </c>
       <c r="M43" t="n">
-        <v>36.9820458834141</v>
+        <v>36.98204588341408</v>
       </c>
       <c r="N43" t="n">
-        <v>36.10269549124341</v>
+        <v>36.10269549124339</v>
       </c>
       <c r="O43" t="n">
-        <v>33.3466826767571</v>
+        <v>33.34668267675708</v>
       </c>
       <c r="P43" t="n">
-        <v>28.53384784741293</v>
+        <v>28.53384784741291</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.75535722508423</v>
+        <v>19.75535722508422</v>
       </c>
       <c r="R43" t="n">
-        <v>10.60796838945463</v>
+        <v>10.60796838945462</v>
       </c>
       <c r="S43" t="n">
-        <v>4.111499272661649</v>
+        <v>4.111499272661646</v>
       </c>
       <c r="T43" t="n">
         <v>1.008035815415219</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01286854232444963</v>
+        <v>0.01286854232444962</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5259504735620943</v>
+        <v>0.525950473562094</v>
       </c>
       <c r="H44" t="n">
-        <v>5.3863902873678</v>
+        <v>5.386390287367797</v>
       </c>
       <c r="I44" t="n">
-        <v>20.27670563200266</v>
+        <v>20.27670563200265</v>
       </c>
       <c r="J44" t="n">
-        <v>44.63938900549085</v>
+        <v>44.63938900549081</v>
       </c>
       <c r="K44" t="n">
-        <v>66.90287255137432</v>
+        <v>66.90287255137427</v>
       </c>
       <c r="L44" t="n">
-        <v>82.99892935665028</v>
+        <v>82.99892935665022</v>
       </c>
       <c r="M44" t="n">
-        <v>92.35230109086017</v>
+        <v>92.35230109086011</v>
       </c>
       <c r="N44" t="n">
-        <v>93.84665787386847</v>
+        <v>93.84665787386841</v>
       </c>
       <c r="O44" t="n">
-        <v>88.61673785238538</v>
+        <v>88.61673785238533</v>
       </c>
       <c r="P44" t="n">
-        <v>75.63233553632118</v>
+        <v>75.63233553632112</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.79673420187866</v>
+        <v>56.79673420187861</v>
       </c>
       <c r="R44" t="n">
-        <v>33.03823643489494</v>
+        <v>33.03823643489492</v>
       </c>
       <c r="S44" t="n">
-        <v>11.98509641629624</v>
+        <v>11.98509641629623</v>
       </c>
       <c r="T44" t="n">
-        <v>2.302348198018069</v>
+        <v>2.302348198018068</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04207603788496754</v>
+        <v>0.04207603788496751</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2814083123403227</v>
+        <v>0.2814083123403225</v>
       </c>
       <c r="H45" t="n">
-        <v>2.717811858655222</v>
+        <v>2.71781185865522</v>
       </c>
       <c r="I45" t="n">
-        <v>9.688838823997953</v>
+        <v>9.688838823997946</v>
       </c>
       <c r="J45" t="n">
-        <v>26.58691428124075</v>
+        <v>26.58691428124073</v>
       </c>
       <c r="K45" t="n">
-        <v>45.44127120804237</v>
+        <v>45.44127120804234</v>
       </c>
       <c r="L45" t="n">
-        <v>61.10139694038454</v>
+        <v>61.1013969403845</v>
       </c>
       <c r="M45" t="n">
-        <v>71.30244826272123</v>
+        <v>71.30244826272117</v>
       </c>
       <c r="N45" t="n">
-        <v>73.18961190117892</v>
+        <v>73.18961190117888</v>
       </c>
       <c r="O45" t="n">
-        <v>66.95419613826967</v>
+        <v>66.95419613826962</v>
       </c>
       <c r="P45" t="n">
-        <v>53.73664518716215</v>
+        <v>53.73664518716211</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.92152422084541</v>
+        <v>35.92152422084538</v>
       </c>
       <c r="R45" t="n">
-        <v>17.47200030477899</v>
+        <v>17.47200030477898</v>
       </c>
       <c r="S45" t="n">
-        <v>5.227035977023095</v>
+        <v>5.227035977023092</v>
       </c>
       <c r="T45" t="n">
-        <v>1.134272978248932</v>
+        <v>1.134272978248931</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01851370475923176</v>
+        <v>0.01851370475923175</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2359232759482429</v>
+        <v>0.2359232759482427</v>
       </c>
       <c r="H46" t="n">
-        <v>2.097572398885288</v>
+        <v>2.097572398885287</v>
       </c>
       <c r="I46" t="n">
-        <v>7.094856334879888</v>
+        <v>7.094856334879883</v>
       </c>
       <c r="J46" t="n">
-        <v>16.67977560954077</v>
+        <v>16.67977560954076</v>
       </c>
       <c r="K46" t="n">
-        <v>27.40999515107767</v>
+        <v>27.40999515107765</v>
       </c>
       <c r="L46" t="n">
-        <v>35.0753568623415</v>
+        <v>35.07535686234147</v>
       </c>
       <c r="M46" t="n">
-        <v>36.9820458834141</v>
+        <v>36.98204588341408</v>
       </c>
       <c r="N46" t="n">
-        <v>36.10269549124341</v>
+        <v>36.10269549124339</v>
       </c>
       <c r="O46" t="n">
-        <v>33.3466826767571</v>
+        <v>33.34668267675708</v>
       </c>
       <c r="P46" t="n">
-        <v>28.53384784741293</v>
+        <v>28.53384784741291</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.75535722508423</v>
+        <v>19.75535722508422</v>
       </c>
       <c r="R46" t="n">
-        <v>10.60796838945463</v>
+        <v>10.60796838945462</v>
       </c>
       <c r="S46" t="n">
-        <v>4.111499272661649</v>
+        <v>4.111499272661646</v>
       </c>
       <c r="T46" t="n">
         <v>1.008035815415219</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01286854232444963</v>
+        <v>0.01286854232444962</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>43.98011187092843</v>
+        <v>43.98011187092841</v>
       </c>
       <c r="K11" t="n">
         <v>189.4264968565296</v>
       </c>
       <c r="L11" t="n">
-        <v>287.4943378933812</v>
+        <v>287.4943378933811</v>
       </c>
       <c r="M11" t="n">
-        <v>335.2587985268151</v>
+        <v>335.258798526815</v>
       </c>
       <c r="N11" t="n">
         <v>325.0097222556558</v>
       </c>
       <c r="O11" t="n">
-        <v>260.303170229496</v>
+        <v>260.3031702294959</v>
       </c>
       <c r="P11" t="n">
         <v>184.8508211732753</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.85627686059127</v>
+        <v>60.85627686059124</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35495,19 +35495,19 @@
         <v>311.6848357706047</v>
       </c>
       <c r="M12" t="n">
-        <v>417.0550314887533</v>
+        <v>171.4536741438907</v>
       </c>
       <c r="N12" t="n">
-        <v>400.1176026302084</v>
+        <v>426.0989638545933</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>337.539669852735</v>
       </c>
       <c r="P12" t="n">
         <v>254.3128773437248</v>
       </c>
       <c r="Q12" t="n">
-        <v>117.9196737322575</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.03919789560291</v>
+        <v>50.03919789560295</v>
       </c>
       <c r="K13" t="n">
-        <v>134.8338526470854</v>
+        <v>134.8338526470855</v>
       </c>
       <c r="L13" t="n">
         <v>194.7347543051919</v>
       </c>
       <c r="M13" t="n">
-        <v>209.3777210941637</v>
+        <v>209.3777210941638</v>
       </c>
       <c r="N13" t="n">
         <v>212.4979823697224</v>
       </c>
       <c r="O13" t="n">
-        <v>190.1131579205692</v>
+        <v>190.1131579205693</v>
       </c>
       <c r="P13" t="n">
-        <v>156.8541369599378</v>
+        <v>156.8541369599379</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.19292456307713</v>
+        <v>62.19292456307718</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>43.98011187092843</v>
+        <v>43.9801118709288</v>
       </c>
       <c r="K14" t="n">
         <v>189.4264968565296</v>
       </c>
       <c r="L14" t="n">
-        <v>287.4943378933812</v>
+        <v>287.494337893381</v>
       </c>
       <c r="M14" t="n">
-        <v>335.2587985268148</v>
+        <v>335.258798526815</v>
       </c>
       <c r="N14" t="n">
-        <v>325.0097222556558</v>
+        <v>325.0097222556557</v>
       </c>
       <c r="O14" t="n">
-        <v>260.303170229496</v>
+        <v>260.3031702294959</v>
       </c>
       <c r="P14" t="n">
         <v>184.8508211732753</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.85627686059127</v>
+        <v>60.85627686059123</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>34.0549050352659</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>311.6848357706047</v>
       </c>
       <c r="M15" t="n">
-        <v>417.0550314887533</v>
+        <v>417.0550314887532</v>
       </c>
       <c r="N15" t="n">
         <v>426.0989638545933</v>
@@ -35741,7 +35741,7 @@
         <v>337.539669852735</v>
       </c>
       <c r="P15" t="n">
-        <v>160.7463296647202</v>
+        <v>194.8012346999863</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>50.03919789560297</v>
+        <v>50.03919789560291</v>
       </c>
       <c r="K16" t="n">
-        <v>134.8338526470855</v>
+        <v>134.8338526470854</v>
       </c>
       <c r="L16" t="n">
-        <v>194.7347543051919</v>
+        <v>194.7347543051918</v>
       </c>
       <c r="M16" t="n">
-        <v>209.3777210941638</v>
+        <v>209.3777210941637</v>
       </c>
       <c r="N16" t="n">
         <v>212.4979823697224</v>
       </c>
       <c r="O16" t="n">
-        <v>190.1131579205693</v>
+        <v>190.1131579205692</v>
       </c>
       <c r="P16" t="n">
-        <v>156.8541369599379</v>
+        <v>156.8541369599378</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.19292456307718</v>
+        <v>62.19292456307713</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>43.98011187092843</v>
+        <v>43.98011187092842</v>
       </c>
       <c r="K17" t="n">
-        <v>189.4264968565294</v>
+        <v>189.4264968565296</v>
       </c>
       <c r="L17" t="n">
-        <v>287.4943378933812</v>
+        <v>287.4943378933811</v>
       </c>
       <c r="M17" t="n">
-        <v>335.2587985268151</v>
+        <v>335.258798526815</v>
       </c>
       <c r="N17" t="n">
         <v>325.0097222556558</v>
@@ -35902,7 +35902,7 @@
         <v>184.8508211732753</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.85627686059127</v>
+        <v>60.85627686059126</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>34.0549050352659</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>186.0897147011241</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>311.6848357706047</v>
+        <v>252.1731931268663</v>
       </c>
       <c r="M18" t="n">
-        <v>19.47909537636734</v>
+        <v>417.0550314887533</v>
       </c>
       <c r="N18" t="n">
         <v>426.0989638545933</v>
@@ -35981,7 +35981,7 @@
         <v>254.3128773437248</v>
       </c>
       <c r="Q18" t="n">
-        <v>117.9196737322575</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>12.63558543324432</v>
+        <v>12.63558543324431</v>
       </c>
       <c r="L19" t="n">
         <v>72.53648709135078</v>
       </c>
       <c r="M19" t="n">
-        <v>87.17945388032267</v>
+        <v>87.17945388032265</v>
       </c>
       <c r="N19" t="n">
         <v>90.2997151558813</v>
@@ -36057,7 +36057,7 @@
         <v>67.91489070672816</v>
       </c>
       <c r="P19" t="n">
-        <v>34.65586974609677</v>
+        <v>34.65586974609676</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>43.98011187092843</v>
+        <v>43.9801118709284</v>
       </c>
       <c r="K20" t="n">
         <v>189.4264968565296</v>
       </c>
       <c r="L20" t="n">
-        <v>287.4943378933812</v>
+        <v>287.494337893381</v>
       </c>
       <c r="M20" t="n">
-        <v>335.2587985268151</v>
+        <v>335.258798526815</v>
       </c>
       <c r="N20" t="n">
-        <v>325.0097222556558</v>
+        <v>325.0097222556557</v>
       </c>
       <c r="O20" t="n">
-        <v>260.303170229496</v>
+        <v>260.3031702294959</v>
       </c>
       <c r="P20" t="n">
         <v>184.8508211732753</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.85627686059127</v>
+        <v>60.85627686059123</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>34.05490503526589</v>
       </c>
       <c r="K21" t="n">
         <v>186.0897147011241</v>
@@ -36206,10 +36206,10 @@
         <v>311.6848357706047</v>
       </c>
       <c r="M21" t="n">
-        <v>417.0550314887533</v>
+        <v>417.0550314887532</v>
       </c>
       <c r="N21" t="n">
-        <v>180.4976065097306</v>
+        <v>146.4427014744647</v>
       </c>
       <c r="O21" t="n">
         <v>337.539669852735</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>12.63558543324432</v>
+        <v>12.6355854332443</v>
       </c>
       <c r="L22" t="n">
-        <v>72.53648709135078</v>
+        <v>72.53648709135075</v>
       </c>
       <c r="M22" t="n">
-        <v>87.17945388032267</v>
+        <v>87.17945388032265</v>
       </c>
       <c r="N22" t="n">
-        <v>90.2997151558813</v>
+        <v>90.29971515588127</v>
       </c>
       <c r="O22" t="n">
-        <v>67.91489070672816</v>
+        <v>67.91489070672814</v>
       </c>
       <c r="P22" t="n">
-        <v>34.65586974609677</v>
+        <v>34.65586974609675</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,37 +36355,37 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>43.98011187092843</v>
+        <v>43.9801118709284</v>
       </c>
       <c r="K23" t="n">
         <v>189.4264968565296</v>
       </c>
       <c r="L23" t="n">
-        <v>287.4943378933812</v>
+        <v>287.494337893381</v>
       </c>
       <c r="M23" t="n">
-        <v>335.2587985268151</v>
+        <v>335.258798526815</v>
       </c>
       <c r="N23" t="n">
-        <v>325.0097222556558</v>
+        <v>325.0097222556557</v>
       </c>
       <c r="O23" t="n">
-        <v>260.303170229496</v>
+        <v>260.3031702294959</v>
       </c>
       <c r="P23" t="n">
         <v>184.8508211732753</v>
       </c>
       <c r="Q23" t="n">
-        <v>60.85627686059127</v>
+        <v>60.85627686059123</v>
       </c>
       <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
         <v>1.508206346111686</v>
       </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
       <c r="T23" t="n">
-        <v>2.297045684424649</v>
+        <v>2.297045684424647</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>34.05490503526589</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>186.0897147011241</v>
       </c>
       <c r="L24" t="n">
         <v>311.6848357706047</v>
       </c>
       <c r="M24" t="n">
-        <v>417.0550314887533</v>
+        <v>22.3233271236812</v>
       </c>
       <c r="N24" t="n">
-        <v>370.3925732413911</v>
+        <v>427.0599841378154</v>
       </c>
       <c r="O24" t="n">
         <v>337.539669852735</v>
@@ -36455,7 +36455,7 @@
         <v>254.3128773437248</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>117.9196737322575</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>12.63558543324432</v>
+        <v>12.6355854332443</v>
       </c>
       <c r="L25" t="n">
-        <v>72.53648709135078</v>
+        <v>72.53648709135075</v>
       </c>
       <c r="M25" t="n">
-        <v>87.17945388032267</v>
+        <v>87.17945388032265</v>
       </c>
       <c r="N25" t="n">
-        <v>90.2997151558813</v>
+        <v>90.29971515588127</v>
       </c>
       <c r="O25" t="n">
-        <v>67.91489070672816</v>
+        <v>67.91489070672814</v>
       </c>
       <c r="P25" t="n">
-        <v>34.65586974609677</v>
+        <v>34.65586974609675</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36598,13 +36598,13 @@
         <v>331.5447520882844</v>
       </c>
       <c r="L26" t="n">
-        <v>429.612593125136</v>
+        <v>429.6125931251358</v>
       </c>
       <c r="M26" t="n">
-        <v>477.3770537585699</v>
+        <v>477.3770537585698</v>
       </c>
       <c r="N26" t="n">
-        <v>467.1279774874106</v>
+        <v>467.1279774874105</v>
       </c>
       <c r="O26" t="n">
         <v>402.4214254612507</v>
@@ -36613,10 +36613,10 @@
         <v>326.9690764050301</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.9745320923461</v>
+        <v>202.974532092346</v>
       </c>
       <c r="R26" t="n">
-        <v>33.30566896577267</v>
+        <v>33.30566896577264</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>34.0549050352659</v>
+        <v>34.05490503526589</v>
       </c>
       <c r="K27" t="n">
         <v>186.0897147011241</v>
@@ -36680,10 +36680,10 @@
         <v>311.6848357706047</v>
       </c>
       <c r="M27" t="n">
-        <v>417.0550314887533</v>
+        <v>417.0550314887532</v>
       </c>
       <c r="N27" t="n">
-        <v>443.6475119372246</v>
+        <v>443.6475119372245</v>
       </c>
       <c r="O27" t="n">
         <v>337.539669852735</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.95918591351663</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>36.55224816264052</v>
+        <v>24.39852149516642</v>
       </c>
       <c r="L28" t="n">
-        <v>72.53648709135078</v>
+        <v>72.53648709135075</v>
       </c>
       <c r="M28" t="n">
         <v>229.2977091120775</v>
       </c>
       <c r="N28" t="n">
-        <v>90.2997151558813</v>
+        <v>232.4179703876361</v>
       </c>
       <c r="O28" t="n">
-        <v>210.033145938483</v>
+        <v>67.91489070672814</v>
       </c>
       <c r="P28" t="n">
         <v>176.7741249778516</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>82.11291258099084</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,19 +36841,19 @@
         <v>477.3770537585698</v>
       </c>
       <c r="N29" t="n">
-        <v>467.1279774874106</v>
+        <v>467.1279774874105</v>
       </c>
       <c r="O29" t="n">
-        <v>402.4214254612508</v>
+        <v>402.4214254612507</v>
       </c>
       <c r="P29" t="n">
-        <v>326.9690764050301</v>
+        <v>326.96907640503</v>
       </c>
       <c r="Q29" t="n">
         <v>202.974532092346</v>
       </c>
       <c r="R29" t="n">
-        <v>33.30566896577264</v>
+        <v>33.30566896577262</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>34.0549050352659</v>
+        <v>34.05490503526589</v>
       </c>
       <c r="K30" t="n">
         <v>186.0897147011241</v>
@@ -36917,10 +36917,10 @@
         <v>311.6848357706047</v>
       </c>
       <c r="M30" t="n">
-        <v>417.0550314887533</v>
+        <v>417.0550314887532</v>
       </c>
       <c r="N30" t="n">
-        <v>443.6475119372246</v>
+        <v>443.6475119372245</v>
       </c>
       <c r="O30" t="n">
         <v>337.539669852735</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.95918591351661</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>154.7538406649991</v>
       </c>
       <c r="L31" t="n">
-        <v>214.6547423231056</v>
+        <v>214.6547423231055</v>
       </c>
       <c r="M31" t="n">
-        <v>229.2977091120774</v>
+        <v>181.0553025232363</v>
       </c>
       <c r="N31" t="n">
-        <v>90.2997151558813</v>
+        <v>90.29971515588127</v>
       </c>
       <c r="O31" t="n">
-        <v>67.91489070672816</v>
+        <v>210.0331459384829</v>
       </c>
       <c r="P31" t="n">
-        <v>34.65586974609677</v>
+        <v>34.65586974609675</v>
       </c>
       <c r="Q31" t="n">
-        <v>23.91666272939693</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,22 +37075,22 @@
         <v>429.6125931251358</v>
       </c>
       <c r="M32" t="n">
-        <v>477.3770537585696</v>
+        <v>477.3770537585698</v>
       </c>
       <c r="N32" t="n">
-        <v>467.1279774874106</v>
+        <v>467.1279774874105</v>
       </c>
       <c r="O32" t="n">
         <v>402.4214254612507</v>
       </c>
       <c r="P32" t="n">
-        <v>326.9690764050301</v>
+        <v>326.9690764050303</v>
       </c>
       <c r="Q32" t="n">
         <v>202.974532092346</v>
       </c>
       <c r="R32" t="n">
-        <v>33.30566896577264</v>
+        <v>33.30566896577262</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>34.0549050352659</v>
+        <v>34.05490503526589</v>
       </c>
       <c r="K33" t="n">
         <v>186.0897147011241</v>
@@ -37154,10 +37154,10 @@
         <v>311.6848357706047</v>
       </c>
       <c r="M33" t="n">
-        <v>417.0550314887533</v>
+        <v>417.0550314887532</v>
       </c>
       <c r="N33" t="n">
-        <v>443.6475119372246</v>
+        <v>443.6475119372245</v>
       </c>
       <c r="O33" t="n">
         <v>337.539669852735</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.39852149516685</v>
+        <v>12.6355854332443</v>
       </c>
       <c r="L34" t="n">
-        <v>72.53648709135078</v>
+        <v>214.6547423231055</v>
       </c>
       <c r="M34" t="n">
-        <v>87.17945388032267</v>
+        <v>87.17945388032265</v>
       </c>
       <c r="N34" t="n">
-        <v>232.4179703876361</v>
+        <v>102.062651217804</v>
       </c>
       <c r="O34" t="n">
         <v>210.0331459384829</v>
       </c>
       <c r="P34" t="n">
-        <v>176.7741249778516</v>
+        <v>176.7741249778515</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.11291258099082</v>
+        <v>82.11291258099081</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.92947222551156</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>43.98011187092843</v>
+        <v>43.9801118709284</v>
       </c>
       <c r="K35" t="n">
         <v>189.4264968565296</v>
       </c>
       <c r="L35" t="n">
-        <v>287.4943378933812</v>
+        <v>287.494337893381</v>
       </c>
       <c r="M35" t="n">
-        <v>335.2587985268151</v>
+        <v>335.258798526815</v>
       </c>
       <c r="N35" t="n">
-        <v>325.0097222556558</v>
+        <v>325.0097222556557</v>
       </c>
       <c r="O35" t="n">
-        <v>260.303170229496</v>
+        <v>260.3031702294959</v>
       </c>
       <c r="P35" t="n">
         <v>184.8508211732753</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.85627686059127</v>
+        <v>60.85627686059123</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>31.92947222551107</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>32.57717143272598</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>186.0897147011241</v>
       </c>
       <c r="L36" t="n">
         <v>311.6848357706047</v>
       </c>
       <c r="M36" t="n">
-        <v>417.0550314887533</v>
+        <v>417.0550314887532</v>
       </c>
       <c r="N36" t="n">
-        <v>434.1627846462404</v>
+        <v>434.1627846462401</v>
       </c>
       <c r="O36" t="n">
         <v>337.539669852735</v>
       </c>
       <c r="P36" t="n">
-        <v>218.6668861338509</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>12.63558543324432</v>
+        <v>12.6355854332443</v>
       </c>
       <c r="L37" t="n">
-        <v>72.53648709135078</v>
+        <v>72.53648709135075</v>
       </c>
       <c r="M37" t="n">
-        <v>87.17945388032267</v>
+        <v>87.17945388032265</v>
       </c>
       <c r="N37" t="n">
-        <v>90.2997151558813</v>
+        <v>90.29971515588127</v>
       </c>
       <c r="O37" t="n">
-        <v>67.91489070672816</v>
+        <v>67.91489070672814</v>
       </c>
       <c r="P37" t="n">
-        <v>34.65586974609677</v>
+        <v>34.65586974609675</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.92947222551156</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>43.98011187092843</v>
+        <v>43.9801118709284</v>
       </c>
       <c r="K38" t="n">
         <v>189.4264968565296</v>
       </c>
       <c r="L38" t="n">
-        <v>287.4943378933812</v>
+        <v>287.494337893381</v>
       </c>
       <c r="M38" t="n">
-        <v>335.2587985268151</v>
+        <v>335.258798526815</v>
       </c>
       <c r="N38" t="n">
-        <v>325.0097222556558</v>
+        <v>325.0097222556557</v>
       </c>
       <c r="O38" t="n">
-        <v>260.303170229496</v>
+        <v>260.3031702294959</v>
       </c>
       <c r="P38" t="n">
         <v>184.8508211732753</v>
       </c>
       <c r="Q38" t="n">
-        <v>60.85627686059127</v>
+        <v>60.85627686059123</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>31.92947222551221</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>34.05490503526589</v>
       </c>
       <c r="K39" t="n">
-        <v>100.7472124015934</v>
+        <v>186.0897147011241</v>
       </c>
       <c r="L39" t="n">
         <v>311.6848357706047</v>
       </c>
       <c r="M39" t="n">
-        <v>417.0550314887533</v>
+        <v>417.0550314887532</v>
       </c>
       <c r="N39" t="n">
         <v>434.1627846462404</v>
       </c>
       <c r="O39" t="n">
-        <v>337.539669852735</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>218.1422625179385</v>
       </c>
       <c r="Q39" t="n">
         <v>117.9196737322575</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>12.63558543324432</v>
+        <v>12.6355854332443</v>
       </c>
       <c r="L40" t="n">
-        <v>72.53648709135078</v>
+        <v>72.53648709135075</v>
       </c>
       <c r="M40" t="n">
-        <v>87.17945388032267</v>
+        <v>87.17945388032265</v>
       </c>
       <c r="N40" t="n">
-        <v>90.2997151558813</v>
+        <v>90.29971515588127</v>
       </c>
       <c r="O40" t="n">
-        <v>67.91489070672816</v>
+        <v>67.91489070672814</v>
       </c>
       <c r="P40" t="n">
-        <v>34.65586974609677</v>
+        <v>34.65586974609675</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>8.932253071121654</v>
       </c>
       <c r="J41" t="n">
-        <v>237.8599671781714</v>
+        <v>43.9801118709284</v>
       </c>
       <c r="K41" t="n">
         <v>189.4264968565296</v>
       </c>
       <c r="L41" t="n">
-        <v>287.4943378933812</v>
+        <v>287.494337893381</v>
       </c>
       <c r="M41" t="n">
-        <v>335.2587985268151</v>
+        <v>335.258798526815</v>
       </c>
       <c r="N41" t="n">
-        <v>518.3066384138693</v>
+        <v>325.0097222556557</v>
       </c>
       <c r="O41" t="n">
-        <v>260.303170229496</v>
+        <v>260.3031702294959</v>
       </c>
       <c r="P41" t="n">
-        <v>184.8508211732753</v>
+        <v>284.1482152191064</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.85627686059127</v>
+        <v>254.7361321678343</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>85.06726904126086</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>34.0549050352659</v>
+        <v>34.05490503526589</v>
       </c>
       <c r="K42" t="n">
         <v>186.0897147011241</v>
@@ -37865,10 +37865,10 @@
         <v>311.6848357706047</v>
       </c>
       <c r="M42" t="n">
-        <v>417.0550314887533</v>
+        <v>417.0550314887532</v>
       </c>
       <c r="N42" t="n">
-        <v>443.6475119372246</v>
+        <v>443.6475119372245</v>
       </c>
       <c r="O42" t="n">
         <v>337.539669852735</v>
@@ -37877,7 +37877,7 @@
         <v>254.3128773437248</v>
       </c>
       <c r="Q42" t="n">
-        <v>89.97196100269683</v>
+        <v>89.9719610026966</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37917,10 +37917,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.4230488151938359</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4230488151938286</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.63558543324432</v>
+        <v>12.6355854332443</v>
       </c>
       <c r="L43" t="n">
-        <v>72.53648709135078</v>
+        <v>72.53648709135075</v>
       </c>
       <c r="M43" t="n">
-        <v>87.17945388032267</v>
+        <v>87.17945388032265</v>
       </c>
       <c r="N43" t="n">
-        <v>90.2997151558813</v>
+        <v>90.29971515588127</v>
       </c>
       <c r="O43" t="n">
-        <v>67.91489070672816</v>
+        <v>67.91489070672814</v>
       </c>
       <c r="P43" t="n">
-        <v>34.65586974609677</v>
+        <v>34.65586974609675</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8.932253071121639</v>
+        <v>8.932253071121711</v>
       </c>
       <c r="J44" t="n">
-        <v>43.98011187092843</v>
+        <v>43.9801118709284</v>
       </c>
       <c r="K44" t="n">
         <v>189.4264968565296</v>
       </c>
       <c r="L44" t="n">
-        <v>287.4943378933812</v>
+        <v>481.3741932006242</v>
       </c>
       <c r="M44" t="n">
-        <v>335.2587985268151</v>
+        <v>335.258798526815</v>
       </c>
       <c r="N44" t="n">
-        <v>325.0097222556558</v>
+        <v>325.0097222556557</v>
       </c>
       <c r="O44" t="n">
-        <v>260.303170229496</v>
+        <v>359.6005642753269</v>
       </c>
       <c r="P44" t="n">
-        <v>378.7306764805184</v>
+        <v>184.8508211732753</v>
       </c>
       <c r="Q44" t="n">
-        <v>160.1536709064223</v>
+        <v>60.85627686059123</v>
       </c>
       <c r="R44" t="n">
-        <v>85.06726904126086</v>
+        <v>85.06726904126091</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>34.0549050352659</v>
+        <v>34.05490503526589</v>
       </c>
       <c r="K45" t="n">
         <v>186.0897147011241</v>
@@ -38102,10 +38102,10 @@
         <v>311.6848357706047</v>
       </c>
       <c r="M45" t="n">
-        <v>417.0550314887533</v>
+        <v>417.0550314887532</v>
       </c>
       <c r="N45" t="n">
-        <v>415.6997992076641</v>
+        <v>443.6475119372245</v>
       </c>
       <c r="O45" t="n">
         <v>337.539669852735</v>
@@ -38114,7 +38114,7 @@
         <v>254.3128773437248</v>
       </c>
       <c r="Q45" t="n">
-        <v>117.9196737322575</v>
+        <v>89.9719610026966</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,28 +38175,28 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>12.63558543324432</v>
+        <v>12.6355854332443</v>
       </c>
       <c r="L46" t="n">
-        <v>72.53648709135078</v>
+        <v>72.53648709135075</v>
       </c>
       <c r="M46" t="n">
-        <v>87.17945388032267</v>
+        <v>87.17945388032265</v>
       </c>
       <c r="N46" t="n">
-        <v>90.2997151558813</v>
+        <v>90.29971515588127</v>
       </c>
       <c r="O46" t="n">
-        <v>68.33793952192195</v>
+        <v>67.91489070672814</v>
       </c>
       <c r="P46" t="n">
-        <v>34.65586974609677</v>
+        <v>34.65586974609675</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.4230488151933119</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
